--- a/dc_extracted/dc_federated_master_result.xlsx
+++ b/dc_extracted/dc_federated_master_result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="138">
   <si>
     <t>id</t>
   </si>
@@ -82,376 +82,331 @@
     <t>06_08_2021_154356_combined</t>
   </si>
   <si>
+    <t>06_08_2021_154130_combined</t>
+  </si>
+  <si>
     <t>06_08_2021_154036_combined</t>
   </si>
   <si>
-    <t>06_08_2021_154130_combined</t>
+    <t>06_08_2021_152950_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_153345_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_121342_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_035945_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_025755_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_031902_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_045011_combined</t>
+  </si>
+  <si>
+    <t>01_08_2021_030914_combined</t>
+  </si>
+  <si>
+    <t>01_08_2021_025705_combined</t>
+  </si>
+  <si>
+    <t>01_08_2021_032757_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_033018_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_144804_combined</t>
+  </si>
+  <si>
+    <t>01_08_2021_042327_combined</t>
+  </si>
+  <si>
+    <t>01_08_2021_031354_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_045240_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_144615_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_115912_combined</t>
+  </si>
+  <si>
+    <t>01_08_2021_032149_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_050236_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_124429_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_050035_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_153232_combined</t>
+  </si>
+  <si>
+    <t>01_08_2021_041034_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_122930_combined</t>
+  </si>
+  <si>
+    <t>01_08_2021_184140_combined</t>
+  </si>
+  <si>
+    <t>01_08_2021_033632_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_144858_combined</t>
+  </si>
+  <si>
+    <t>01_08_2021_042833_combined</t>
+  </si>
+  <si>
+    <t>01_08_2021_034922_combined</t>
+  </si>
+  <si>
+    <t>01_08_2021_200630_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_040120_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_152819_combined</t>
+  </si>
+  <si>
+    <t>01_08_2021_042211_combined</t>
+  </si>
+  <si>
+    <t>01_08_2021_025908_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_154526_combined</t>
+  </si>
+  <si>
+    <t>01_08_2021_040836_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_060114_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_050519_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_012727_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_144238_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_041416_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_021104_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_032342_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_152712_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_013747_combined</t>
   </si>
   <si>
     <t>06_08_2021_153640_combined</t>
   </si>
   <si>
-    <t>01_08_2021_025908_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_153345_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_144238_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_035945_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_121342_combined</t>
+    <t>01_08_2021_180525_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_014939_combined</t>
+  </si>
+  <si>
+    <t>01_08_2021_025033_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_053841_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_033322_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_045409_combined</t>
+  </si>
+  <si>
+    <t>01_08_2021_025418_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_025215_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_032524_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_025512_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_143559_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_045140_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_005330_combined</t>
+  </si>
+  <si>
+    <t>01_08_2021_025752_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_042300_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_014427_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_042117_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_145047_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_115334_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_045738_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_005143_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_020510_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_021225_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_005956_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_012903_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_034613_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_010401_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_015053_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_055534_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_142230_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_032639_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_022816_combined</t>
+  </si>
+  <si>
+    <t>01_08_2021_030035_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_054259_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_040600_combined</t>
+  </si>
+  <si>
+    <t>01_08_2021_040452_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_152429_combined</t>
+  </si>
+  <si>
+    <t>01_08_2021_042657_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_153917_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_052036_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_044041_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_055952_combined</t>
+  </si>
+  <si>
+    <t>01_08_2021_024159_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_035614_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_154657_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_153433_combined</t>
   </si>
   <si>
     <t>01_08_2021_022514_combined</t>
   </si>
   <si>
-    <t>06_08_2021_115912_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_152950_combined</t>
-  </si>
-  <si>
     <t>01_08_2021_043421_combined</t>
   </si>
   <si>
-    <t>06_08_2021_144615_combined</t>
-  </si>
-  <si>
-    <t>01_08_2021_041034_combined</t>
-  </si>
-  <si>
-    <t>01_08_2021_032757_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_045011_combined</t>
-  </si>
-  <si>
-    <t>01_08_2021_200630_combined</t>
-  </si>
-  <si>
-    <t>01_08_2021_042833_combined</t>
-  </si>
-  <si>
-    <t>01_08_2021_030035_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_031902_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_042117_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_153232_combined</t>
-  </si>
-  <si>
-    <t>01_08_2021_032149_combined</t>
-  </si>
-  <si>
-    <t>01_08_2021_034922_combined</t>
-  </si>
-  <si>
-    <t>01_08_2021_025705_combined</t>
-  </si>
-  <si>
-    <t>01_08_2021_025033_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_050035_combined</t>
-  </si>
-  <si>
-    <t>01_08_2021_024159_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_144858_combined</t>
-  </si>
-  <si>
-    <t>01_08_2021_042211_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_033018_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_050236_combined</t>
+    <t>01_08_2021_041842_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_153522_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_153120_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_152606_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_153759_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_152253_combined</t>
   </si>
   <si>
     <t>01_08_2021_043036_combined</t>
   </si>
   <si>
-    <t>01_08_2021_041842_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_045240_combined</t>
-  </si>
-  <si>
-    <t>01_08_2021_025418_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_122930_combined</t>
-  </si>
-  <si>
-    <t>01_08_2021_035338_combined</t>
-  </si>
-  <si>
-    <t>01_08_2021_184140_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_025755_combined</t>
-  </si>
-  <si>
-    <t>01_08_2021_033632_combined</t>
-  </si>
-  <si>
-    <t>01_08_2021_032251_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_050519_combined</t>
-  </si>
-  <si>
-    <t>01_08_2021_025752_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_014610_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_032342_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_115334_combined</t>
-  </si>
-  <si>
-    <t>01_08_2021_040836_combined</t>
-  </si>
-  <si>
-    <t>01_08_2021_042327_combined</t>
-  </si>
-  <si>
-    <t>01_08_2021_030914_combined</t>
-  </si>
-  <si>
-    <t>01_08_2021_180525_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_040120_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_114832_combined</t>
-  </si>
-  <si>
-    <t>01_08_2021_040452_combined</t>
-  </si>
-  <si>
-    <t>01_08_2021_031354_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_045409_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_012727_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_060114_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_053841_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_014939_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_144804_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_055952_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_005330_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_021104_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_025215_combined</t>
-  </si>
-  <si>
-    <t>01_08_2021_031713_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_041416_combined</t>
-  </si>
-  <si>
-    <t>01_08_2021_042550_combined</t>
-  </si>
-  <si>
-    <t>01_08_2021_042657_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_052036_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_013747_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_032524_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_045140_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_015053_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_033322_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_014427_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_042300_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_035614_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_054259_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_020510_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_045738_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_044041_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_021225_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_025512_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_005956_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_055534_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_143559_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_010401_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_034613_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_022816_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_012903_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_005143_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_154657_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_032639_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_145047_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_124429_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_142230_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_040600_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_013457_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_024939_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_050951_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_052151_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_045523_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_005735_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_010825_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_045637_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_023020_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_152429_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_152712_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_153917_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_153433_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_152819_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_154526_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_153522_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_153120_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_152606_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_153759_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_152253_combined</t>
-  </si>
-  <si>
     <t>64</t>
   </si>
   <si>
+    <t>256</t>
+  </si>
+  <si>
     <t>32</t>
   </si>
   <si>
+    <t>16</t>
+  </si>
+  <si>
     <t>128</t>
   </si>
   <si>
-    <t>256</t>
-  </si>
-  <si>
     <t>8</t>
-  </si>
-  <si>
-    <t>16</t>
   </si>
   <si>
     <t>512</t>
@@ -830,7 +785,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U121"/>
+  <dimension ref="A1:U106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -906,22 +861,22 @@
         <v>20</v>
       </c>
       <c r="C2">
-        <v>28.87</v>
+        <v>23.9</v>
       </c>
       <c r="D2">
-        <v>18.59</v>
+        <v>17</v>
       </c>
       <c r="E2">
-        <v>18.33</v>
+        <v>18.25</v>
       </c>
       <c r="F2">
-        <v>24.71</v>
+        <v>17.8</v>
       </c>
       <c r="G2">
-        <v>49.94</v>
+        <v>48.49</v>
       </c>
       <c r="H2">
-        <v>20.03</v>
+        <v>18.13</v>
       </c>
       <c r="I2">
         <v>2</v>
@@ -933,7 +888,7 @@
         <v>594</v>
       </c>
       <c r="L2">
-        <v>20.73</v>
+        <v>18.85</v>
       </c>
       <c r="M2">
         <v>24</v>
@@ -948,19 +903,19 @@
         <v>12</v>
       </c>
       <c r="Q2" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="R2" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="S2" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="T2" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="U2" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -971,22 +926,22 @@
         <v>21</v>
       </c>
       <c r="C3">
-        <v>19.45</v>
+        <v>16</v>
       </c>
       <c r="D3">
-        <v>20.27</v>
+        <v>17.36</v>
       </c>
       <c r="E3">
-        <v>26.56</v>
+        <v>21.08</v>
       </c>
       <c r="F3">
-        <v>25.53</v>
+        <v>23.95</v>
       </c>
       <c r="G3">
-        <v>24.19</v>
+        <v>22.13</v>
       </c>
       <c r="H3">
-        <v>17.22</v>
+        <v>18.54</v>
       </c>
       <c r="I3">
         <v>196</v>
@@ -998,7 +953,7 @@
         <v>195</v>
       </c>
       <c r="L3">
-        <v>22.66</v>
+        <v>21.67</v>
       </c>
       <c r="M3">
         <v>24</v>
@@ -1013,19 +968,19 @@
         <v>12</v>
       </c>
       <c r="Q3" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="R3" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="S3" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="T3" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="U3" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -1036,34 +991,34 @@
         <v>22</v>
       </c>
       <c r="C4">
-        <v>22.97</v>
+        <v>19.82</v>
       </c>
       <c r="D4">
-        <v>23.14</v>
+        <v>19.66</v>
       </c>
       <c r="E4">
-        <v>20.33</v>
+        <v>20.45</v>
       </c>
       <c r="F4">
-        <v>53.74</v>
+        <v>30.13</v>
       </c>
       <c r="G4">
-        <v>48.73</v>
+        <v>24.67</v>
       </c>
       <c r="H4">
-        <v>24.18</v>
+        <v>23.09</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>196</v>
       </c>
       <c r="J4">
-        <v>8</v>
+        <v>213</v>
       </c>
       <c r="K4">
-        <v>594</v>
+        <v>195</v>
       </c>
       <c r="L4">
-        <v>24.82</v>
+        <v>26.1</v>
       </c>
       <c r="M4">
         <v>14</v>
@@ -1078,19 +1033,19 @@
         <v>6</v>
       </c>
       <c r="Q4" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="R4" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="S4" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="T4" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="U4" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -1101,34 +1056,34 @@
         <v>23</v>
       </c>
       <c r="C5">
-        <v>20.44</v>
+        <v>25.35</v>
       </c>
       <c r="D5">
-        <v>24.31</v>
+        <v>19.85</v>
       </c>
       <c r="E5">
-        <v>23.24</v>
+        <v>18.11</v>
       </c>
       <c r="F5">
-        <v>33.45</v>
+        <v>41.07</v>
       </c>
       <c r="G5">
-        <v>23.12</v>
+        <v>43.43</v>
       </c>
       <c r="H5">
-        <v>25.49</v>
+        <v>26.35</v>
       </c>
       <c r="I5">
-        <v>196</v>
+        <v>2</v>
       </c>
       <c r="J5">
-        <v>213</v>
+        <v>8</v>
       </c>
       <c r="K5">
-        <v>195</v>
+        <v>594</v>
       </c>
       <c r="L5">
-        <v>27.59</v>
+        <v>26.71</v>
       </c>
       <c r="M5">
         <v>14</v>
@@ -1143,19 +1098,19 @@
         <v>6</v>
       </c>
       <c r="Q5" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="R5" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="S5" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="T5" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="U5" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -1166,22 +1121,22 @@
         <v>24</v>
       </c>
       <c r="C6">
-        <v>34.91</v>
+        <v>26.15</v>
       </c>
       <c r="D6">
-        <v>30.49</v>
+        <v>24.04</v>
       </c>
       <c r="E6">
-        <v>34.92</v>
+        <v>27.98</v>
       </c>
       <c r="F6">
-        <v>30.58</v>
+        <v>27.16</v>
       </c>
       <c r="G6">
-        <v>31.84</v>
+        <v>32.37</v>
       </c>
       <c r="H6">
-        <v>28.71</v>
+        <v>30.61</v>
       </c>
       <c r="I6">
         <v>196</v>
@@ -1193,34 +1148,34 @@
         <v>195</v>
       </c>
       <c r="L6">
-        <v>30.45</v>
+        <v>30.19</v>
       </c>
       <c r="M6">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="N6">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="O6">
         <v>10</v>
       </c>
       <c r="P6">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Q6" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="R6" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="S6" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="T6" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="U6" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -1231,22 +1186,22 @@
         <v>25</v>
       </c>
       <c r="C7">
-        <v>37.28</v>
+        <v>46.72</v>
       </c>
       <c r="D7">
-        <v>35.68</v>
+        <v>32.38</v>
       </c>
       <c r="E7">
-        <v>45.75</v>
+        <v>23.83</v>
       </c>
       <c r="F7">
-        <v>30.88</v>
+        <v>17.64</v>
       </c>
       <c r="G7">
-        <v>29.61</v>
+        <v>28.38</v>
       </c>
       <c r="H7">
-        <v>30.58</v>
+        <v>31.78</v>
       </c>
       <c r="I7">
         <v>2</v>
@@ -1258,28 +1213,34 @@
         <v>594</v>
       </c>
       <c r="L7">
-        <v>30.57</v>
+        <v>31.7</v>
       </c>
       <c r="M7">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="N7">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="O7">
         <v>10</v>
       </c>
       <c r="P7">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="Q7" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="R7" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="S7" t="s">
-        <v>146</v>
+        <v>132</v>
+      </c>
+      <c r="T7" t="s">
+        <v>133</v>
+      </c>
+      <c r="U7" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -1290,22 +1251,22 @@
         <v>26</v>
       </c>
       <c r="C8">
-        <v>49.82</v>
+        <v>39.85</v>
       </c>
       <c r="D8">
-        <v>33.13</v>
+        <v>34.15</v>
       </c>
       <c r="E8">
-        <v>24.38</v>
+        <v>47.6</v>
       </c>
       <c r="F8">
-        <v>22.02</v>
+        <v>34.49</v>
       </c>
       <c r="G8">
-        <v>29.12</v>
+        <v>27.27</v>
       </c>
       <c r="H8">
-        <v>32.34</v>
+        <v>32.97</v>
       </c>
       <c r="I8">
         <v>2</v>
@@ -1317,34 +1278,34 @@
         <v>594</v>
       </c>
       <c r="L8">
-        <v>32.27</v>
+        <v>32.91</v>
       </c>
       <c r="M8">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="N8">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="O8">
         <v>10</v>
       </c>
       <c r="P8">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Q8" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="R8" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="S8" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="T8" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="U8" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -1355,61 +1316,61 @@
         <v>27</v>
       </c>
       <c r="C9">
-        <v>41.4</v>
+        <v>47.25</v>
       </c>
       <c r="D9">
-        <v>38.7</v>
+        <v>47.11</v>
       </c>
       <c r="E9">
-        <v>48.03</v>
+        <v>46.95</v>
       </c>
       <c r="F9">
-        <v>18.49</v>
+        <v>30.89</v>
       </c>
       <c r="G9">
-        <v>19.82</v>
+        <v>34.64</v>
       </c>
       <c r="H9">
-        <v>33.03</v>
+        <v>34.49</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>196</v>
       </c>
       <c r="J9">
-        <v>8</v>
+        <v>213</v>
       </c>
       <c r="K9">
-        <v>594</v>
+        <v>195</v>
       </c>
       <c r="L9">
-        <v>32.85</v>
+        <v>33.42</v>
       </c>
       <c r="M9">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N9">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
       <c r="O9">
         <v>10</v>
       </c>
       <c r="P9">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="Q9" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="R9" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="S9" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="T9" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="U9" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -1420,22 +1381,22 @@
         <v>28</v>
       </c>
       <c r="C10">
-        <v>47.47</v>
+        <v>47.75</v>
       </c>
       <c r="D10">
-        <v>49.3</v>
+        <v>46.48</v>
       </c>
       <c r="E10">
-        <v>47.41</v>
+        <v>47.55</v>
       </c>
       <c r="F10">
-        <v>31.54</v>
+        <v>34.99</v>
       </c>
       <c r="G10">
-        <v>33.54</v>
+        <v>35.61</v>
       </c>
       <c r="H10">
-        <v>33.63</v>
+        <v>31.25</v>
       </c>
       <c r="I10">
         <v>196</v>
@@ -1447,34 +1408,34 @@
         <v>195</v>
       </c>
       <c r="L10">
-        <v>32.93</v>
+        <v>34.06</v>
       </c>
       <c r="M10">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="N10">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="O10">
         <v>10</v>
       </c>
       <c r="P10">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q10" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="R10" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="S10" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="T10" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="U10" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -1485,61 +1446,61 @@
         <v>29</v>
       </c>
       <c r="C11">
-        <v>38.17</v>
+        <v>47.01</v>
       </c>
       <c r="D11">
-        <v>35.22</v>
+        <v>47.39</v>
       </c>
       <c r="E11">
-        <v>46.52</v>
+        <v>44.67</v>
       </c>
       <c r="F11">
-        <v>12.32</v>
+        <v>34.07</v>
       </c>
       <c r="G11">
-        <v>24.4</v>
+        <v>34.21</v>
       </c>
       <c r="H11">
-        <v>33.95</v>
+        <v>34.59</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>196</v>
       </c>
       <c r="J11">
-        <v>8</v>
+        <v>213</v>
       </c>
       <c r="K11">
-        <v>594</v>
+        <v>195</v>
       </c>
       <c r="L11">
-        <v>33.79</v>
+        <v>34.29</v>
       </c>
       <c r="M11">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="N11">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
       <c r="O11">
         <v>10</v>
       </c>
       <c r="P11">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="Q11" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="R11" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="S11" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="T11" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="U11" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -1550,55 +1511,61 @@
         <v>30</v>
       </c>
       <c r="C12">
-        <v>37.35</v>
+        <v>47.44</v>
       </c>
       <c r="D12">
-        <v>33.13</v>
+        <v>47.54</v>
       </c>
       <c r="E12">
-        <v>46.66</v>
+        <v>45.5</v>
       </c>
       <c r="F12">
-        <v>13.85</v>
+        <v>31.86</v>
       </c>
       <c r="G12">
-        <v>25.84</v>
+        <v>35.63</v>
       </c>
       <c r="H12">
-        <v>34.2</v>
+        <v>35.78</v>
       </c>
       <c r="I12">
-        <v>2</v>
+        <v>196</v>
       </c>
       <c r="J12">
-        <v>8</v>
+        <v>213</v>
       </c>
       <c r="K12">
-        <v>594</v>
+        <v>195</v>
       </c>
       <c r="L12">
-        <v>34.06</v>
+        <v>34.5</v>
       </c>
       <c r="M12">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N12">
-        <v>0.12</v>
+        <v>0.02</v>
       </c>
       <c r="O12">
         <v>10</v>
       </c>
       <c r="P12">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="Q12" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="R12" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="S12" t="s">
-        <v>143</v>
+        <v>125</v>
+      </c>
+      <c r="T12" t="s">
+        <v>133</v>
+      </c>
+      <c r="U12" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -1609,22 +1576,22 @@
         <v>31</v>
       </c>
       <c r="C13">
-        <v>53.73</v>
+        <v>36.72</v>
       </c>
       <c r="D13">
-        <v>41.3</v>
+        <v>35.91</v>
       </c>
       <c r="E13">
-        <v>50.94</v>
+        <v>48.16</v>
       </c>
       <c r="F13">
-        <v>22.55</v>
+        <v>19.43</v>
       </c>
       <c r="G13">
-        <v>18.83</v>
+        <v>16.86</v>
       </c>
       <c r="H13">
-        <v>34.26</v>
+        <v>35.26</v>
       </c>
       <c r="I13">
         <v>2</v>
@@ -1636,34 +1603,28 @@
         <v>594</v>
       </c>
       <c r="L13">
-        <v>34.07</v>
+        <v>35.04</v>
       </c>
       <c r="M13">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N13">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="O13">
         <v>10</v>
       </c>
       <c r="P13">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Q13" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="R13" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="S13" t="s">
-        <v>147</v>
-      </c>
-      <c r="T13" t="s">
-        <v>148</v>
-      </c>
-      <c r="U13" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -1674,61 +1635,55 @@
         <v>32</v>
       </c>
       <c r="C14">
-        <v>31.16</v>
+        <v>38.4</v>
       </c>
       <c r="D14">
-        <v>28.55</v>
+        <v>36.91</v>
       </c>
       <c r="E14">
-        <v>34.08</v>
+        <v>46.63</v>
       </c>
       <c r="F14">
-        <v>40.29</v>
+        <v>36.52</v>
       </c>
       <c r="G14">
-        <v>29.35</v>
+        <v>26.66</v>
       </c>
       <c r="H14">
-        <v>32.07</v>
+        <v>35.26</v>
       </c>
       <c r="I14">
-        <v>196</v>
+        <v>2</v>
       </c>
       <c r="J14">
-        <v>213</v>
+        <v>8</v>
       </c>
       <c r="K14">
-        <v>195</v>
+        <v>594</v>
       </c>
       <c r="L14">
-        <v>34.1</v>
+        <v>35.16</v>
       </c>
       <c r="M14">
         <v>30</v>
       </c>
       <c r="N14">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="O14">
         <v>10</v>
       </c>
       <c r="P14">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="Q14" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="R14" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="S14" t="s">
-        <v>143</v>
-      </c>
-      <c r="T14" t="s">
-        <v>148</v>
-      </c>
-      <c r="U14" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -1739,22 +1694,22 @@
         <v>33</v>
       </c>
       <c r="C15">
-        <v>39.65</v>
+        <v>36.82</v>
       </c>
       <c r="D15">
-        <v>33.85</v>
+        <v>35.95</v>
       </c>
       <c r="E15">
-        <v>46.01</v>
+        <v>46.49</v>
       </c>
       <c r="F15">
-        <v>12.31</v>
+        <v>13.89</v>
       </c>
       <c r="G15">
-        <v>19.23</v>
+        <v>31.43</v>
       </c>
       <c r="H15">
-        <v>35.11</v>
+        <v>35.33</v>
       </c>
       <c r="I15">
         <v>2</v>
@@ -1766,28 +1721,28 @@
         <v>594</v>
       </c>
       <c r="L15">
-        <v>34.9</v>
+        <v>35.23</v>
       </c>
       <c r="M15">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="N15">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="O15">
         <v>10</v>
       </c>
       <c r="P15">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="Q15" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="R15" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="S15" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -1798,61 +1753,61 @@
         <v>34</v>
       </c>
       <c r="C16">
-        <v>39.36</v>
+        <v>47.02</v>
       </c>
       <c r="D16">
-        <v>36.12</v>
+        <v>46.78</v>
       </c>
       <c r="E16">
-        <v>47.13</v>
+        <v>43.76</v>
       </c>
       <c r="F16">
-        <v>17.35</v>
+        <v>34.74</v>
       </c>
       <c r="G16">
-        <v>24.05</v>
+        <v>37.39</v>
       </c>
       <c r="H16">
-        <v>35.09</v>
+        <v>34.88</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>196</v>
       </c>
       <c r="J16">
-        <v>8</v>
+        <v>213</v>
       </c>
       <c r="K16">
-        <v>594</v>
+        <v>195</v>
       </c>
       <c r="L16">
-        <v>34.93</v>
+        <v>35.74</v>
       </c>
       <c r="M16">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N16">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
       <c r="O16">
         <v>10</v>
       </c>
       <c r="P16">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="Q16" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="R16" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="S16" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="T16" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="U16" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -1863,22 +1818,22 @@
         <v>35</v>
       </c>
       <c r="C17">
-        <v>46.12</v>
+        <v>45.74</v>
       </c>
       <c r="D17">
-        <v>37.32</v>
+        <v>39.11</v>
       </c>
       <c r="E17">
-        <v>47.72</v>
+        <v>45.19</v>
       </c>
       <c r="F17">
-        <v>16.46</v>
+        <v>35.41</v>
       </c>
       <c r="G17">
-        <v>24.07</v>
+        <v>26.13</v>
       </c>
       <c r="H17">
-        <v>35.14</v>
+        <v>36.02</v>
       </c>
       <c r="I17">
         <v>2</v>
@@ -1890,28 +1845,34 @@
         <v>594</v>
       </c>
       <c r="L17">
-        <v>34.98</v>
+        <v>35.9</v>
       </c>
       <c r="M17">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="N17">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
       <c r="O17">
         <v>10</v>
       </c>
       <c r="P17">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="Q17" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="R17" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="S17" t="s">
-        <v>141</v>
+        <v>132</v>
+      </c>
+      <c r="T17" t="s">
+        <v>133</v>
+      </c>
+      <c r="U17" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -1922,22 +1883,22 @@
         <v>36</v>
       </c>
       <c r="C18">
-        <v>38.02</v>
+        <v>47.75</v>
       </c>
       <c r="D18">
-        <v>37.58</v>
+        <v>41.32</v>
       </c>
       <c r="E18">
-        <v>46.77</v>
+        <v>47.41</v>
       </c>
       <c r="F18">
-        <v>12.17</v>
+        <v>23.45</v>
       </c>
       <c r="G18">
-        <v>29.59</v>
+        <v>26.95</v>
       </c>
       <c r="H18">
-        <v>35.18</v>
+        <v>36.04</v>
       </c>
       <c r="I18">
         <v>2</v>
@@ -1949,13 +1910,13 @@
         <v>594</v>
       </c>
       <c r="L18">
-        <v>35.06</v>
+        <v>35.9</v>
       </c>
       <c r="M18">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N18">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="O18">
         <v>10</v>
@@ -1964,13 +1925,13 @@
         <v>7</v>
       </c>
       <c r="Q18" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="R18" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="S18" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:21">
@@ -1981,61 +1942,55 @@
         <v>37</v>
       </c>
       <c r="C19">
-        <v>47.48</v>
+        <v>39.49</v>
       </c>
       <c r="D19">
-        <v>47.71</v>
+        <v>34.3</v>
       </c>
       <c r="E19">
-        <v>46.74</v>
+        <v>47.28</v>
       </c>
       <c r="F19">
-        <v>35.67</v>
+        <v>16.1</v>
       </c>
       <c r="G19">
-        <v>34.15</v>
+        <v>15.27</v>
       </c>
       <c r="H19">
-        <v>36.15</v>
+        <v>36.26</v>
       </c>
       <c r="I19">
-        <v>196</v>
+        <v>2</v>
       </c>
       <c r="J19">
-        <v>213</v>
+        <v>8</v>
       </c>
       <c r="K19">
-        <v>195</v>
+        <v>594</v>
       </c>
       <c r="L19">
-        <v>35.3</v>
+        <v>36.01</v>
       </c>
       <c r="M19">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N19">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="O19">
         <v>10</v>
       </c>
       <c r="P19">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q19" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="R19" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="S19" t="s">
-        <v>140</v>
-      </c>
-      <c r="T19" t="s">
-        <v>148</v>
-      </c>
-      <c r="U19" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -2046,40 +2001,40 @@
         <v>38</v>
       </c>
       <c r="C20">
-        <v>41.33</v>
+        <v>47.1</v>
       </c>
       <c r="D20">
-        <v>37.27</v>
+        <v>47.26</v>
       </c>
       <c r="E20">
-        <v>47.55</v>
+        <v>44.95</v>
       </c>
       <c r="F20">
-        <v>4.36</v>
+        <v>35.44</v>
       </c>
       <c r="G20">
-        <v>20.07</v>
+        <v>36.93</v>
       </c>
       <c r="H20">
-        <v>35.54</v>
+        <v>35.72</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>196</v>
       </c>
       <c r="J20">
-        <v>8</v>
+        <v>213</v>
       </c>
       <c r="K20">
-        <v>594</v>
+        <v>195</v>
       </c>
       <c r="L20">
-        <v>35.32</v>
+        <v>36.06</v>
       </c>
       <c r="M20">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="N20">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
       <c r="O20">
         <v>10</v>
@@ -2088,16 +2043,19 @@
         <v>10</v>
       </c>
       <c r="Q20" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="R20" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="S20" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="T20" t="s">
-        <v>149</v>
+        <v>133</v>
+      </c>
+      <c r="U20" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -2108,22 +2066,22 @@
         <v>39</v>
       </c>
       <c r="C21">
-        <v>37.78</v>
+        <v>36.96</v>
       </c>
       <c r="D21">
-        <v>35.06</v>
+        <v>33.78</v>
       </c>
       <c r="E21">
-        <v>46.17</v>
+        <v>46.14</v>
       </c>
       <c r="F21">
-        <v>24.91</v>
+        <v>28.94</v>
       </c>
       <c r="G21">
-        <v>25.53</v>
+        <v>27.55</v>
       </c>
       <c r="H21">
-        <v>35.5</v>
+        <v>36.31</v>
       </c>
       <c r="I21">
         <v>2</v>
@@ -2135,10 +2093,10 @@
         <v>594</v>
       </c>
       <c r="L21">
-        <v>35.35</v>
+        <v>36.19</v>
       </c>
       <c r="M21">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N21">
         <v>0.06</v>
@@ -2147,16 +2105,22 @@
         <v>10</v>
       </c>
       <c r="P21">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q21" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="R21" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="S21" t="s">
-        <v>146</v>
+        <v>129</v>
+      </c>
+      <c r="T21" t="s">
+        <v>133</v>
+      </c>
+      <c r="U21" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:21">
@@ -2167,22 +2131,22 @@
         <v>40</v>
       </c>
       <c r="C22">
-        <v>38.75</v>
+        <v>54.86</v>
       </c>
       <c r="D22">
-        <v>33.56</v>
+        <v>39.12</v>
       </c>
       <c r="E22">
-        <v>45.36</v>
+        <v>48.71</v>
       </c>
       <c r="F22">
-        <v>5.24</v>
+        <v>22.02</v>
       </c>
       <c r="G22">
-        <v>25.49</v>
+        <v>21.94</v>
       </c>
       <c r="H22">
-        <v>35.68</v>
+        <v>36.45</v>
       </c>
       <c r="I22">
         <v>2</v>
@@ -2194,28 +2158,34 @@
         <v>594</v>
       </c>
       <c r="L22">
-        <v>35.5</v>
+        <v>36.26</v>
       </c>
       <c r="M22">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N22">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="O22">
         <v>10</v>
       </c>
       <c r="P22">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q22" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="R22" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="S22" t="s">
-        <v>142</v>
+        <v>132</v>
+      </c>
+      <c r="T22" t="s">
+        <v>133</v>
+      </c>
+      <c r="U22" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:21">
@@ -2226,61 +2196,55 @@
         <v>41</v>
       </c>
       <c r="C23">
-        <v>47.16</v>
+        <v>39.17</v>
       </c>
       <c r="D23">
-        <v>47.66</v>
+        <v>35.86</v>
       </c>
       <c r="E23">
-        <v>45.36</v>
+        <v>46.23</v>
       </c>
       <c r="F23">
-        <v>36.38</v>
+        <v>20.43</v>
       </c>
       <c r="G23">
-        <v>35.6</v>
+        <v>27.88</v>
       </c>
       <c r="H23">
-        <v>35.27</v>
+        <v>36.55</v>
       </c>
       <c r="I23">
-        <v>196</v>
+        <v>2</v>
       </c>
       <c r="J23">
-        <v>213</v>
+        <v>8</v>
       </c>
       <c r="K23">
-        <v>195</v>
+        <v>594</v>
       </c>
       <c r="L23">
-        <v>35.75</v>
+        <v>36.41</v>
       </c>
       <c r="M23">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="N23">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="O23">
         <v>10</v>
       </c>
       <c r="P23">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="Q23" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="R23" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="S23" t="s">
-        <v>140</v>
-      </c>
-      <c r="T23" t="s">
-        <v>148</v>
-      </c>
-      <c r="U23" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:21">
@@ -2291,22 +2255,22 @@
         <v>42</v>
       </c>
       <c r="C24">
-        <v>48.08</v>
+        <v>47.68</v>
       </c>
       <c r="D24">
-        <v>46.8</v>
+        <v>47.89</v>
       </c>
       <c r="E24">
-        <v>47.04</v>
+        <v>45.63</v>
       </c>
       <c r="F24">
-        <v>37.14</v>
+        <v>36.11</v>
       </c>
       <c r="G24">
-        <v>36.34</v>
+        <v>37.37</v>
       </c>
       <c r="H24">
-        <v>33.67</v>
+        <v>36.12</v>
       </c>
       <c r="I24">
         <v>196</v>
@@ -2318,34 +2282,34 @@
         <v>195</v>
       </c>
       <c r="L24">
-        <v>35.76</v>
+        <v>36.56</v>
       </c>
       <c r="M24">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N24">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>10</v>
       </c>
       <c r="P24">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Q24" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="R24" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="S24" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="T24" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="U24" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:21">
@@ -2356,40 +2320,40 @@
         <v>43</v>
       </c>
       <c r="C25">
-        <v>37.33</v>
+        <v>43.58</v>
       </c>
       <c r="D25">
-        <v>35.95</v>
+        <v>34.43</v>
       </c>
       <c r="E25">
-        <v>36.11</v>
+        <v>46.94</v>
       </c>
       <c r="F25">
-        <v>40.97</v>
+        <v>32.59</v>
       </c>
       <c r="G25">
-        <v>33.84</v>
+        <v>16.88</v>
       </c>
       <c r="H25">
-        <v>32.55</v>
+        <v>36.83</v>
       </c>
       <c r="I25">
-        <v>196</v>
+        <v>2</v>
       </c>
       <c r="J25">
-        <v>213</v>
+        <v>8</v>
       </c>
       <c r="K25">
-        <v>195</v>
+        <v>594</v>
       </c>
       <c r="L25">
-        <v>35.93</v>
+        <v>36.62</v>
       </c>
       <c r="M25">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="N25">
-        <v>0.14</v>
+        <v>0.06</v>
       </c>
       <c r="O25">
         <v>10</v>
@@ -2398,19 +2362,19 @@
         <v>9</v>
       </c>
       <c r="Q25" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="R25" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="S25" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="T25" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="U25" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:21">
@@ -2421,55 +2385,61 @@
         <v>44</v>
       </c>
       <c r="C26">
-        <v>42.4</v>
+        <v>48.75</v>
       </c>
       <c r="D26">
-        <v>38.44</v>
+        <v>49.58</v>
       </c>
       <c r="E26">
-        <v>46.8</v>
+        <v>47.07</v>
       </c>
       <c r="F26">
-        <v>13.83</v>
+        <v>35.31</v>
       </c>
       <c r="G26">
-        <v>28.35</v>
+        <v>37.63</v>
       </c>
       <c r="H26">
-        <v>36.19</v>
+        <v>36.87</v>
       </c>
       <c r="I26">
-        <v>2</v>
+        <v>196</v>
       </c>
       <c r="J26">
-        <v>8</v>
+        <v>213</v>
       </c>
       <c r="K26">
-        <v>594</v>
+        <v>195</v>
       </c>
       <c r="L26">
-        <v>36.05</v>
+        <v>36.64</v>
       </c>
       <c r="M26">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="N26">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="O26">
         <v>10</v>
       </c>
       <c r="P26">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Q26" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="R26" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="S26" t="s">
-        <v>143</v>
+        <v>127</v>
+      </c>
+      <c r="T26" t="s">
+        <v>133</v>
+      </c>
+      <c r="U26" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:21">
@@ -2480,55 +2450,61 @@
         <v>45</v>
       </c>
       <c r="C27">
-        <v>36.84</v>
+        <v>36.3</v>
       </c>
       <c r="D27">
-        <v>35.71</v>
+        <v>34.81</v>
       </c>
       <c r="E27">
-        <v>46.26</v>
+        <v>36.74</v>
       </c>
       <c r="F27">
-        <v>18.28</v>
+        <v>43.53</v>
       </c>
       <c r="G27">
-        <v>29.42</v>
+        <v>36.95</v>
       </c>
       <c r="H27">
-        <v>36.2</v>
+        <v>28.17</v>
       </c>
       <c r="I27">
-        <v>2</v>
+        <v>196</v>
       </c>
       <c r="J27">
-        <v>8</v>
+        <v>213</v>
       </c>
       <c r="K27">
-        <v>594</v>
+        <v>195</v>
       </c>
       <c r="L27">
-        <v>36.07</v>
+        <v>36.77</v>
       </c>
       <c r="M27">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="N27">
-        <v>0.08</v>
+        <v>0.14</v>
       </c>
       <c r="O27">
         <v>10</v>
       </c>
       <c r="P27">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Q27" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="R27" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="S27" t="s">
-        <v>142</v>
+        <v>126</v>
+      </c>
+      <c r="T27" t="s">
+        <v>133</v>
+      </c>
+      <c r="U27" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="28" spans="1:21">
@@ -2539,22 +2515,22 @@
         <v>46</v>
       </c>
       <c r="C28">
-        <v>44.2</v>
+        <v>34.04</v>
       </c>
       <c r="D28">
-        <v>36.6</v>
+        <v>31.07</v>
       </c>
       <c r="E28">
-        <v>47.27</v>
+        <v>47.09</v>
       </c>
       <c r="F28">
-        <v>18.55</v>
+        <v>13.78</v>
       </c>
       <c r="G28">
-        <v>29.04</v>
+        <v>16.25</v>
       </c>
       <c r="H28">
-        <v>36.2</v>
+        <v>37.09</v>
       </c>
       <c r="I28">
         <v>2</v>
@@ -2566,10 +2542,10 @@
         <v>594</v>
       </c>
       <c r="L28">
-        <v>36.07</v>
+        <v>36.84</v>
       </c>
       <c r="M28">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N28">
         <v>0.08</v>
@@ -2578,16 +2554,16 @@
         <v>10</v>
       </c>
       <c r="P28">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="Q28" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="R28" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="S28" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:21">
@@ -2598,22 +2574,22 @@
         <v>47</v>
       </c>
       <c r="C29">
-        <v>41.82</v>
+        <v>36.74</v>
       </c>
       <c r="D29">
-        <v>35.01</v>
+        <v>33.83</v>
       </c>
       <c r="E29">
-        <v>47.56</v>
+        <v>45.58</v>
       </c>
       <c r="F29">
-        <v>18.4</v>
+        <v>16.5</v>
       </c>
       <c r="G29">
-        <v>20.84</v>
+        <v>33.54</v>
       </c>
       <c r="H29">
-        <v>36.44</v>
+        <v>37.07</v>
       </c>
       <c r="I29">
         <v>2</v>
@@ -2625,28 +2601,34 @@
         <v>594</v>
       </c>
       <c r="L29">
-        <v>36.23</v>
+        <v>36.98</v>
       </c>
       <c r="M29">
+        <v>45</v>
+      </c>
+      <c r="N29">
+        <v>0.05</v>
+      </c>
+      <c r="O29">
+        <v>10</v>
+      </c>
+      <c r="P29">
         <v>15</v>
       </c>
-      <c r="N29">
-        <v>0.12</v>
-      </c>
-      <c r="O29">
-        <v>10</v>
-      </c>
-      <c r="P29">
-        <v>12</v>
-      </c>
       <c r="Q29" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="R29" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="S29" t="s">
-        <v>142</v>
+        <v>129</v>
+      </c>
+      <c r="T29" t="s">
+        <v>133</v>
+      </c>
+      <c r="U29" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="30" spans="1:21">
@@ -2657,61 +2639,58 @@
         <v>48</v>
       </c>
       <c r="C30">
-        <v>48.74</v>
+        <v>36.46</v>
       </c>
       <c r="D30">
-        <v>48.85</v>
+        <v>31.94</v>
       </c>
       <c r="E30">
-        <v>47.6</v>
+        <v>47.07</v>
       </c>
       <c r="F30">
-        <v>36.15</v>
+        <v>12.64</v>
       </c>
       <c r="G30">
-        <v>36.42</v>
+        <v>20.71</v>
       </c>
       <c r="H30">
-        <v>36.29</v>
+        <v>37.27</v>
       </c>
       <c r="I30">
-        <v>196</v>
+        <v>2</v>
       </c>
       <c r="J30">
-        <v>213</v>
+        <v>8</v>
       </c>
       <c r="K30">
-        <v>195</v>
+        <v>594</v>
       </c>
       <c r="L30">
-        <v>36.29</v>
+        <v>37.04</v>
       </c>
       <c r="M30">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="N30">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="O30">
         <v>10</v>
       </c>
       <c r="P30">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="Q30" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="R30" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="S30" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="T30" t="s">
-        <v>148</v>
-      </c>
-      <c r="U30" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" spans="1:21">
@@ -2722,22 +2701,22 @@
         <v>49</v>
       </c>
       <c r="C31">
-        <v>39.07</v>
+        <v>38.87</v>
       </c>
       <c r="D31">
-        <v>34.91</v>
+        <v>39.85</v>
       </c>
       <c r="E31">
-        <v>46.38</v>
+        <v>46.03</v>
       </c>
       <c r="F31">
-        <v>11.27</v>
+        <v>4.65</v>
       </c>
       <c r="G31">
-        <v>26.72</v>
+        <v>30.06</v>
       </c>
       <c r="H31">
-        <v>36.62</v>
+        <v>37.24</v>
       </c>
       <c r="I31">
         <v>2</v>
@@ -2749,28 +2728,28 @@
         <v>594</v>
       </c>
       <c r="L31">
-        <v>36.45</v>
+        <v>37.09</v>
       </c>
       <c r="M31">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="N31">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="O31">
         <v>10</v>
       </c>
       <c r="P31">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Q31" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="R31" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="S31" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32" spans="1:21">
@@ -2781,22 +2760,22 @@
         <v>50</v>
       </c>
       <c r="C32">
-        <v>46.49</v>
+        <v>46.27</v>
       </c>
       <c r="D32">
-        <v>49.93</v>
+        <v>48.24</v>
       </c>
       <c r="E32">
-        <v>47.67</v>
+        <v>47.26</v>
       </c>
       <c r="F32">
-        <v>35.84</v>
+        <v>36.24</v>
       </c>
       <c r="G32">
-        <v>37.19</v>
+        <v>38.13</v>
       </c>
       <c r="H32">
-        <v>37.25</v>
+        <v>36.91</v>
       </c>
       <c r="I32">
         <v>196</v>
@@ -2808,7 +2787,7 @@
         <v>195</v>
       </c>
       <c r="L32">
-        <v>36.78</v>
+        <v>37.13</v>
       </c>
       <c r="M32">
         <v>10</v>
@@ -2823,19 +2802,19 @@
         <v>6</v>
       </c>
       <c r="Q32" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="R32" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="S32" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="T32" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="U32" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
     </row>
     <row r="33" spans="1:21">
@@ -2846,22 +2825,22 @@
         <v>51</v>
       </c>
       <c r="C33">
-        <v>42.4</v>
+        <v>38.97</v>
       </c>
       <c r="D33">
-        <v>34.33</v>
+        <v>32.33</v>
       </c>
       <c r="E33">
-        <v>46.18</v>
+        <v>46.56</v>
       </c>
       <c r="F33">
-        <v>24.9</v>
+        <v>29.42</v>
       </c>
       <c r="G33">
-        <v>26.25</v>
+        <v>28.01</v>
       </c>
       <c r="H33">
-        <v>37.04</v>
+        <v>37.68</v>
       </c>
       <c r="I33">
         <v>2</v>
@@ -2873,28 +2852,28 @@
         <v>594</v>
       </c>
       <c r="L33">
-        <v>36.88</v>
+        <v>37.54</v>
       </c>
       <c r="M33">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N33">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="O33">
         <v>10</v>
       </c>
       <c r="P33">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="Q33" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="R33" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="S33" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="1:21">
@@ -2905,61 +2884,55 @@
         <v>52</v>
       </c>
       <c r="C34">
-        <v>47.73</v>
+        <v>38.32</v>
       </c>
       <c r="D34">
-        <v>47.37</v>
+        <v>34.22</v>
       </c>
       <c r="E34">
-        <v>44.95</v>
+        <v>46.73</v>
       </c>
       <c r="F34">
-        <v>35.58</v>
+        <v>18.41</v>
       </c>
       <c r="G34">
-        <v>38.5</v>
+        <v>28.16</v>
       </c>
       <c r="H34">
-        <v>36.4</v>
+        <v>37.77</v>
       </c>
       <c r="I34">
-        <v>196</v>
+        <v>2</v>
       </c>
       <c r="J34">
-        <v>213</v>
+        <v>8</v>
       </c>
       <c r="K34">
-        <v>195</v>
+        <v>594</v>
       </c>
       <c r="L34">
-        <v>36.9</v>
+        <v>37.61</v>
       </c>
       <c r="M34">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N34">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="O34">
         <v>10</v>
       </c>
       <c r="P34">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="Q34" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="R34" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="S34" t="s">
-        <v>141</v>
-      </c>
-      <c r="T34" t="s">
-        <v>148</v>
-      </c>
-      <c r="U34" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35" spans="1:21">
@@ -2970,61 +2943,58 @@
         <v>53</v>
       </c>
       <c r="C35">
-        <v>48.35</v>
+        <v>37.51</v>
       </c>
       <c r="D35">
-        <v>48.31</v>
+        <v>34.2</v>
       </c>
       <c r="E35">
-        <v>46.32</v>
+        <v>46.27</v>
       </c>
       <c r="F35">
-        <v>36.68</v>
+        <v>13.84</v>
       </c>
       <c r="G35">
-        <v>38.02</v>
+        <v>21.64</v>
       </c>
       <c r="H35">
-        <v>36.42</v>
+        <v>37.87</v>
       </c>
       <c r="I35">
-        <v>196</v>
+        <v>2</v>
       </c>
       <c r="J35">
-        <v>213</v>
+        <v>8</v>
       </c>
       <c r="K35">
-        <v>195</v>
+        <v>594</v>
       </c>
       <c r="L35">
-        <v>37.08</v>
+        <v>37.64</v>
       </c>
       <c r="M35">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="N35">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="O35">
         <v>10</v>
       </c>
       <c r="P35">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q35" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="R35" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="S35" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="T35" t="s">
-        <v>148</v>
-      </c>
-      <c r="U35" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
     </row>
     <row r="36" spans="1:21">
@@ -3035,55 +3005,61 @@
         <v>54</v>
       </c>
       <c r="C36">
-        <v>42.52</v>
+        <v>47.98</v>
       </c>
       <c r="D36">
-        <v>35.5</v>
+        <v>46.51</v>
       </c>
       <c r="E36">
-        <v>47.4</v>
+        <v>46.59</v>
       </c>
       <c r="F36">
-        <v>28.05</v>
+        <v>37.31</v>
       </c>
       <c r="G36">
-        <v>18.53</v>
+        <v>36.99</v>
       </c>
       <c r="H36">
-        <v>37.4</v>
+        <v>39.44</v>
       </c>
       <c r="I36">
-        <v>2</v>
+        <v>196</v>
       </c>
       <c r="J36">
-        <v>8</v>
+        <v>213</v>
       </c>
       <c r="K36">
-        <v>594</v>
+        <v>195</v>
       </c>
       <c r="L36">
-        <v>37.19</v>
+        <v>37.9</v>
       </c>
       <c r="M36">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="N36">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="O36">
         <v>10</v>
       </c>
       <c r="P36">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="Q36" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="R36" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="S36" t="s">
-        <v>146</v>
+        <v>129</v>
+      </c>
+      <c r="T36" t="s">
+        <v>133</v>
+      </c>
+      <c r="U36" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="37" spans="1:21">
@@ -3094,22 +3070,22 @@
         <v>55</v>
       </c>
       <c r="C37">
-        <v>50.32</v>
+        <v>47.94</v>
       </c>
       <c r="D37">
-        <v>38.72</v>
+        <v>29.17</v>
       </c>
       <c r="E37">
-        <v>48.28</v>
+        <v>21.55</v>
       </c>
       <c r="F37">
-        <v>13.49</v>
+        <v>70.95999999999999</v>
       </c>
       <c r="G37">
-        <v>19.16</v>
+        <v>54.49</v>
       </c>
       <c r="H37">
-        <v>37.47</v>
+        <v>37.55</v>
       </c>
       <c r="I37">
         <v>2</v>
@@ -3121,28 +3097,34 @@
         <v>594</v>
       </c>
       <c r="L37">
-        <v>37.23</v>
+        <v>37.99</v>
       </c>
       <c r="M37">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N37">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="O37">
         <v>10</v>
       </c>
       <c r="P37">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Q37" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="R37" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="S37" t="s">
-        <v>141</v>
+        <v>126</v>
+      </c>
+      <c r="T37" t="s">
+        <v>133</v>
+      </c>
+      <c r="U37" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="38" spans="1:21">
@@ -3153,61 +3135,55 @@
         <v>56</v>
       </c>
       <c r="C38">
-        <v>48.12</v>
+        <v>39.48</v>
       </c>
       <c r="D38">
-        <v>47.7</v>
+        <v>33.71</v>
       </c>
       <c r="E38">
-        <v>46.28</v>
+        <v>45.88</v>
       </c>
       <c r="F38">
-        <v>36.2</v>
+        <v>33.68</v>
       </c>
       <c r="G38">
-        <v>39.09</v>
+        <v>27.19</v>
       </c>
       <c r="H38">
-        <v>36.26</v>
+        <v>38.15</v>
       </c>
       <c r="I38">
-        <v>196</v>
+        <v>2</v>
       </c>
       <c r="J38">
-        <v>213</v>
+        <v>8</v>
       </c>
       <c r="K38">
-        <v>195</v>
+        <v>594</v>
       </c>
       <c r="L38">
-        <v>37.26</v>
+        <v>38.01</v>
       </c>
       <c r="M38">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N38">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="O38">
         <v>10</v>
       </c>
       <c r="P38">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q38" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="R38" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="S38" t="s">
-        <v>140</v>
-      </c>
-      <c r="T38" t="s">
-        <v>148</v>
-      </c>
-      <c r="U38" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
     </row>
     <row r="39" spans="1:21">
@@ -3218,22 +3194,22 @@
         <v>57</v>
       </c>
       <c r="C39">
-        <v>36.67</v>
+        <v>33.57</v>
       </c>
       <c r="D39">
-        <v>34.05</v>
+        <v>37.17</v>
       </c>
       <c r="E39">
-        <v>47.17</v>
+        <v>46.56</v>
       </c>
       <c r="F39">
-        <v>32.8</v>
+        <v>39.56</v>
       </c>
       <c r="G39">
-        <v>35.2</v>
+        <v>28.07</v>
       </c>
       <c r="H39">
-        <v>37.32</v>
+        <v>38.3</v>
       </c>
       <c r="I39">
         <v>2</v>
@@ -3245,13 +3221,13 @@
         <v>594</v>
       </c>
       <c r="L39">
-        <v>37.28</v>
+        <v>38.19</v>
       </c>
       <c r="M39">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N39">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="O39">
         <v>10</v>
@@ -3260,13 +3236,13 @@
         <v>13</v>
       </c>
       <c r="Q39" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="R39" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="S39" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
     </row>
     <row r="40" spans="1:21">
@@ -3277,22 +3253,22 @@
         <v>58</v>
       </c>
       <c r="C40">
-        <v>41.28</v>
+        <v>64.3</v>
       </c>
       <c r="D40">
-        <v>32.85</v>
+        <v>36.51</v>
       </c>
       <c r="E40">
-        <v>45.99</v>
+        <v>30.68</v>
       </c>
       <c r="F40">
-        <v>15.78</v>
+        <v>22.43</v>
       </c>
       <c r="G40">
-        <v>29.58</v>
+        <v>8.99</v>
       </c>
       <c r="H40">
-        <v>37.53</v>
+        <v>38.67</v>
       </c>
       <c r="I40">
         <v>2</v>
@@ -3304,34 +3280,34 @@
         <v>594</v>
       </c>
       <c r="L40">
-        <v>37.38</v>
+        <v>38.38</v>
       </c>
       <c r="M40">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="N40">
-        <v>0.05</v>
+        <v>0.12</v>
       </c>
       <c r="O40">
         <v>10</v>
       </c>
       <c r="P40">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Q40" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="R40" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="S40" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="T40" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="U40" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
     </row>
     <row r="41" spans="1:21">
@@ -3342,22 +3318,22 @@
         <v>59</v>
       </c>
       <c r="C41">
-        <v>41.06</v>
+        <v>43.24</v>
       </c>
       <c r="D41">
-        <v>44.56</v>
+        <v>30.18</v>
       </c>
       <c r="E41">
-        <v>43.84</v>
+        <v>45.66</v>
       </c>
       <c r="F41">
-        <v>13.05</v>
+        <v>40.72</v>
       </c>
       <c r="G41">
-        <v>27.58</v>
+        <v>17.31</v>
       </c>
       <c r="H41">
-        <v>37.6</v>
+        <v>38.89</v>
       </c>
       <c r="I41">
         <v>2</v>
@@ -3369,28 +3345,28 @@
         <v>594</v>
       </c>
       <c r="L41">
-        <v>37.43</v>
+        <v>38.69</v>
       </c>
       <c r="M41">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="N41">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="O41">
         <v>10</v>
       </c>
       <c r="P41">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="Q41" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="R41" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="S41" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
     </row>
     <row r="42" spans="1:21">
@@ -3401,37 +3377,37 @@
         <v>60</v>
       </c>
       <c r="C42">
-        <v>40.63</v>
+        <v>48.62</v>
       </c>
       <c r="D42">
-        <v>32.57</v>
+        <v>46.92</v>
       </c>
       <c r="E42">
-        <v>46.61</v>
+        <v>47.82</v>
       </c>
       <c r="F42">
-        <v>12.67</v>
+        <v>39.36</v>
       </c>
       <c r="G42">
-        <v>21.5</v>
+        <v>40.9</v>
       </c>
       <c r="H42">
-        <v>37.69</v>
+        <v>35.39</v>
       </c>
       <c r="I42">
-        <v>2</v>
+        <v>196</v>
       </c>
       <c r="J42">
-        <v>8</v>
+        <v>213</v>
       </c>
       <c r="K42">
-        <v>594</v>
+        <v>195</v>
       </c>
       <c r="L42">
-        <v>37.46</v>
+        <v>38.69</v>
       </c>
       <c r="M42">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="N42">
         <v>0.06</v>
@@ -3440,19 +3416,22 @@
         <v>10</v>
       </c>
       <c r="P42">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Q42" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="R42" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="S42" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="T42" t="s">
-        <v>148</v>
+        <v>133</v>
+      </c>
+      <c r="U42" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="43" spans="1:21">
@@ -3463,22 +3442,22 @@
         <v>61</v>
       </c>
       <c r="C43">
-        <v>50.64</v>
+        <v>48.81</v>
       </c>
       <c r="D43">
-        <v>49.36</v>
+        <v>48.54</v>
       </c>
       <c r="E43">
-        <v>48.36</v>
+        <v>48.13</v>
       </c>
       <c r="F43">
-        <v>36.13</v>
+        <v>38.42</v>
       </c>
       <c r="G43">
-        <v>38.65</v>
+        <v>41.61</v>
       </c>
       <c r="H43">
-        <v>37.63</v>
+        <v>35.79</v>
       </c>
       <c r="I43">
         <v>196</v>
@@ -3490,34 +3469,34 @@
         <v>195</v>
       </c>
       <c r="L43">
-        <v>37.52</v>
+        <v>38.77</v>
       </c>
       <c r="M43">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N43">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="O43">
         <v>10</v>
       </c>
       <c r="P43">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Q43" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="R43" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="S43" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="T43" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="U43" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
     </row>
     <row r="44" spans="1:21">
@@ -3528,55 +3507,61 @@
         <v>62</v>
       </c>
       <c r="C44">
-        <v>39.51</v>
+        <v>51.51</v>
       </c>
       <c r="D44">
-        <v>35.14</v>
+        <v>50.51</v>
       </c>
       <c r="E44">
-        <v>47.98</v>
+        <v>48.78</v>
       </c>
       <c r="F44">
-        <v>14.7</v>
+        <v>35.57</v>
       </c>
       <c r="G44">
-        <v>28.04</v>
+        <v>43.64</v>
       </c>
       <c r="H44">
-        <v>37.68</v>
+        <v>36.61</v>
       </c>
       <c r="I44">
-        <v>2</v>
+        <v>196</v>
       </c>
       <c r="J44">
-        <v>8</v>
+        <v>213</v>
       </c>
       <c r="K44">
-        <v>594</v>
+        <v>195</v>
       </c>
       <c r="L44">
-        <v>37.52</v>
+        <v>38.92</v>
       </c>
       <c r="M44">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="N44">
-        <v>0.06</v>
+        <v>0.16</v>
       </c>
       <c r="O44">
         <v>10</v>
       </c>
       <c r="P44">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="Q44" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="R44" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="S44" t="s">
-        <v>143</v>
+        <v>125</v>
+      </c>
+      <c r="T44" t="s">
+        <v>133</v>
+      </c>
+      <c r="U44" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="45" spans="1:21">
@@ -3587,22 +3572,22 @@
         <v>63</v>
       </c>
       <c r="C45">
-        <v>38.03</v>
+        <v>30.02</v>
       </c>
       <c r="D45">
-        <v>37</v>
+        <v>30.23</v>
       </c>
       <c r="E45">
-        <v>48.33</v>
+        <v>47.59</v>
       </c>
       <c r="F45">
-        <v>12.82</v>
+        <v>13.49</v>
       </c>
       <c r="G45">
-        <v>18</v>
+        <v>21.79</v>
       </c>
       <c r="H45">
-        <v>37.79</v>
+        <v>39.18</v>
       </c>
       <c r="I45">
         <v>2</v>
@@ -3614,28 +3599,34 @@
         <v>594</v>
       </c>
       <c r="L45">
-        <v>37.54</v>
+        <v>38.94</v>
       </c>
       <c r="M45">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="N45">
-        <v>0.14</v>
+        <v>0.06</v>
       </c>
       <c r="O45">
         <v>10</v>
       </c>
       <c r="P45">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="Q45" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="R45" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="S45" t="s">
-        <v>142</v>
+        <v>126</v>
+      </c>
+      <c r="T45" t="s">
+        <v>133</v>
+      </c>
+      <c r="U45" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="46" spans="1:21">
@@ -3646,22 +3637,22 @@
         <v>64</v>
       </c>
       <c r="C46">
-        <v>50.11</v>
+        <v>49.96</v>
       </c>
       <c r="D46">
-        <v>51.11</v>
+        <v>48.3</v>
       </c>
       <c r="E46">
-        <v>48.79</v>
+        <v>49.9</v>
       </c>
       <c r="F46">
-        <v>39.04</v>
+        <v>36.42</v>
       </c>
       <c r="G46">
-        <v>40.97</v>
+        <v>43.05</v>
       </c>
       <c r="H46">
-        <v>31.99</v>
+        <v>36.78</v>
       </c>
       <c r="I46">
         <v>196</v>
@@ -3673,34 +3664,34 @@
         <v>195</v>
       </c>
       <c r="L46">
-        <v>37.64</v>
+        <v>39</v>
       </c>
       <c r="M46">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N46">
-        <v>0.07000000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="O46">
         <v>10</v>
       </c>
       <c r="P46">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="Q46" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="R46" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="S46" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="T46" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="U46" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
     </row>
     <row r="47" spans="1:21">
@@ -3711,37 +3702,37 @@
         <v>65</v>
       </c>
       <c r="C47">
-        <v>34.86</v>
+        <v>49.27</v>
       </c>
       <c r="D47">
-        <v>33.69</v>
+        <v>49.84</v>
       </c>
       <c r="E47">
-        <v>47.07</v>
+        <v>49.01</v>
       </c>
       <c r="F47">
-        <v>13.71</v>
+        <v>37.92</v>
       </c>
       <c r="G47">
-        <v>24.04</v>
+        <v>40.34</v>
       </c>
       <c r="H47">
-        <v>38.02</v>
+        <v>38.76</v>
       </c>
       <c r="I47">
-        <v>2</v>
+        <v>196</v>
       </c>
       <c r="J47">
-        <v>8</v>
+        <v>213</v>
       </c>
       <c r="K47">
-        <v>594</v>
+        <v>195</v>
       </c>
       <c r="L47">
-        <v>37.81</v>
+        <v>39.06</v>
       </c>
       <c r="M47">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="N47">
         <v>0.06</v>
@@ -3750,16 +3741,22 @@
         <v>10</v>
       </c>
       <c r="P47">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Q47" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="R47" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="S47" t="s">
-        <v>140</v>
+        <v>127</v>
+      </c>
+      <c r="T47" t="s">
+        <v>133</v>
+      </c>
+      <c r="U47" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="48" spans="1:21">
@@ -3770,22 +3767,22 @@
         <v>66</v>
       </c>
       <c r="C48">
-        <v>52.14</v>
+        <v>48.36</v>
       </c>
       <c r="D48">
-        <v>50.07</v>
+        <v>46.87</v>
       </c>
       <c r="E48">
-        <v>48.55</v>
+        <v>47.88</v>
       </c>
       <c r="F48">
-        <v>50.31</v>
+        <v>38.15</v>
       </c>
       <c r="G48">
-        <v>28.27</v>
+        <v>38.27</v>
       </c>
       <c r="H48">
-        <v>32.03</v>
+        <v>41</v>
       </c>
       <c r="I48">
         <v>196</v>
@@ -3797,34 +3794,34 @@
         <v>195</v>
       </c>
       <c r="L48">
-        <v>37.87</v>
+        <v>39.14</v>
       </c>
       <c r="M48">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="N48">
-        <v>0.19</v>
+        <v>0.08</v>
       </c>
       <c r="O48">
         <v>10</v>
       </c>
       <c r="P48">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q48" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="R48" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="S48" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="T48" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="U48" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
     </row>
     <row r="49" spans="1:21">
@@ -3835,22 +3832,22 @@
         <v>67</v>
       </c>
       <c r="C49">
-        <v>49.48</v>
+        <v>49.5</v>
       </c>
       <c r="D49">
-        <v>47.73</v>
+        <v>48.85</v>
       </c>
       <c r="E49">
-        <v>47.92</v>
+        <v>48.01</v>
       </c>
       <c r="F49">
-        <v>37.24</v>
+        <v>40.03</v>
       </c>
       <c r="G49">
-        <v>38.17</v>
+        <v>38.97</v>
       </c>
       <c r="H49">
-        <v>38.26</v>
+        <v>38.4</v>
       </c>
       <c r="I49">
         <v>196</v>
@@ -3862,34 +3859,34 @@
         <v>195</v>
       </c>
       <c r="L49">
-        <v>37.9</v>
+        <v>39.14</v>
       </c>
       <c r="M49">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="N49">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="O49">
         <v>10</v>
       </c>
       <c r="P49">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="Q49" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="R49" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="S49" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="T49" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="U49" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
     </row>
     <row r="50" spans="1:21">
@@ -3900,61 +3897,61 @@
         <v>68</v>
       </c>
       <c r="C50">
-        <v>37.96</v>
+        <v>49.62</v>
       </c>
       <c r="D50">
-        <v>37.09</v>
+        <v>49.98</v>
       </c>
       <c r="E50">
-        <v>47.52</v>
+        <v>48.71</v>
       </c>
       <c r="F50">
-        <v>10.99</v>
+        <v>37.78</v>
       </c>
       <c r="G50">
-        <v>27.39</v>
+        <v>41.55</v>
       </c>
       <c r="H50">
-        <v>38.12</v>
+        <v>37.91</v>
       </c>
       <c r="I50">
-        <v>2</v>
+        <v>196</v>
       </c>
       <c r="J50">
-        <v>8</v>
+        <v>213</v>
       </c>
       <c r="K50">
-        <v>594</v>
+        <v>195</v>
       </c>
       <c r="L50">
-        <v>37.94</v>
+        <v>39.19</v>
       </c>
       <c r="M50">
         <v>35</v>
       </c>
       <c r="N50">
-        <v>0.14</v>
+        <v>0.04</v>
       </c>
       <c r="O50">
         <v>10</v>
       </c>
       <c r="P50">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q50" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="R50" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="S50" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="T50" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="U50" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
     </row>
     <row r="51" spans="1:21">
@@ -3965,55 +3962,61 @@
         <v>69</v>
       </c>
       <c r="C51">
-        <v>47.16</v>
+        <v>36.77</v>
       </c>
       <c r="D51">
-        <v>34.91</v>
+        <v>32.49</v>
       </c>
       <c r="E51">
-        <v>47.6</v>
+        <v>34.37</v>
       </c>
       <c r="F51">
-        <v>32.35</v>
+        <v>27.73</v>
       </c>
       <c r="G51">
-        <v>20.95</v>
+        <v>49.61</v>
       </c>
       <c r="H51">
-        <v>38.29</v>
+        <v>36.15</v>
       </c>
       <c r="I51">
-        <v>2</v>
+        <v>196</v>
       </c>
       <c r="J51">
-        <v>8</v>
+        <v>213</v>
       </c>
       <c r="K51">
-        <v>594</v>
+        <v>195</v>
       </c>
       <c r="L51">
-        <v>38.09</v>
+        <v>39.23</v>
       </c>
       <c r="M51">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="N51">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="O51">
         <v>10</v>
       </c>
       <c r="P51">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Q51" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="R51" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="S51" t="s">
-        <v>140</v>
+        <v>129</v>
+      </c>
+      <c r="T51" t="s">
+        <v>133</v>
+      </c>
+      <c r="U51" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="52" spans="1:21">
@@ -4024,22 +4027,22 @@
         <v>70</v>
       </c>
       <c r="C52">
-        <v>42.37</v>
+        <v>33.28</v>
       </c>
       <c r="D52">
-        <v>36.81</v>
+        <v>34.91</v>
       </c>
       <c r="E52">
-        <v>45.43</v>
+        <v>47.35</v>
       </c>
       <c r="F52">
-        <v>21.27</v>
+        <v>24.62</v>
       </c>
       <c r="G52">
-        <v>24.49</v>
+        <v>23.69</v>
       </c>
       <c r="H52">
-        <v>38.34</v>
+        <v>39.51</v>
       </c>
       <c r="I52">
         <v>2</v>
@@ -4051,28 +4054,31 @@
         <v>594</v>
       </c>
       <c r="L52">
-        <v>38.14</v>
+        <v>39.3</v>
       </c>
       <c r="M52">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N52">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="O52">
         <v>10</v>
       </c>
       <c r="P52">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="Q52" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="R52" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="S52" t="s">
-        <v>146</v>
+        <v>125</v>
+      </c>
+      <c r="T52" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="53" spans="1:21">
@@ -4083,55 +4089,61 @@
         <v>71</v>
       </c>
       <c r="C53">
-        <v>48.48</v>
+        <v>48.58</v>
       </c>
       <c r="D53">
-        <v>37.78</v>
+        <v>48.81</v>
       </c>
       <c r="E53">
-        <v>48.07</v>
+        <v>48.16</v>
       </c>
       <c r="F53">
-        <v>18.76</v>
+        <v>37.44</v>
       </c>
       <c r="G53">
-        <v>15.86</v>
+        <v>41.92</v>
       </c>
       <c r="H53">
-        <v>38.5</v>
+        <v>38.22</v>
       </c>
       <c r="I53">
-        <v>2</v>
+        <v>196</v>
       </c>
       <c r="J53">
+        <v>213</v>
+      </c>
+      <c r="K53">
+        <v>195</v>
+      </c>
+      <c r="L53">
+        <v>39.32</v>
+      </c>
+      <c r="M53">
+        <v>15</v>
+      </c>
+      <c r="N53">
+        <v>0.04</v>
+      </c>
+      <c r="O53">
+        <v>10</v>
+      </c>
+      <c r="P53">
         <v>8</v>
       </c>
-      <c r="K53">
-        <v>594</v>
-      </c>
-      <c r="L53">
-        <v>38.24</v>
-      </c>
-      <c r="M53">
-        <v>20</v>
-      </c>
-      <c r="N53">
-        <v>0.08</v>
-      </c>
-      <c r="O53">
-        <v>10</v>
-      </c>
-      <c r="P53">
-        <v>6</v>
-      </c>
       <c r="Q53" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="R53" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="S53" t="s">
-        <v>142</v>
+        <v>127</v>
+      </c>
+      <c r="T53" t="s">
+        <v>133</v>
+      </c>
+      <c r="U53" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="54" spans="1:21">
@@ -4142,22 +4154,22 @@
         <v>72</v>
       </c>
       <c r="C54">
-        <v>32.03</v>
+        <v>34.08</v>
       </c>
       <c r="D54">
-        <v>32.27</v>
+        <v>30.69</v>
       </c>
       <c r="E54">
-        <v>46.64</v>
+        <v>47.44</v>
       </c>
       <c r="F54">
-        <v>27.91</v>
+        <v>15.7</v>
       </c>
       <c r="G54">
-        <v>21.66</v>
+        <v>22.91</v>
       </c>
       <c r="H54">
-        <v>38.52</v>
+        <v>39.58</v>
       </c>
       <c r="I54">
         <v>2</v>
@@ -4169,10 +4181,10 @@
         <v>594</v>
       </c>
       <c r="L54">
-        <v>38.31</v>
+        <v>39.35</v>
       </c>
       <c r="M54">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N54">
         <v>0.12</v>
@@ -4181,19 +4193,16 @@
         <v>10</v>
       </c>
       <c r="P54">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Q54" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="R54" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="S54" t="s">
-        <v>140</v>
-      </c>
-      <c r="T54" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
     </row>
     <row r="55" spans="1:21">
@@ -4204,22 +4213,22 @@
         <v>73</v>
       </c>
       <c r="C55">
-        <v>48.96</v>
+        <v>49.06</v>
       </c>
       <c r="D55">
-        <v>46.74</v>
+        <v>47.39</v>
       </c>
       <c r="E55">
-        <v>46.08</v>
+        <v>48.14</v>
       </c>
       <c r="F55">
-        <v>38.14</v>
+        <v>37.45</v>
       </c>
       <c r="G55">
-        <v>40.03</v>
+        <v>42.27</v>
       </c>
       <c r="H55">
-        <v>36.57</v>
+        <v>37.93</v>
       </c>
       <c r="I55">
         <v>196</v>
@@ -4231,10 +4240,10 @@
         <v>195</v>
       </c>
       <c r="L55">
-        <v>38.33</v>
+        <v>39.37</v>
       </c>
       <c r="M55">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="N55">
         <v>0.04</v>
@@ -4243,22 +4252,22 @@
         <v>10</v>
       </c>
       <c r="P55">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="Q55" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="R55" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="S55" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="T55" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="U55" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
     </row>
     <row r="56" spans="1:21">
@@ -4269,61 +4278,61 @@
         <v>74</v>
       </c>
       <c r="C56">
-        <v>30.71</v>
+        <v>49.63</v>
       </c>
       <c r="D56">
-        <v>33.75</v>
+        <v>48.78</v>
       </c>
       <c r="E56">
-        <v>47.44</v>
+        <v>47.95</v>
       </c>
       <c r="F56">
-        <v>44.83</v>
+        <v>38.09</v>
       </c>
       <c r="G56">
-        <v>21.35</v>
+        <v>41.69</v>
       </c>
       <c r="H56">
-        <v>38.58</v>
+        <v>38.35</v>
       </c>
       <c r="I56">
-        <v>2</v>
+        <v>196</v>
       </c>
       <c r="J56">
-        <v>8</v>
+        <v>213</v>
       </c>
       <c r="K56">
-        <v>594</v>
+        <v>195</v>
       </c>
       <c r="L56">
-        <v>38.42</v>
+        <v>39.48</v>
       </c>
       <c r="M56">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="N56">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="O56">
         <v>10</v>
       </c>
       <c r="P56">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Q56" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="R56" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="S56" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="T56" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="U56" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
     </row>
     <row r="57" spans="1:21">
@@ -4334,55 +4343,61 @@
         <v>75</v>
       </c>
       <c r="C57">
-        <v>36.58</v>
+        <v>49.81</v>
       </c>
       <c r="D57">
-        <v>40.25</v>
+        <v>48.14</v>
       </c>
       <c r="E57">
-        <v>47.84</v>
+        <v>48.63</v>
       </c>
       <c r="F57">
-        <v>12.85</v>
+        <v>37.55</v>
       </c>
       <c r="G57">
-        <v>16.14</v>
+        <v>40.99</v>
       </c>
       <c r="H57">
-        <v>38.7</v>
+        <v>39.71</v>
       </c>
       <c r="I57">
-        <v>2</v>
+        <v>196</v>
       </c>
       <c r="J57">
+        <v>213</v>
+      </c>
+      <c r="K57">
+        <v>195</v>
+      </c>
+      <c r="L57">
+        <v>39.49</v>
+      </c>
+      <c r="M57">
+        <v>20</v>
+      </c>
+      <c r="N57">
+        <v>0.15</v>
+      </c>
+      <c r="O57">
+        <v>10</v>
+      </c>
+      <c r="P57">
         <v>8</v>
       </c>
-      <c r="K57">
-        <v>594</v>
-      </c>
-      <c r="L57">
-        <v>38.43</v>
-      </c>
-      <c r="M57">
-        <v>10</v>
-      </c>
-      <c r="N57">
-        <v>0.18</v>
-      </c>
-      <c r="O57">
-        <v>10</v>
-      </c>
-      <c r="P57">
-        <v>6</v>
-      </c>
       <c r="Q57" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="R57" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="S57" t="s">
-        <v>146</v>
+        <v>127</v>
+      </c>
+      <c r="T57" t="s">
+        <v>133</v>
+      </c>
+      <c r="U57" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="58" spans="1:21">
@@ -4393,22 +4408,22 @@
         <v>76</v>
       </c>
       <c r="C58">
-        <v>43.83</v>
+        <v>34.65</v>
       </c>
       <c r="D58">
-        <v>34.95</v>
+        <v>32.06</v>
       </c>
       <c r="E58">
-        <v>47.44</v>
+        <v>47.18</v>
       </c>
       <c r="F58">
-        <v>20.37</v>
+        <v>42.96</v>
       </c>
       <c r="G58">
-        <v>18.77</v>
+        <v>29.23</v>
       </c>
       <c r="H58">
-        <v>38.84</v>
+        <v>39.67</v>
       </c>
       <c r="I58">
         <v>2</v>
@@ -4420,28 +4435,28 @@
         <v>594</v>
       </c>
       <c r="L58">
-        <v>38.59</v>
+        <v>39.56</v>
       </c>
       <c r="M58">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N58">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="O58">
         <v>10</v>
       </c>
       <c r="P58">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="Q58" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="R58" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="S58" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="59" spans="1:21">
@@ -4452,22 +4467,22 @@
         <v>77</v>
       </c>
       <c r="C59">
-        <v>49.98</v>
+        <v>48.66</v>
       </c>
       <c r="D59">
-        <v>48.11</v>
+        <v>47.21</v>
       </c>
       <c r="E59">
-        <v>48.8</v>
+        <v>48.32</v>
       </c>
       <c r="F59">
-        <v>38.26</v>
+        <v>39.91</v>
       </c>
       <c r="G59">
-        <v>39.77</v>
+        <v>42.58</v>
       </c>
       <c r="H59">
-        <v>37.78</v>
+        <v>35.76</v>
       </c>
       <c r="I59">
         <v>196</v>
@@ -4479,34 +4494,34 @@
         <v>195</v>
       </c>
       <c r="L59">
-        <v>38.65</v>
+        <v>39.61</v>
       </c>
       <c r="M59">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N59">
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="O59">
         <v>10</v>
       </c>
       <c r="P59">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="Q59" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="R59" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="S59" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="T59" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="U59" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
     </row>
     <row r="60" spans="1:21">
@@ -4517,22 +4532,22 @@
         <v>78</v>
       </c>
       <c r="C60">
-        <v>50.49</v>
+        <v>48.96</v>
       </c>
       <c r="D60">
-        <v>48.05</v>
+        <v>47.45</v>
       </c>
       <c r="E60">
-        <v>49.36</v>
+        <v>48.19</v>
       </c>
       <c r="F60">
-        <v>35.39</v>
+        <v>39.95</v>
       </c>
       <c r="G60">
-        <v>43.52</v>
+        <v>40.5</v>
       </c>
       <c r="H60">
-        <v>36.21</v>
+        <v>38.39</v>
       </c>
       <c r="I60">
         <v>196</v>
@@ -4544,34 +4559,34 @@
         <v>195</v>
       </c>
       <c r="L60">
-        <v>38.7</v>
+        <v>39.65</v>
       </c>
       <c r="M60">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N60">
-        <v>0.16</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="O60">
         <v>10</v>
       </c>
       <c r="P60">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="Q60" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="R60" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="S60" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="T60" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="U60" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
     </row>
     <row r="61" spans="1:21">
@@ -4582,22 +4597,22 @@
         <v>79</v>
       </c>
       <c r="C61">
-        <v>48.9</v>
+        <v>49.65</v>
       </c>
       <c r="D61">
-        <v>48.14</v>
+        <v>47.78</v>
       </c>
       <c r="E61">
-        <v>47.98</v>
+        <v>48.53</v>
       </c>
       <c r="F61">
-        <v>37.2</v>
+        <v>37.26</v>
       </c>
       <c r="G61">
-        <v>41.07</v>
+        <v>43.54</v>
       </c>
       <c r="H61">
-        <v>37.98</v>
+        <v>37.73</v>
       </c>
       <c r="I61">
         <v>196</v>
@@ -4609,34 +4624,34 @@
         <v>195</v>
       </c>
       <c r="L61">
-        <v>38.85</v>
+        <v>39.73</v>
       </c>
       <c r="M61">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="N61">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="O61">
         <v>10</v>
       </c>
       <c r="P61">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="Q61" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="R61" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="S61" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="T61" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="U61" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
     </row>
     <row r="62" spans="1:21">
@@ -4647,22 +4662,22 @@
         <v>80</v>
       </c>
       <c r="C62">
-        <v>50.96</v>
+        <v>49.26</v>
       </c>
       <c r="D62">
-        <v>48.44</v>
+        <v>48.31</v>
       </c>
       <c r="E62">
-        <v>48.24</v>
+        <v>47.03</v>
       </c>
       <c r="F62">
-        <v>38.91</v>
+        <v>39.84</v>
       </c>
       <c r="G62">
-        <v>40.15</v>
+        <v>42.92</v>
       </c>
       <c r="H62">
-        <v>37.67</v>
+        <v>35.9</v>
       </c>
       <c r="I62">
         <v>196</v>
@@ -4674,34 +4689,34 @@
         <v>195</v>
       </c>
       <c r="L62">
-        <v>38.96</v>
+        <v>39.76</v>
       </c>
       <c r="M62">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="N62">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
       <c r="O62">
         <v>10</v>
       </c>
       <c r="P62">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q62" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="R62" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="S62" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="T62" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="U62" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
     </row>
     <row r="63" spans="1:21">
@@ -4712,22 +4727,22 @@
         <v>81</v>
       </c>
       <c r="C63">
-        <v>49.64</v>
+        <v>49.82</v>
       </c>
       <c r="D63">
-        <v>47.81</v>
+        <v>47.72</v>
       </c>
       <c r="E63">
-        <v>47.14</v>
+        <v>48.68</v>
       </c>
       <c r="F63">
-        <v>38.07</v>
+        <v>37.55</v>
       </c>
       <c r="G63">
-        <v>40.94</v>
+        <v>43.29</v>
       </c>
       <c r="H63">
-        <v>37.66</v>
+        <v>37.97</v>
       </c>
       <c r="I63">
         <v>196</v>
@@ -4739,34 +4754,34 @@
         <v>195</v>
       </c>
       <c r="L63">
-        <v>38.98</v>
+        <v>39.8</v>
       </c>
       <c r="M63">
         <v>15</v>
       </c>
       <c r="N63">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
       <c r="O63">
         <v>10</v>
       </c>
       <c r="P63">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Q63" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="R63" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="S63" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="T63" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="U63" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
     </row>
     <row r="64" spans="1:21">
@@ -4777,61 +4792,61 @@
         <v>82</v>
       </c>
       <c r="C64">
-        <v>38.56</v>
+        <v>49.82</v>
       </c>
       <c r="D64">
-        <v>37.08</v>
+        <v>48.08</v>
       </c>
       <c r="E64">
-        <v>46.36</v>
+        <v>48.7</v>
       </c>
       <c r="F64">
-        <v>23.97</v>
+        <v>36.91</v>
       </c>
       <c r="G64">
-        <v>23.79</v>
+        <v>44</v>
       </c>
       <c r="H64">
-        <v>39.23</v>
+        <v>37.88</v>
       </c>
       <c r="I64">
-        <v>2</v>
+        <v>196</v>
       </c>
       <c r="J64">
-        <v>8</v>
+        <v>213</v>
       </c>
       <c r="K64">
-        <v>594</v>
+        <v>195</v>
       </c>
       <c r="L64">
-        <v>39.02</v>
+        <v>39.85</v>
       </c>
       <c r="M64">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="N64">
-        <v>0.02</v>
+        <v>0.08</v>
       </c>
       <c r="O64">
         <v>10</v>
       </c>
       <c r="P64">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="Q64" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="R64" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="S64" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="T64" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="U64" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
     </row>
     <row r="65" spans="1:21">
@@ -4842,61 +4857,55 @@
         <v>83</v>
       </c>
       <c r="C65">
-        <v>49.92</v>
+        <v>39.44</v>
       </c>
       <c r="D65">
-        <v>48.15</v>
+        <v>34.7</v>
       </c>
       <c r="E65">
-        <v>48.72</v>
+        <v>47.7</v>
       </c>
       <c r="F65">
-        <v>39.07</v>
+        <v>19.31</v>
       </c>
       <c r="G65">
-        <v>39.27</v>
+        <v>15.85</v>
       </c>
       <c r="H65">
-        <v>39.5</v>
+        <v>40.18</v>
       </c>
       <c r="I65">
-        <v>196</v>
+        <v>2</v>
       </c>
       <c r="J65">
-        <v>213</v>
+        <v>8</v>
       </c>
       <c r="K65">
-        <v>195</v>
+        <v>594</v>
       </c>
       <c r="L65">
-        <v>39.28</v>
+        <v>39.91</v>
       </c>
       <c r="M65">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N65">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
       <c r="O65">
         <v>10</v>
       </c>
       <c r="P65">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Q65" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="R65" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="S65" t="s">
-        <v>142</v>
-      </c>
-      <c r="T65" t="s">
-        <v>148</v>
-      </c>
-      <c r="U65" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
     </row>
     <row r="66" spans="1:21">
@@ -4907,22 +4916,22 @@
         <v>84</v>
       </c>
       <c r="C66">
-        <v>49.27</v>
+        <v>49.86</v>
       </c>
       <c r="D66">
-        <v>47.6</v>
+        <v>48.51</v>
       </c>
       <c r="E66">
-        <v>48.59</v>
+        <v>49.01</v>
       </c>
       <c r="F66">
-        <v>36.15</v>
+        <v>37.2</v>
       </c>
       <c r="G66">
-        <v>43.16</v>
+        <v>43.97</v>
       </c>
       <c r="H66">
-        <v>37.87</v>
+        <v>37.9</v>
       </c>
       <c r="I66">
         <v>196</v>
@@ -4934,34 +4943,34 @@
         <v>195</v>
       </c>
       <c r="L66">
-        <v>39.3</v>
+        <v>39.93</v>
       </c>
       <c r="M66">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="N66">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="O66">
         <v>10</v>
       </c>
       <c r="P66">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Q66" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="R66" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="S66" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="T66" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="U66" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
     </row>
     <row r="67" spans="1:21">
@@ -4972,22 +4981,22 @@
         <v>85</v>
       </c>
       <c r="C67">
-        <v>48.13</v>
+        <v>49.87</v>
       </c>
       <c r="D67">
-        <v>47.51</v>
+        <v>48.52</v>
       </c>
       <c r="E67">
-        <v>47.74</v>
+        <v>49.01</v>
       </c>
       <c r="F67">
-        <v>37.49</v>
+        <v>37.2</v>
       </c>
       <c r="G67">
-        <v>42.11</v>
+        <v>43.96</v>
       </c>
       <c r="H67">
-        <v>37.88</v>
+        <v>37.9</v>
       </c>
       <c r="I67">
         <v>196</v>
@@ -4999,34 +5008,34 @@
         <v>195</v>
       </c>
       <c r="L67">
-        <v>39.31</v>
+        <v>39.93</v>
       </c>
       <c r="M67">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N67">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="O67">
         <v>10</v>
       </c>
       <c r="P67">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="Q67" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="R67" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="S67" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="T67" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="U67" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
     </row>
     <row r="68" spans="1:21">
@@ -5037,22 +5046,22 @@
         <v>86</v>
       </c>
       <c r="C68">
-        <v>49.15</v>
+        <v>48.54</v>
       </c>
       <c r="D68">
-        <v>49.49</v>
+        <v>46.85</v>
       </c>
       <c r="E68">
-        <v>46.55</v>
+        <v>47.51</v>
       </c>
       <c r="F68">
-        <v>42.24</v>
+        <v>38.81</v>
       </c>
       <c r="G68">
-        <v>39.41</v>
+        <v>41.51</v>
       </c>
       <c r="H68">
-        <v>36.04</v>
+        <v>39.37</v>
       </c>
       <c r="I68">
         <v>196</v>
@@ -5064,7 +5073,7 @@
         <v>195</v>
       </c>
       <c r="L68">
-        <v>39.32</v>
+        <v>39.96</v>
       </c>
       <c r="M68">
         <v>15</v>
@@ -5076,22 +5085,22 @@
         <v>10</v>
       </c>
       <c r="P68">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q68" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="R68" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="S68" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="T68" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="U68" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
     </row>
     <row r="69" spans="1:21">
@@ -5102,55 +5111,61 @@
         <v>87</v>
       </c>
       <c r="C69">
-        <v>36.16</v>
+        <v>49.69</v>
       </c>
       <c r="D69">
-        <v>32.9</v>
+        <v>48.74</v>
       </c>
       <c r="E69">
-        <v>46.52</v>
+        <v>48.73</v>
       </c>
       <c r="F69">
-        <v>50.66</v>
+        <v>37.53</v>
       </c>
       <c r="G69">
-        <v>27.66</v>
+        <v>43.81</v>
       </c>
       <c r="H69">
-        <v>39.41</v>
+        <v>37.89</v>
       </c>
       <c r="I69">
-        <v>2</v>
+        <v>196</v>
       </c>
       <c r="J69">
-        <v>8</v>
+        <v>213</v>
       </c>
       <c r="K69">
-        <v>594</v>
+        <v>195</v>
       </c>
       <c r="L69">
-        <v>39.32</v>
+        <v>39.97</v>
       </c>
       <c r="M69">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="N69">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="O69">
         <v>10</v>
       </c>
       <c r="P69">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="Q69" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="R69" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="S69" t="s">
-        <v>146</v>
+        <v>129</v>
+      </c>
+      <c r="T69" t="s">
+        <v>133</v>
+      </c>
+      <c r="U69" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="70" spans="1:21">
@@ -5161,40 +5176,40 @@
         <v>88</v>
       </c>
       <c r="C70">
-        <v>49.55</v>
+        <v>38.74</v>
       </c>
       <c r="D70">
-        <v>48.87</v>
+        <v>34.2</v>
       </c>
       <c r="E70">
-        <v>48.7</v>
+        <v>47.3</v>
       </c>
       <c r="F70">
-        <v>36.85</v>
+        <v>5.08</v>
       </c>
       <c r="G70">
-        <v>43.26</v>
+        <v>29.31</v>
       </c>
       <c r="H70">
-        <v>37.38</v>
+        <v>40.19</v>
       </c>
       <c r="I70">
-        <v>196</v>
+        <v>2</v>
       </c>
       <c r="J70">
-        <v>213</v>
+        <v>8</v>
       </c>
       <c r="K70">
-        <v>195</v>
+        <v>594</v>
       </c>
       <c r="L70">
-        <v>39.39</v>
+        <v>40</v>
       </c>
       <c r="M70">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="N70">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="O70">
         <v>10</v>
@@ -5203,19 +5218,19 @@
         <v>6</v>
       </c>
       <c r="Q70" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="R70" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="S70" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="T70" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="U70" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
     </row>
     <row r="71" spans="1:21">
@@ -5226,55 +5241,61 @@
         <v>89</v>
       </c>
       <c r="C71">
-        <v>47.02</v>
+        <v>49.99</v>
       </c>
       <c r="D71">
-        <v>36.17</v>
+        <v>48.37</v>
       </c>
       <c r="E71">
-        <v>47.86</v>
+        <v>49.02</v>
       </c>
       <c r="F71">
-        <v>25.4</v>
+        <v>37.23</v>
       </c>
       <c r="G71">
-        <v>16.91</v>
+        <v>44.07</v>
       </c>
       <c r="H71">
-        <v>39.65</v>
+        <v>38.01</v>
       </c>
       <c r="I71">
-        <v>2</v>
+        <v>196</v>
       </c>
       <c r="J71">
-        <v>8</v>
+        <v>213</v>
       </c>
       <c r="K71">
-        <v>594</v>
+        <v>195</v>
       </c>
       <c r="L71">
-        <v>39.4</v>
+        <v>40.02</v>
       </c>
       <c r="M71">
         <v>45</v>
       </c>
       <c r="N71">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="O71">
         <v>10</v>
       </c>
       <c r="P71">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q71" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="R71" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="S71" t="s">
-        <v>140</v>
+        <v>131</v>
+      </c>
+      <c r="T71" t="s">
+        <v>133</v>
+      </c>
+      <c r="U71" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="72" spans="1:21">
@@ -5285,55 +5306,61 @@
         <v>90</v>
       </c>
       <c r="C72">
-        <v>40.5</v>
+        <v>48.98</v>
       </c>
       <c r="D72">
-        <v>34.08</v>
+        <v>48.55</v>
       </c>
       <c r="E72">
-        <v>47.39</v>
+        <v>47.04</v>
       </c>
       <c r="F72">
-        <v>16.99</v>
+        <v>39.32</v>
       </c>
       <c r="G72">
-        <v>15.85</v>
+        <v>43.67</v>
       </c>
       <c r="H72">
-        <v>39.7</v>
+        <v>36.4</v>
       </c>
       <c r="I72">
-        <v>2</v>
+        <v>196</v>
       </c>
       <c r="J72">
-        <v>8</v>
+        <v>213</v>
       </c>
       <c r="K72">
-        <v>594</v>
+        <v>195</v>
       </c>
       <c r="L72">
-        <v>39.42</v>
+        <v>40.03</v>
       </c>
       <c r="M72">
         <v>10</v>
       </c>
       <c r="N72">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="O72">
         <v>10</v>
       </c>
       <c r="P72">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="Q72" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="R72" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="S72" t="s">
-        <v>142</v>
+        <v>131</v>
+      </c>
+      <c r="T72" t="s">
+        <v>133</v>
+      </c>
+      <c r="U72" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="73" spans="1:21">
@@ -5344,22 +5371,22 @@
         <v>91</v>
       </c>
       <c r="C73">
-        <v>49.47</v>
+        <v>49.96</v>
       </c>
       <c r="D73">
-        <v>48.49</v>
+        <v>48.19</v>
       </c>
       <c r="E73">
-        <v>48.34</v>
+        <v>48.86</v>
       </c>
       <c r="F73">
-        <v>37.66</v>
+        <v>37.24</v>
       </c>
       <c r="G73">
-        <v>41.34</v>
+        <v>44.1</v>
       </c>
       <c r="H73">
-        <v>39.14</v>
+        <v>38.01</v>
       </c>
       <c r="I73">
         <v>196</v>
@@ -5371,34 +5398,34 @@
         <v>195</v>
       </c>
       <c r="L73">
-        <v>39.47</v>
+        <v>40.03</v>
       </c>
       <c r="M73">
         <v>35</v>
       </c>
       <c r="N73">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="O73">
         <v>10</v>
       </c>
       <c r="P73">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Q73" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="R73" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="S73" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="T73" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="U73" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
     </row>
     <row r="74" spans="1:21">
@@ -5409,22 +5436,22 @@
         <v>92</v>
       </c>
       <c r="C74">
-        <v>48.44</v>
+        <v>49.76</v>
       </c>
       <c r="D74">
-        <v>49.03</v>
+        <v>48.59</v>
       </c>
       <c r="E74">
-        <v>49.19</v>
+        <v>48.9</v>
       </c>
       <c r="F74">
-        <v>38.46</v>
+        <v>37.37</v>
       </c>
       <c r="G74">
-        <v>41.57</v>
+        <v>43.95</v>
       </c>
       <c r="H74">
-        <v>38.49</v>
+        <v>38.08</v>
       </c>
       <c r="I74">
         <v>196</v>
@@ -5436,34 +5463,34 @@
         <v>195</v>
       </c>
       <c r="L74">
-        <v>39.6</v>
+        <v>40.03</v>
       </c>
       <c r="M74">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="N74">
-        <v>0.04</v>
+        <v>0.12</v>
       </c>
       <c r="O74">
         <v>10</v>
       </c>
       <c r="P74">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="Q74" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="R74" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="S74" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="T74" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="U74" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
     </row>
     <row r="75" spans="1:21">
@@ -5474,22 +5501,22 @@
         <v>93</v>
       </c>
       <c r="C75">
-        <v>49.61</v>
+        <v>49.99</v>
       </c>
       <c r="D75">
-        <v>48.36</v>
+        <v>48.33</v>
       </c>
       <c r="E75">
-        <v>48.56</v>
+        <v>48.98</v>
       </c>
       <c r="F75">
-        <v>38.52</v>
+        <v>37.29</v>
       </c>
       <c r="G75">
-        <v>40.67</v>
+        <v>44.12</v>
       </c>
       <c r="H75">
-        <v>39.6</v>
+        <v>38.15</v>
       </c>
       <c r="I75">
         <v>196</v>
@@ -5501,34 +5528,34 @@
         <v>195</v>
       </c>
       <c r="L75">
-        <v>39.64</v>
+        <v>40.09</v>
       </c>
       <c r="M75">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N75">
-        <v>0.07000000000000001</v>
+        <v>0.18</v>
       </c>
       <c r="O75">
         <v>10</v>
       </c>
       <c r="P75">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="Q75" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="R75" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="S75" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="T75" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="U75" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
     </row>
     <row r="76" spans="1:21">
@@ -5539,22 +5566,22 @@
         <v>94</v>
       </c>
       <c r="C76">
-        <v>50.14</v>
+        <v>49.74</v>
       </c>
       <c r="D76">
-        <v>48.15</v>
+        <v>48.62</v>
       </c>
       <c r="E76">
-        <v>48.88</v>
+        <v>48.81</v>
       </c>
       <c r="F76">
-        <v>37.66</v>
+        <v>37.49</v>
       </c>
       <c r="G76">
-        <v>42.68</v>
+        <v>43.96</v>
       </c>
       <c r="H76">
-        <v>38.53</v>
+        <v>38.25</v>
       </c>
       <c r="I76">
         <v>196</v>
@@ -5566,34 +5593,34 @@
         <v>195</v>
       </c>
       <c r="L76">
-        <v>39.77</v>
+        <v>40.12</v>
       </c>
       <c r="M76">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="N76">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="O76">
         <v>10</v>
       </c>
       <c r="P76">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="Q76" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="R76" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="S76" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="T76" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="U76" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
     </row>
     <row r="77" spans="1:21">
@@ -5604,22 +5631,22 @@
         <v>95</v>
       </c>
       <c r="C77">
-        <v>48.72</v>
+        <v>50.02</v>
       </c>
       <c r="D77">
-        <v>48.17</v>
+        <v>48.32</v>
       </c>
       <c r="E77">
-        <v>47.23</v>
+        <v>48.97</v>
       </c>
       <c r="F77">
-        <v>38.65</v>
+        <v>37.33</v>
       </c>
       <c r="G77">
-        <v>43.3</v>
+        <v>44.15</v>
       </c>
       <c r="H77">
-        <v>36.98</v>
+        <v>38.14</v>
       </c>
       <c r="I77">
         <v>196</v>
@@ -5631,34 +5658,34 @@
         <v>195</v>
       </c>
       <c r="L77">
-        <v>39.84</v>
+        <v>40.12</v>
       </c>
       <c r="M77">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N77">
-        <v>0.13</v>
+        <v>0.09</v>
       </c>
       <c r="O77">
         <v>10</v>
       </c>
       <c r="P77">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="Q77" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="R77" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="S77" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="T77" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="U77" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
     </row>
     <row r="78" spans="1:21">
@@ -5669,22 +5696,22 @@
         <v>96</v>
       </c>
       <c r="C78">
-        <v>49.64</v>
+        <v>51.02</v>
       </c>
       <c r="D78">
-        <v>49.24</v>
+        <v>50.09</v>
       </c>
       <c r="E78">
-        <v>48.49</v>
+        <v>49.77</v>
       </c>
       <c r="F78">
-        <v>39.34</v>
+        <v>42.89</v>
       </c>
       <c r="G78">
-        <v>42.03</v>
+        <v>39.41</v>
       </c>
       <c r="H78">
-        <v>37.86</v>
+        <v>38.03</v>
       </c>
       <c r="I78">
         <v>196</v>
@@ -5696,13 +5723,13 @@
         <v>195</v>
       </c>
       <c r="L78">
-        <v>39.85</v>
+        <v>40.14</v>
       </c>
       <c r="M78">
         <v>15</v>
       </c>
       <c r="N78">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="O78">
         <v>10</v>
@@ -5711,19 +5738,19 @@
         <v>6</v>
       </c>
       <c r="Q78" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="R78" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="S78" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="T78" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="U78" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
     </row>
     <row r="79" spans="1:21">
@@ -5734,22 +5761,22 @@
         <v>97</v>
       </c>
       <c r="C79">
-        <v>49.85</v>
+        <v>47.93</v>
       </c>
       <c r="D79">
-        <v>48.53</v>
+        <v>48.4</v>
       </c>
       <c r="E79">
-        <v>48.99</v>
+        <v>46.82</v>
       </c>
       <c r="F79">
-        <v>37.21</v>
+        <v>39.47</v>
       </c>
       <c r="G79">
-        <v>43.96</v>
+        <v>42.77</v>
       </c>
       <c r="H79">
-        <v>37.91</v>
+        <v>37.86</v>
       </c>
       <c r="I79">
         <v>196</v>
@@ -5761,13 +5788,13 @@
         <v>195</v>
       </c>
       <c r="L79">
-        <v>39.93</v>
+        <v>40.17</v>
       </c>
       <c r="M79">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N79">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="O79">
         <v>10</v>
@@ -5776,19 +5803,19 @@
         <v>12</v>
       </c>
       <c r="Q79" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="R79" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="S79" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="T79" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="U79" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
     </row>
     <row r="80" spans="1:21">
@@ -5799,22 +5826,22 @@
         <v>98</v>
       </c>
       <c r="C80">
-        <v>49.84</v>
+        <v>49.94</v>
       </c>
       <c r="D80">
-        <v>48.52</v>
+        <v>48.38</v>
       </c>
       <c r="E80">
-        <v>48.99</v>
+        <v>49.02</v>
       </c>
       <c r="F80">
-        <v>37.21</v>
+        <v>37.46</v>
       </c>
       <c r="G80">
-        <v>43.97</v>
+        <v>44</v>
       </c>
       <c r="H80">
-        <v>37.91</v>
+        <v>38.43</v>
       </c>
       <c r="I80">
         <v>196</v>
@@ -5826,34 +5853,34 @@
         <v>195</v>
       </c>
       <c r="L80">
-        <v>39.94</v>
+        <v>40.19</v>
       </c>
       <c r="M80">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N80">
-        <v>0.07000000000000001</v>
+        <v>0.19</v>
       </c>
       <c r="O80">
         <v>10</v>
       </c>
       <c r="P80">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="Q80" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="R80" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="S80" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="T80" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="U80" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
     </row>
     <row r="81" spans="1:21">
@@ -5864,22 +5891,22 @@
         <v>99</v>
       </c>
       <c r="C81">
-        <v>48.82</v>
+        <v>50.64</v>
       </c>
       <c r="D81">
-        <v>49.96</v>
+        <v>49.97</v>
       </c>
       <c r="E81">
-        <v>47.99</v>
+        <v>49.34</v>
       </c>
       <c r="F81">
-        <v>47.68</v>
+        <v>41.75</v>
       </c>
       <c r="G81">
-        <v>32.39</v>
+        <v>40.92</v>
       </c>
       <c r="H81">
-        <v>38.92</v>
+        <v>37.95</v>
       </c>
       <c r="I81">
         <v>196</v>
@@ -5891,34 +5918,34 @@
         <v>195</v>
       </c>
       <c r="L81">
-        <v>39.96</v>
+        <v>40.26</v>
       </c>
       <c r="M81">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N81">
-        <v>0.16</v>
+        <v>0.06</v>
       </c>
       <c r="O81">
         <v>10</v>
       </c>
       <c r="P81">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="Q81" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="R81" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="S81" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="T81" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="U81" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
     </row>
     <row r="82" spans="1:21">
@@ -5929,22 +5956,22 @@
         <v>100</v>
       </c>
       <c r="C82">
-        <v>49.8</v>
+        <v>48.52</v>
       </c>
       <c r="D82">
-        <v>47.29</v>
+        <v>48.22</v>
       </c>
       <c r="E82">
-        <v>48.42</v>
+        <v>46.41</v>
       </c>
       <c r="F82">
-        <v>38.47</v>
+        <v>40.68</v>
       </c>
       <c r="G82">
-        <v>43.38</v>
+        <v>43.65</v>
       </c>
       <c r="H82">
-        <v>37.51</v>
+        <v>35.76</v>
       </c>
       <c r="I82">
         <v>196</v>
@@ -5956,34 +5983,34 @@
         <v>195</v>
       </c>
       <c r="L82">
-        <v>39.98</v>
+        <v>40.27</v>
       </c>
       <c r="M82">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N82">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="O82">
         <v>10</v>
       </c>
       <c r="P82">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="Q82" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="R82" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="S82" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="T82" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="U82" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
     </row>
     <row r="83" spans="1:21">
@@ -5994,22 +6021,22 @@
         <v>101</v>
       </c>
       <c r="C83">
-        <v>49.54</v>
+        <v>49.77</v>
       </c>
       <c r="D83">
-        <v>48.22</v>
+        <v>49.75</v>
       </c>
       <c r="E83">
-        <v>48.84</v>
+        <v>48.09</v>
       </c>
       <c r="F83">
-        <v>37.13</v>
+        <v>39.92</v>
       </c>
       <c r="G83">
-        <v>44.12</v>
+        <v>44.01</v>
       </c>
       <c r="H83">
-        <v>38.02</v>
+        <v>36.32</v>
       </c>
       <c r="I83">
         <v>196</v>
@@ -6021,34 +6048,34 @@
         <v>195</v>
       </c>
       <c r="L83">
+        <v>40.32</v>
+      </c>
+      <c r="M83">
         <v>40</v>
       </c>
-      <c r="M83">
-        <v>35</v>
-      </c>
       <c r="N83">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="O83">
         <v>10</v>
       </c>
       <c r="P83">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="Q83" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="R83" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="S83" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="T83" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="U83" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
     </row>
     <row r="84" spans="1:21">
@@ -6059,61 +6086,55 @@
         <v>102</v>
       </c>
       <c r="C84">
-        <v>49.96</v>
+        <v>36.38</v>
       </c>
       <c r="D84">
-        <v>48.37</v>
+        <v>33.87</v>
       </c>
       <c r="E84">
-        <v>49.03</v>
+        <v>46.53</v>
       </c>
       <c r="F84">
-        <v>37.21</v>
+        <v>9.6</v>
       </c>
       <c r="G84">
-        <v>44.07</v>
+        <v>23.27</v>
       </c>
       <c r="H84">
-        <v>38</v>
+        <v>40.58</v>
       </c>
       <c r="I84">
-        <v>196</v>
+        <v>2</v>
       </c>
       <c r="J84">
-        <v>213</v>
+        <v>8</v>
       </c>
       <c r="K84">
-        <v>195</v>
+        <v>594</v>
       </c>
       <c r="L84">
-        <v>40.01</v>
+        <v>40.33</v>
       </c>
       <c r="M84">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="N84">
-        <v>0.03</v>
+        <v>0.1</v>
       </c>
       <c r="O84">
         <v>10</v>
       </c>
       <c r="P84">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q84" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="R84" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="S84" t="s">
-        <v>146</v>
-      </c>
-      <c r="T84" t="s">
-        <v>148</v>
-      </c>
-      <c r="U84" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
     </row>
     <row r="85" spans="1:21">
@@ -6124,22 +6145,22 @@
         <v>103</v>
       </c>
       <c r="C85">
-        <v>50.07</v>
+        <v>48.85</v>
       </c>
       <c r="D85">
-        <v>48.43</v>
+        <v>47.02</v>
       </c>
       <c r="E85">
-        <v>48.65</v>
+        <v>47.34</v>
       </c>
       <c r="F85">
-        <v>37.56</v>
+        <v>38.55</v>
       </c>
       <c r="G85">
-        <v>42.26</v>
+        <v>43.72</v>
       </c>
       <c r="H85">
-        <v>39.93</v>
+        <v>38.36</v>
       </c>
       <c r="I85">
         <v>196</v>
@@ -6151,34 +6172,34 @@
         <v>195</v>
       </c>
       <c r="L85">
-        <v>40.03</v>
+        <v>40.39</v>
       </c>
       <c r="M85">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="N85">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="O85">
         <v>10</v>
       </c>
       <c r="P85">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Q85" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="R85" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="S85" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="T85" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="U85" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
     </row>
     <row r="86" spans="1:21">
@@ -6189,22 +6210,22 @@
         <v>104</v>
       </c>
       <c r="C86">
-        <v>49.61</v>
+        <v>49.9</v>
       </c>
       <c r="D86">
-        <v>48.45</v>
+        <v>48.24</v>
       </c>
       <c r="E86">
-        <v>48.72</v>
+        <v>48.41</v>
       </c>
       <c r="F86">
-        <v>37.41</v>
+        <v>39.83</v>
       </c>
       <c r="G86">
-        <v>43.95</v>
+        <v>42.78</v>
       </c>
       <c r="H86">
-        <v>38.1</v>
+        <v>39.32</v>
       </c>
       <c r="I86">
         <v>196</v>
@@ -6216,34 +6237,34 @@
         <v>195</v>
       </c>
       <c r="L86">
-        <v>40.05</v>
+        <v>40.73</v>
       </c>
       <c r="M86">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N86">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="O86">
         <v>10</v>
       </c>
       <c r="P86">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="Q86" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="R86" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="S86" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="T86" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="U86" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
     </row>
     <row r="87" spans="1:21">
@@ -6254,61 +6275,55 @@
         <v>105</v>
       </c>
       <c r="C87">
-        <v>50.11</v>
+        <v>40.44</v>
       </c>
       <c r="D87">
-        <v>49.52</v>
+        <v>36.45</v>
       </c>
       <c r="E87">
-        <v>48.72</v>
+        <v>47.72</v>
       </c>
       <c r="F87">
-        <v>37.33</v>
+        <v>11.42</v>
       </c>
       <c r="G87">
-        <v>43.67</v>
+        <v>17.75</v>
       </c>
       <c r="H87">
-        <v>38.58</v>
+        <v>41.16</v>
       </c>
       <c r="I87">
-        <v>196</v>
+        <v>2</v>
       </c>
       <c r="J87">
-        <v>213</v>
+        <v>8</v>
       </c>
       <c r="K87">
-        <v>195</v>
+        <v>594</v>
       </c>
       <c r="L87">
-        <v>40.06</v>
+        <v>40.87</v>
       </c>
       <c r="M87">
         <v>10</v>
       </c>
       <c r="N87">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
       <c r="O87">
         <v>10</v>
       </c>
       <c r="P87">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="Q87" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="R87" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="S87" t="s">
-        <v>140</v>
-      </c>
-      <c r="T87" t="s">
-        <v>148</v>
-      </c>
-      <c r="U87" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
     </row>
     <row r="88" spans="1:21">
@@ -6319,22 +6334,22 @@
         <v>106</v>
       </c>
       <c r="C88">
-        <v>49.73</v>
+        <v>49.4</v>
       </c>
       <c r="D88">
-        <v>48.26</v>
+        <v>49</v>
       </c>
       <c r="E88">
-        <v>48.85</v>
+        <v>47.83</v>
       </c>
       <c r="F88">
-        <v>37.25</v>
+        <v>39.78</v>
       </c>
       <c r="G88">
-        <v>44.12</v>
+        <v>44.04</v>
       </c>
       <c r="H88">
-        <v>38.15</v>
+        <v>38.29</v>
       </c>
       <c r="I88">
         <v>196</v>
@@ -6346,34 +6361,34 @@
         <v>195</v>
       </c>
       <c r="L88">
-        <v>40.08</v>
+        <v>40.88</v>
       </c>
       <c r="M88">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="N88">
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
       <c r="O88">
         <v>10</v>
       </c>
       <c r="P88">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Q88" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="R88" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="S88" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="T88" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="U88" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
     </row>
     <row r="89" spans="1:21">
@@ -6384,61 +6399,55 @@
         <v>107</v>
       </c>
       <c r="C89">
-        <v>49.97</v>
+        <v>39.96</v>
       </c>
       <c r="D89">
-        <v>48.47</v>
+        <v>34.43</v>
       </c>
       <c r="E89">
-        <v>49.07</v>
+        <v>47.36</v>
       </c>
       <c r="F89">
-        <v>37.37</v>
+        <v>16.17</v>
       </c>
       <c r="G89">
-        <v>43.99</v>
+        <v>15.62</v>
       </c>
       <c r="H89">
-        <v>38.25</v>
+        <v>41.23</v>
       </c>
       <c r="I89">
-        <v>196</v>
+        <v>2</v>
       </c>
       <c r="J89">
-        <v>213</v>
+        <v>8</v>
       </c>
       <c r="K89">
-        <v>195</v>
+        <v>594</v>
       </c>
       <c r="L89">
-        <v>40.1</v>
+        <v>40.93</v>
       </c>
       <c r="M89">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="N89">
-        <v>0.19</v>
+        <v>0.05</v>
       </c>
       <c r="O89">
         <v>10</v>
       </c>
       <c r="P89">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="Q89" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="R89" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="S89" t="s">
-        <v>143</v>
-      </c>
-      <c r="T89" t="s">
-        <v>148</v>
-      </c>
-      <c r="U89" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
     </row>
     <row r="90" spans="1:21">
@@ -6449,22 +6458,22 @@
         <v>108</v>
       </c>
       <c r="C90">
-        <v>50.62</v>
+        <v>49.44</v>
       </c>
       <c r="D90">
-        <v>49.73</v>
+        <v>49</v>
       </c>
       <c r="E90">
-        <v>48.82</v>
+        <v>47.98</v>
       </c>
       <c r="F90">
-        <v>40.15</v>
+        <v>39.08</v>
       </c>
       <c r="G90">
-        <v>43.47</v>
+        <v>44.06</v>
       </c>
       <c r="H90">
-        <v>36.02</v>
+        <v>39.37</v>
       </c>
       <c r="I90">
         <v>196</v>
@@ -6476,34 +6485,34 @@
         <v>195</v>
       </c>
       <c r="L90">
-        <v>40.11</v>
+        <v>40.99</v>
       </c>
       <c r="M90">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N90">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="O90">
         <v>10</v>
       </c>
       <c r="P90">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="Q90" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="R90" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="S90" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="T90" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="U90" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
     </row>
     <row r="91" spans="1:21">
@@ -6514,22 +6523,22 @@
         <v>109</v>
       </c>
       <c r="C91">
-        <v>51.08</v>
+        <v>49.86</v>
       </c>
       <c r="D91">
-        <v>50.11</v>
+        <v>48.41</v>
       </c>
       <c r="E91">
-        <v>49.8</v>
+        <v>48.91</v>
       </c>
       <c r="F91">
-        <v>42.95</v>
+        <v>40.15</v>
       </c>
       <c r="G91">
-        <v>39.25</v>
+        <v>42.31</v>
       </c>
       <c r="H91">
-        <v>38.03</v>
+        <v>40.46</v>
       </c>
       <c r="I91">
         <v>196</v>
@@ -6541,10 +6550,10 @@
         <v>195</v>
       </c>
       <c r="L91">
-        <v>40.11</v>
+        <v>41.02</v>
       </c>
       <c r="M91">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="N91">
         <v>0.07000000000000001</v>
@@ -6553,22 +6562,22 @@
         <v>10</v>
       </c>
       <c r="P91">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q91" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="R91" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="S91" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="T91" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="U91" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
     </row>
     <row r="92" spans="1:21">
@@ -6579,22 +6588,22 @@
         <v>110</v>
       </c>
       <c r="C92">
-        <v>50.02</v>
+        <v>49.63</v>
       </c>
       <c r="D92">
-        <v>48.32</v>
+        <v>47.79</v>
       </c>
       <c r="E92">
-        <v>48.99</v>
+        <v>48.49</v>
       </c>
       <c r="F92">
-        <v>37.32</v>
+        <v>38.58</v>
       </c>
       <c r="G92">
-        <v>44.15</v>
+        <v>44.46</v>
       </c>
       <c r="H92">
-        <v>38.12</v>
+        <v>39.99</v>
       </c>
       <c r="I92">
         <v>196</v>
@@ -6606,34 +6615,34 @@
         <v>195</v>
       </c>
       <c r="L92">
-        <v>40.11</v>
+        <v>41.19</v>
       </c>
       <c r="M92">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N92">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="O92">
         <v>10</v>
       </c>
       <c r="P92">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Q92" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="R92" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="S92" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="T92" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="U92" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
     </row>
     <row r="93" spans="1:21">
@@ -6644,22 +6653,22 @@
         <v>111</v>
       </c>
       <c r="C93">
-        <v>49.63</v>
+        <v>49.65</v>
       </c>
       <c r="D93">
-        <v>49.75</v>
+        <v>47.67</v>
       </c>
       <c r="E93">
-        <v>47.16</v>
+        <v>48.5</v>
       </c>
       <c r="F93">
-        <v>39.29</v>
+        <v>39.44</v>
       </c>
       <c r="G93">
-        <v>43.85</v>
+        <v>44.22</v>
       </c>
       <c r="H93">
-        <v>36.57</v>
+        <v>39.77</v>
       </c>
       <c r="I93">
         <v>196</v>
@@ -6671,34 +6680,34 @@
         <v>195</v>
       </c>
       <c r="L93">
-        <v>40.14</v>
+        <v>41.29</v>
       </c>
       <c r="M93">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N93">
-        <v>0.07000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="O93">
         <v>10</v>
       </c>
       <c r="P93">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="Q93" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="R93" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="S93" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="T93" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="U93" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
     </row>
     <row r="94" spans="1:21">
@@ -6709,61 +6718,55 @@
         <v>112</v>
       </c>
       <c r="C94">
-        <v>49.72</v>
+        <v>38.56</v>
       </c>
       <c r="D94">
-        <v>48.63</v>
+        <v>34.17</v>
       </c>
       <c r="E94">
-        <v>48.77</v>
+        <v>45.82</v>
       </c>
       <c r="F94">
-        <v>37.52</v>
+        <v>22.96</v>
       </c>
       <c r="G94">
-        <v>43.96</v>
+        <v>29.44</v>
       </c>
       <c r="H94">
-        <v>38.29</v>
+        <v>41.6</v>
       </c>
       <c r="I94">
-        <v>196</v>
+        <v>2</v>
       </c>
       <c r="J94">
-        <v>213</v>
+        <v>8</v>
       </c>
       <c r="K94">
-        <v>195</v>
+        <v>594</v>
       </c>
       <c r="L94">
-        <v>40.14</v>
+        <v>41.41</v>
       </c>
       <c r="M94">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="N94">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="O94">
         <v>10</v>
       </c>
       <c r="P94">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Q94" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="R94" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="S94" t="s">
-        <v>143</v>
-      </c>
-      <c r="T94" t="s">
-        <v>148</v>
-      </c>
-      <c r="U94" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
     </row>
     <row r="95" spans="1:21">
@@ -6774,22 +6777,22 @@
         <v>113</v>
       </c>
       <c r="C95">
-        <v>49.07</v>
+        <v>52.34</v>
       </c>
       <c r="D95">
-        <v>48.46</v>
+        <v>50.51</v>
       </c>
       <c r="E95">
-        <v>47.57</v>
+        <v>46.44</v>
       </c>
       <c r="F95">
-        <v>39.88</v>
+        <v>49.84</v>
       </c>
       <c r="G95">
-        <v>43.61</v>
+        <v>34.95</v>
       </c>
       <c r="H95">
-        <v>36.28</v>
+        <v>39.1</v>
       </c>
       <c r="I95">
         <v>196</v>
@@ -6801,34 +6804,34 @@
         <v>195</v>
       </c>
       <c r="L95">
-        <v>40.15</v>
+        <v>41.6</v>
       </c>
       <c r="M95">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N95">
-        <v>0.04</v>
+        <v>0.16</v>
       </c>
       <c r="O95">
         <v>10</v>
       </c>
       <c r="P95">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Q95" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="R95" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="S95" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="T95" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="U95" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
     </row>
     <row r="96" spans="1:21">
@@ -6839,22 +6842,22 @@
         <v>114</v>
       </c>
       <c r="C96">
-        <v>39.59</v>
+        <v>36.22</v>
       </c>
       <c r="D96">
-        <v>35.81</v>
+        <v>34.44</v>
       </c>
       <c r="E96">
-        <v>37.63</v>
+        <v>36.24</v>
       </c>
       <c r="F96">
-        <v>37.64</v>
+        <v>38.14</v>
       </c>
       <c r="G96">
-        <v>44.51</v>
+        <v>50.01</v>
       </c>
       <c r="H96">
-        <v>37.48</v>
+        <v>35.04</v>
       </c>
       <c r="I96">
         <v>196</v>
@@ -6866,7 +6869,7 @@
         <v>195</v>
       </c>
       <c r="L96">
-        <v>40.15</v>
+        <v>41.84</v>
       </c>
       <c r="M96">
         <v>18</v>
@@ -6881,19 +6884,19 @@
         <v>12</v>
       </c>
       <c r="Q96" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="R96" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="S96" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="T96" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="U96" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
     </row>
     <row r="97" spans="1:21">
@@ -6904,22 +6907,22 @@
         <v>115</v>
       </c>
       <c r="C97">
-        <v>48.53</v>
+        <v>49.76</v>
       </c>
       <c r="D97">
-        <v>49.27</v>
+        <v>48.07</v>
       </c>
       <c r="E97">
-        <v>47.74</v>
+        <v>48.09</v>
       </c>
       <c r="F97">
-        <v>40.49</v>
+        <v>39.66</v>
       </c>
       <c r="G97">
-        <v>43.25</v>
+        <v>44.66</v>
       </c>
       <c r="H97">
-        <v>36.14</v>
+        <v>40.95</v>
       </c>
       <c r="I97">
         <v>196</v>
@@ -6931,34 +6934,34 @@
         <v>195</v>
       </c>
       <c r="L97">
-        <v>40.17</v>
+        <v>41.89</v>
       </c>
       <c r="M97">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N97">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
       <c r="O97">
         <v>10</v>
       </c>
       <c r="P97">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="Q97" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="R97" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="S97" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="T97" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="U97" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
     </row>
     <row r="98" spans="1:21">
@@ -6969,61 +6972,55 @@
         <v>116</v>
       </c>
       <c r="C98">
-        <v>49.46</v>
+        <v>29.63</v>
       </c>
       <c r="D98">
-        <v>48.53</v>
+        <v>33.32</v>
       </c>
       <c r="E98">
-        <v>48.53</v>
+        <v>46.78</v>
       </c>
       <c r="F98">
-        <v>37.58</v>
+        <v>13.41</v>
       </c>
       <c r="G98">
-        <v>43.96</v>
+        <v>19.53</v>
       </c>
       <c r="H98">
-        <v>38.33</v>
+        <v>42.66</v>
       </c>
       <c r="I98">
-        <v>196</v>
+        <v>2</v>
       </c>
       <c r="J98">
-        <v>213</v>
+        <v>8</v>
       </c>
       <c r="K98">
-        <v>195</v>
+        <v>594</v>
       </c>
       <c r="L98">
-        <v>40.17</v>
+        <v>42.37</v>
       </c>
       <c r="M98">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N98">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="O98">
         <v>10</v>
       </c>
       <c r="P98">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="Q98" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="R98" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="S98" t="s">
-        <v>142</v>
-      </c>
-      <c r="T98" t="s">
-        <v>148</v>
-      </c>
-      <c r="U98" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
     </row>
     <row r="99" spans="1:21">
@@ -7034,22 +7031,22 @@
         <v>117</v>
       </c>
       <c r="C99">
-        <v>43.6</v>
+        <v>28.82</v>
       </c>
       <c r="D99">
-        <v>34.29</v>
+        <v>32.14</v>
       </c>
       <c r="E99">
-        <v>47.31</v>
+        <v>45.98</v>
       </c>
       <c r="F99">
-        <v>21.4</v>
+        <v>52.51</v>
       </c>
       <c r="G99">
-        <v>21.88</v>
+        <v>20.95</v>
       </c>
       <c r="H99">
-        <v>40.43</v>
+        <v>43.27</v>
       </c>
       <c r="I99">
         <v>2</v>
@@ -7061,34 +7058,28 @@
         <v>594</v>
       </c>
       <c r="L99">
-        <v>40.19</v>
+        <v>43.09</v>
       </c>
       <c r="M99">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="N99">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="O99">
         <v>10</v>
       </c>
       <c r="P99">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="Q99" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="R99" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="S99" t="s">
-        <v>141</v>
-      </c>
-      <c r="T99" t="s">
-        <v>148</v>
-      </c>
-      <c r="U99" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
     </row>
     <row r="100" spans="1:21">
@@ -7099,37 +7090,37 @@
         <v>118</v>
       </c>
       <c r="C100">
-        <v>50.67</v>
+        <v>40.53</v>
       </c>
       <c r="D100">
-        <v>50.02</v>
+        <v>31.93</v>
       </c>
       <c r="E100">
-        <v>49.34</v>
+        <v>46.89</v>
       </c>
       <c r="F100">
-        <v>41.75</v>
+        <v>10.28</v>
       </c>
       <c r="G100">
-        <v>40.77</v>
+        <v>19.64</v>
       </c>
       <c r="H100">
-        <v>37.96</v>
+        <v>43.87</v>
       </c>
       <c r="I100">
-        <v>196</v>
+        <v>2</v>
       </c>
       <c r="J100">
-        <v>213</v>
+        <v>8</v>
       </c>
       <c r="K100">
-        <v>195</v>
+        <v>594</v>
       </c>
       <c r="L100">
-        <v>40.21</v>
+        <v>43.57</v>
       </c>
       <c r="M100">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N100">
         <v>0.06</v>
@@ -7138,22 +7129,16 @@
         <v>10</v>
       </c>
       <c r="P100">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="Q100" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="R100" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="S100" t="s">
-        <v>147</v>
-      </c>
-      <c r="T100" t="s">
-        <v>148</v>
-      </c>
-      <c r="U100" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
     </row>
     <row r="101" spans="1:21">
@@ -7164,61 +7149,61 @@
         <v>119</v>
       </c>
       <c r="C101">
-        <v>51.75</v>
+        <v>42.64</v>
       </c>
       <c r="D101">
-        <v>50.71</v>
+        <v>36.68</v>
       </c>
       <c r="E101">
-        <v>50.9</v>
+        <v>48.44</v>
       </c>
       <c r="F101">
-        <v>38.02</v>
+        <v>21</v>
       </c>
       <c r="G101">
-        <v>42.69</v>
+        <v>20.06</v>
       </c>
       <c r="H101">
-        <v>39.57</v>
+        <v>44.56</v>
       </c>
       <c r="I101">
-        <v>196</v>
+        <v>2</v>
       </c>
       <c r="J101">
-        <v>213</v>
+        <v>8</v>
       </c>
       <c r="K101">
-        <v>195</v>
+        <v>594</v>
       </c>
       <c r="L101">
-        <v>40.22</v>
+        <v>44.27</v>
       </c>
       <c r="M101">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="N101">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="O101">
         <v>10</v>
       </c>
       <c r="P101">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Q101" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="R101" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="S101" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="T101" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="U101" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
     </row>
     <row r="102" spans="1:21">
@@ -7229,61 +7214,61 @@
         <v>120</v>
       </c>
       <c r="C102">
-        <v>49.99</v>
+        <v>46.03</v>
       </c>
       <c r="D102">
-        <v>48.28</v>
+        <v>41.79</v>
       </c>
       <c r="E102">
-        <v>48.92</v>
+        <v>50.61</v>
       </c>
       <c r="F102">
-        <v>37.44</v>
+        <v>19.1</v>
       </c>
       <c r="G102">
-        <v>44.22</v>
+        <v>21.33</v>
       </c>
       <c r="H102">
-        <v>38.33</v>
+        <v>45.17</v>
       </c>
       <c r="I102">
-        <v>196</v>
+        <v>2</v>
       </c>
       <c r="J102">
-        <v>213</v>
+        <v>8</v>
       </c>
       <c r="K102">
-        <v>195</v>
+        <v>594</v>
       </c>
       <c r="L102">
-        <v>40.23</v>
+        <v>44.87</v>
       </c>
       <c r="M102">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="N102">
-        <v>0.05</v>
+        <v>0.14</v>
       </c>
       <c r="O102">
         <v>10</v>
       </c>
       <c r="P102">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Q102" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="R102" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="S102" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="T102" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="U102" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
     </row>
     <row r="103" spans="1:21">
@@ -7294,61 +7279,61 @@
         <v>121</v>
       </c>
       <c r="C103">
-        <v>49.5</v>
+        <v>46.51</v>
       </c>
       <c r="D103">
-        <v>50.43</v>
+        <v>37.54</v>
       </c>
       <c r="E103">
-        <v>48.78</v>
+        <v>48.54</v>
       </c>
       <c r="F103">
-        <v>40.16</v>
+        <v>24.79</v>
       </c>
       <c r="G103">
-        <v>43.3</v>
+        <v>20.38</v>
       </c>
       <c r="H103">
-        <v>36.64</v>
+        <v>45.81</v>
       </c>
       <c r="I103">
-        <v>196</v>
+        <v>2</v>
       </c>
       <c r="J103">
-        <v>213</v>
+        <v>8</v>
       </c>
       <c r="K103">
-        <v>195</v>
+        <v>594</v>
       </c>
       <c r="L103">
-        <v>40.23</v>
+        <v>45.51</v>
       </c>
       <c r="M103">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="N103">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="O103">
         <v>10</v>
       </c>
       <c r="P103">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="Q103" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="R103" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="S103" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="T103" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="U103" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
     </row>
     <row r="104" spans="1:21">
@@ -7359,61 +7344,61 @@
         <v>122</v>
       </c>
       <c r="C104">
-        <v>49.08</v>
+        <v>48.31</v>
       </c>
       <c r="D104">
-        <v>49.24</v>
+        <v>37.97</v>
       </c>
       <c r="E104">
-        <v>46.67</v>
+        <v>48.62</v>
       </c>
       <c r="F104">
-        <v>44.68</v>
+        <v>17.88</v>
       </c>
       <c r="G104">
-        <v>37.75</v>
+        <v>20.74</v>
       </c>
       <c r="H104">
-        <v>38.12</v>
+        <v>46.61</v>
       </c>
       <c r="I104">
-        <v>196</v>
+        <v>2</v>
       </c>
       <c r="J104">
-        <v>213</v>
+        <v>8</v>
       </c>
       <c r="K104">
-        <v>195</v>
+        <v>594</v>
       </c>
       <c r="L104">
-        <v>40.24</v>
+        <v>46.29</v>
       </c>
       <c r="M104">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="N104">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="O104">
         <v>10</v>
       </c>
       <c r="P104">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Q104" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="R104" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="S104" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="T104" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="U104" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
     </row>
     <row r="105" spans="1:21">
@@ -7424,61 +7409,61 @@
         <v>123</v>
       </c>
       <c r="C105">
-        <v>49.75</v>
+        <v>46.75</v>
       </c>
       <c r="D105">
-        <v>48.67</v>
+        <v>38.61</v>
       </c>
       <c r="E105">
-        <v>48.62</v>
+        <v>48.85</v>
       </c>
       <c r="F105">
-        <v>37.55</v>
+        <v>13.58</v>
       </c>
       <c r="G105">
-        <v>43.96</v>
+        <v>21.17</v>
       </c>
       <c r="H105">
-        <v>38.61</v>
+        <v>46.74</v>
       </c>
       <c r="I105">
-        <v>196</v>
+        <v>2</v>
       </c>
       <c r="J105">
-        <v>213</v>
+        <v>8</v>
       </c>
       <c r="K105">
-        <v>195</v>
+        <v>594</v>
       </c>
       <c r="L105">
-        <v>40.25</v>
+        <v>46.43</v>
       </c>
       <c r="M105">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="N105">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="O105">
         <v>10</v>
       </c>
       <c r="P105">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="Q105" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="R105" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="S105" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="T105" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="U105" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
     </row>
     <row r="106" spans="1:21">
@@ -7489,1036 +7474,55 @@
         <v>124</v>
       </c>
       <c r="C106">
-        <v>49.7</v>
+        <v>39.2</v>
       </c>
       <c r="D106">
-        <v>48.68</v>
+        <v>34.57</v>
       </c>
       <c r="E106">
-        <v>48.66</v>
+        <v>46.36</v>
       </c>
       <c r="F106">
-        <v>37.65</v>
+        <v>37.12</v>
       </c>
       <c r="G106">
-        <v>43.96</v>
+        <v>21.4</v>
       </c>
       <c r="H106">
-        <v>38.55</v>
+        <v>48.86</v>
       </c>
       <c r="I106">
-        <v>196</v>
+        <v>2</v>
       </c>
       <c r="J106">
-        <v>213</v>
+        <v>8</v>
       </c>
       <c r="K106">
-        <v>195</v>
+        <v>594</v>
       </c>
       <c r="L106">
-        <v>40.26</v>
+        <v>48.56</v>
       </c>
       <c r="M106">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N106">
-        <v>0.16</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="O106">
         <v>10</v>
       </c>
       <c r="P106">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Q106" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="R106" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="S106" t="s">
-        <v>142</v>
-      </c>
-      <c r="T106" t="s">
-        <v>148</v>
-      </c>
-      <c r="U106" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="107" spans="1:21">
-      <c r="A107" s="1">
-        <v>105</v>
-      </c>
-      <c r="B107" t="s">
-        <v>125</v>
-      </c>
-      <c r="C107">
-        <v>48.76</v>
-      </c>
-      <c r="D107">
-        <v>46.25</v>
-      </c>
-      <c r="E107">
-        <v>46.85</v>
-      </c>
-      <c r="F107">
-        <v>37.44</v>
-      </c>
-      <c r="G107">
-        <v>44.42</v>
-      </c>
-      <c r="H107">
-        <v>38.18</v>
-      </c>
-      <c r="I107">
-        <v>196</v>
-      </c>
-      <c r="J107">
-        <v>213</v>
-      </c>
-      <c r="K107">
-        <v>195</v>
-      </c>
-      <c r="L107">
-        <v>40.26</v>
-      </c>
-      <c r="M107">
-        <v>30</v>
-      </c>
-      <c r="N107">
-        <v>0.13</v>
-      </c>
-      <c r="O107">
-        <v>10</v>
-      </c>
-      <c r="P107">
-        <v>5</v>
-      </c>
-      <c r="Q107" t="s">
-        <v>145</v>
-      </c>
-      <c r="R107" t="s">
-        <v>141</v>
-      </c>
-      <c r="S107" t="s">
-        <v>140</v>
-      </c>
-      <c r="T107" t="s">
-        <v>148</v>
-      </c>
-      <c r="U107" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="108" spans="1:21">
-      <c r="A108" s="1">
-        <v>106</v>
-      </c>
-      <c r="B108" t="s">
-        <v>126</v>
-      </c>
-      <c r="C108">
-        <v>49.4</v>
-      </c>
-      <c r="D108">
-        <v>49.35</v>
-      </c>
-      <c r="E108">
-        <v>49.27</v>
-      </c>
-      <c r="F108">
-        <v>38.4</v>
-      </c>
-      <c r="G108">
-        <v>42.6</v>
-      </c>
-      <c r="H108">
-        <v>39.47</v>
-      </c>
-      <c r="I108">
-        <v>196</v>
-      </c>
-      <c r="J108">
-        <v>213</v>
-      </c>
-      <c r="K108">
-        <v>195</v>
-      </c>
-      <c r="L108">
-        <v>40.27</v>
-      </c>
-      <c r="M108">
-        <v>25</v>
-      </c>
-      <c r="N108">
-        <v>0.06</v>
-      </c>
-      <c r="O108">
-        <v>10</v>
-      </c>
-      <c r="P108">
-        <v>9</v>
-      </c>
-      <c r="Q108" t="s">
-        <v>140</v>
-      </c>
-      <c r="R108" t="s">
-        <v>142</v>
-      </c>
-      <c r="S108" t="s">
-        <v>143</v>
-      </c>
-      <c r="T108" t="s">
-        <v>148</v>
-      </c>
-      <c r="U108" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="109" spans="1:21">
-      <c r="A109" s="1">
-        <v>107</v>
-      </c>
-      <c r="B109" t="s">
-        <v>127</v>
-      </c>
-      <c r="C109">
-        <v>49.9</v>
-      </c>
-      <c r="D109">
-        <v>48.4</v>
-      </c>
-      <c r="E109">
-        <v>48.94</v>
-      </c>
-      <c r="F109">
-        <v>37.45</v>
-      </c>
-      <c r="G109">
-        <v>43.98</v>
-      </c>
-      <c r="H109">
-        <v>38.73</v>
-      </c>
-      <c r="I109">
-        <v>196</v>
-      </c>
-      <c r="J109">
-        <v>213</v>
-      </c>
-      <c r="K109">
-        <v>195</v>
-      </c>
-      <c r="L109">
-        <v>40.27</v>
-      </c>
-      <c r="M109">
-        <v>30</v>
-      </c>
-      <c r="N109">
-        <v>0.12</v>
-      </c>
-      <c r="O109">
-        <v>10</v>
-      </c>
-      <c r="P109">
-        <v>6</v>
-      </c>
-      <c r="Q109" t="s">
-        <v>140</v>
-      </c>
-      <c r="R109" t="s">
-        <v>142</v>
-      </c>
-      <c r="S109" t="s">
-        <v>143</v>
-      </c>
-      <c r="T109" t="s">
-        <v>148</v>
-      </c>
-      <c r="U109" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="110" spans="1:21">
-      <c r="A110" s="1">
-        <v>108</v>
-      </c>
-      <c r="B110" t="s">
-        <v>128</v>
-      </c>
-      <c r="C110">
-        <v>50.02</v>
-      </c>
-      <c r="D110">
-        <v>48.26</v>
-      </c>
-      <c r="E110">
-        <v>48.88</v>
-      </c>
-      <c r="F110">
-        <v>37.52</v>
-      </c>
-      <c r="G110">
-        <v>44.26</v>
-      </c>
-      <c r="H110">
-        <v>38.37</v>
-      </c>
-      <c r="I110">
-        <v>196</v>
-      </c>
-      <c r="J110">
-        <v>213</v>
-      </c>
-      <c r="K110">
-        <v>195</v>
-      </c>
-      <c r="L110">
-        <v>40.29</v>
-      </c>
-      <c r="M110">
-        <v>10</v>
-      </c>
-      <c r="N110">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="O110">
-        <v>10</v>
-      </c>
-      <c r="P110">
-        <v>15</v>
-      </c>
-      <c r="Q110" t="s">
-        <v>141</v>
-      </c>
-      <c r="R110" t="s">
-        <v>140</v>
-      </c>
-      <c r="S110" t="s">
-        <v>142</v>
-      </c>
-      <c r="T110" t="s">
-        <v>148</v>
-      </c>
-      <c r="U110" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="111" spans="1:21">
-      <c r="A111" s="1">
-        <v>109</v>
-      </c>
-      <c r="B111" t="s">
-        <v>129</v>
-      </c>
-      <c r="C111">
-        <v>49.4</v>
-      </c>
-      <c r="D111">
-        <v>49.01</v>
-      </c>
-      <c r="E111">
-        <v>47.84</v>
-      </c>
-      <c r="F111">
-        <v>39.8</v>
-      </c>
-      <c r="G111">
-        <v>44.04</v>
-      </c>
-      <c r="H111">
-        <v>38.27</v>
-      </c>
-      <c r="I111">
-        <v>196</v>
-      </c>
-      <c r="J111">
-        <v>213</v>
-      </c>
-      <c r="K111">
-        <v>195</v>
-      </c>
-      <c r="L111">
-        <v>40.87</v>
-      </c>
-      <c r="M111">
-        <v>16</v>
-      </c>
-      <c r="N111">
-        <v>0.15</v>
-      </c>
-      <c r="O111">
-        <v>10</v>
-      </c>
-      <c r="P111">
-        <v>13</v>
-      </c>
-      <c r="Q111" t="s">
-        <v>140</v>
-      </c>
-      <c r="R111" t="s">
-        <v>142</v>
-      </c>
-      <c r="S111" t="s">
-        <v>143</v>
-      </c>
-      <c r="T111" t="s">
-        <v>148</v>
-      </c>
-      <c r="U111" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="112" spans="1:21">
-      <c r="A112" s="1">
-        <v>110</v>
-      </c>
-      <c r="B112" t="s">
-        <v>130</v>
-      </c>
-      <c r="C112">
-        <v>49.49</v>
-      </c>
-      <c r="D112">
-        <v>48.89</v>
-      </c>
-      <c r="E112">
-        <v>48.02</v>
-      </c>
-      <c r="F112">
-        <v>38.66</v>
-      </c>
-      <c r="G112">
-        <v>44.02</v>
-      </c>
-      <c r="H112">
-        <v>39.51</v>
-      </c>
-      <c r="I112">
-        <v>196</v>
-      </c>
-      <c r="J112">
-        <v>213</v>
-      </c>
-      <c r="K112">
-        <v>195</v>
-      </c>
-      <c r="L112">
-        <v>40.9</v>
-      </c>
-      <c r="M112">
-        <v>16</v>
-      </c>
-      <c r="N112">
-        <v>0.11</v>
-      </c>
-      <c r="O112">
-        <v>10</v>
-      </c>
-      <c r="P112">
-        <v>8</v>
-      </c>
-      <c r="Q112" t="s">
-        <v>140</v>
-      </c>
-      <c r="R112" t="s">
-        <v>142</v>
-      </c>
-      <c r="S112" t="s">
-        <v>143</v>
-      </c>
-      <c r="T112" t="s">
-        <v>148</v>
-      </c>
-      <c r="U112" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="113" spans="1:21">
-      <c r="A113" s="1">
-        <v>111</v>
-      </c>
-      <c r="B113" t="s">
         <v>131</v>
-      </c>
-      <c r="C113">
-        <v>49.45</v>
-      </c>
-      <c r="D113">
-        <v>48.87</v>
-      </c>
-      <c r="E113">
-        <v>47.9</v>
-      </c>
-      <c r="F113">
-        <v>38.98</v>
-      </c>
-      <c r="G113">
-        <v>44.05</v>
-      </c>
-      <c r="H113">
-        <v>39.45</v>
-      </c>
-      <c r="I113">
-        <v>196</v>
-      </c>
-      <c r="J113">
-        <v>213</v>
-      </c>
-      <c r="K113">
-        <v>195</v>
-      </c>
-      <c r="L113">
-        <v>40.99</v>
-      </c>
-      <c r="M113">
-        <v>18</v>
-      </c>
-      <c r="N113">
-        <v>0.12</v>
-      </c>
-      <c r="O113">
-        <v>10</v>
-      </c>
-      <c r="P113">
-        <v>10</v>
-      </c>
-      <c r="Q113" t="s">
-        <v>140</v>
-      </c>
-      <c r="R113" t="s">
-        <v>142</v>
-      </c>
-      <c r="S113" t="s">
-        <v>143</v>
-      </c>
-      <c r="T113" t="s">
-        <v>148</v>
-      </c>
-      <c r="U113" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="114" spans="1:21">
-      <c r="A114" s="1">
-        <v>112</v>
-      </c>
-      <c r="B114" t="s">
-        <v>132</v>
-      </c>
-      <c r="C114">
-        <v>50.01</v>
-      </c>
-      <c r="D114">
-        <v>48.15</v>
-      </c>
-      <c r="E114">
-        <v>48.41</v>
-      </c>
-      <c r="F114">
-        <v>39.34</v>
-      </c>
-      <c r="G114">
-        <v>44.57</v>
-      </c>
-      <c r="H114">
-        <v>40.86</v>
-      </c>
-      <c r="I114">
-        <v>196</v>
-      </c>
-      <c r="J114">
-        <v>213</v>
-      </c>
-      <c r="K114">
-        <v>195</v>
-      </c>
-      <c r="L114">
-        <v>41.73</v>
-      </c>
-      <c r="M114">
-        <v>12</v>
-      </c>
-      <c r="N114">
-        <v>0.09</v>
-      </c>
-      <c r="O114">
-        <v>10</v>
-      </c>
-      <c r="P114">
-        <v>5</v>
-      </c>
-      <c r="Q114" t="s">
-        <v>143</v>
-      </c>
-      <c r="R114" t="s">
-        <v>146</v>
-      </c>
-      <c r="S114" t="s">
-        <v>147</v>
-      </c>
-      <c r="T114" t="s">
-        <v>148</v>
-      </c>
-      <c r="U114" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="115" spans="1:21">
-      <c r="A115" s="1">
-        <v>113</v>
-      </c>
-      <c r="B115" t="s">
-        <v>133</v>
-      </c>
-      <c r="C115">
-        <v>52.12</v>
-      </c>
-      <c r="D115">
-        <v>35.8</v>
-      </c>
-      <c r="E115">
-        <v>20.91</v>
-      </c>
-      <c r="F115">
-        <v>81.63</v>
-      </c>
-      <c r="G115">
-        <v>52.78</v>
-      </c>
-      <c r="H115">
-        <v>43.14</v>
-      </c>
-      <c r="I115">
-        <v>2</v>
-      </c>
-      <c r="J115">
-        <v>8</v>
-      </c>
-      <c r="K115">
-        <v>594</v>
-      </c>
-      <c r="L115">
-        <v>43.46</v>
-      </c>
-      <c r="M115">
-        <v>30</v>
-      </c>
-      <c r="N115">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="O115">
-        <v>10</v>
-      </c>
-      <c r="P115">
-        <v>12</v>
-      </c>
-      <c r="Q115" t="s">
-        <v>140</v>
-      </c>
-      <c r="R115" t="s">
-        <v>142</v>
-      </c>
-      <c r="S115" t="s">
-        <v>143</v>
-      </c>
-      <c r="T115" t="s">
-        <v>148</v>
-      </c>
-      <c r="U115" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="116" spans="1:21">
-      <c r="A116" s="1">
-        <v>114</v>
-      </c>
-      <c r="B116" t="s">
-        <v>134</v>
-      </c>
-      <c r="C116">
-        <v>53.76</v>
-      </c>
-      <c r="D116">
-        <v>32.17</v>
-      </c>
-      <c r="E116">
-        <v>29.41</v>
-      </c>
-      <c r="F116">
-        <v>21.05</v>
-      </c>
-      <c r="G116">
-        <v>20.76</v>
-      </c>
-      <c r="H116">
-        <v>43.75</v>
-      </c>
-      <c r="I116">
-        <v>2</v>
-      </c>
-      <c r="J116">
-        <v>8</v>
-      </c>
-      <c r="K116">
-        <v>594</v>
-      </c>
-      <c r="L116">
-        <v>43.47</v>
-      </c>
-      <c r="M116">
-        <v>18</v>
-      </c>
-      <c r="N116">
-        <v>0.12</v>
-      </c>
-      <c r="O116">
-        <v>10</v>
-      </c>
-      <c r="P116">
-        <v>12</v>
-      </c>
-      <c r="Q116" t="s">
-        <v>144</v>
-      </c>
-      <c r="R116" t="s">
-        <v>145</v>
-      </c>
-      <c r="S116" t="s">
-        <v>141</v>
-      </c>
-      <c r="T116" t="s">
-        <v>148</v>
-      </c>
-      <c r="U116" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="117" spans="1:21">
-      <c r="A117" s="1">
-        <v>115</v>
-      </c>
-      <c r="B117" t="s">
-        <v>135</v>
-      </c>
-      <c r="C117">
-        <v>54.88</v>
-      </c>
-      <c r="D117">
-        <v>31.64</v>
-      </c>
-      <c r="E117">
-        <v>34.17</v>
-      </c>
-      <c r="F117">
-        <v>40.93</v>
-      </c>
-      <c r="G117">
-        <v>22.44</v>
-      </c>
-      <c r="H117">
-        <v>44.76</v>
-      </c>
-      <c r="I117">
-        <v>2</v>
-      </c>
-      <c r="J117">
-        <v>8</v>
-      </c>
-      <c r="K117">
-        <v>594</v>
-      </c>
-      <c r="L117">
-        <v>44.52</v>
-      </c>
-      <c r="M117">
-        <v>22</v>
-      </c>
-      <c r="N117">
-        <v>0.09</v>
-      </c>
-      <c r="O117">
-        <v>10</v>
-      </c>
-      <c r="P117">
-        <v>10</v>
-      </c>
-      <c r="Q117" t="s">
-        <v>141</v>
-      </c>
-      <c r="R117" t="s">
-        <v>140</v>
-      </c>
-      <c r="S117" t="s">
-        <v>142</v>
-      </c>
-      <c r="T117" t="s">
-        <v>148</v>
-      </c>
-      <c r="U117" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="118" spans="1:21">
-      <c r="A118" s="1">
-        <v>116</v>
-      </c>
-      <c r="B118" t="s">
-        <v>136</v>
-      </c>
-      <c r="C118">
-        <v>46.65</v>
-      </c>
-      <c r="D118">
-        <v>42.1</v>
-      </c>
-      <c r="E118">
-        <v>50.68</v>
-      </c>
-      <c r="F118">
-        <v>18.54</v>
-      </c>
-      <c r="G118">
-        <v>21.3</v>
-      </c>
-      <c r="H118">
-        <v>45.2</v>
-      </c>
-      <c r="I118">
-        <v>2</v>
-      </c>
-      <c r="J118">
-        <v>8</v>
-      </c>
-      <c r="K118">
-        <v>594</v>
-      </c>
-      <c r="L118">
-        <v>44.9</v>
-      </c>
-      <c r="M118">
-        <v>14</v>
-      </c>
-      <c r="N118">
-        <v>0.14</v>
-      </c>
-      <c r="O118">
-        <v>10</v>
-      </c>
-      <c r="P118">
-        <v>9</v>
-      </c>
-      <c r="Q118" t="s">
-        <v>140</v>
-      </c>
-      <c r="R118" t="s">
-        <v>142</v>
-      </c>
-      <c r="S118" t="s">
-        <v>143</v>
-      </c>
-      <c r="T118" t="s">
-        <v>148</v>
-      </c>
-      <c r="U118" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="119" spans="1:21">
-      <c r="A119" s="1">
-        <v>117</v>
-      </c>
-      <c r="B119" t="s">
-        <v>137</v>
-      </c>
-      <c r="C119">
-        <v>46.22</v>
-      </c>
-      <c r="D119">
-        <v>37.55</v>
-      </c>
-      <c r="E119">
-        <v>48.54</v>
-      </c>
-      <c r="F119">
-        <v>24.51</v>
-      </c>
-      <c r="G119">
-        <v>20.38</v>
-      </c>
-      <c r="H119">
-        <v>45.8</v>
-      </c>
-      <c r="I119">
-        <v>2</v>
-      </c>
-      <c r="J119">
-        <v>8</v>
-      </c>
-      <c r="K119">
-        <v>594</v>
-      </c>
-      <c r="L119">
-        <v>45.51</v>
-      </c>
-      <c r="M119">
-        <v>16</v>
-      </c>
-      <c r="N119">
-        <v>0.11</v>
-      </c>
-      <c r="O119">
-        <v>10</v>
-      </c>
-      <c r="P119">
-        <v>8</v>
-      </c>
-      <c r="Q119" t="s">
-        <v>140</v>
-      </c>
-      <c r="R119" t="s">
-        <v>142</v>
-      </c>
-      <c r="S119" t="s">
-        <v>143</v>
-      </c>
-      <c r="T119" t="s">
-        <v>148</v>
-      </c>
-      <c r="U119" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="120" spans="1:21">
-      <c r="A120" s="1">
-        <v>118</v>
-      </c>
-      <c r="B120" t="s">
-        <v>138</v>
-      </c>
-      <c r="C120">
-        <v>48.28</v>
-      </c>
-      <c r="D120">
-        <v>38</v>
-      </c>
-      <c r="E120">
-        <v>48.62</v>
-      </c>
-      <c r="F120">
-        <v>18.16</v>
-      </c>
-      <c r="G120">
-        <v>20.75</v>
-      </c>
-      <c r="H120">
-        <v>46.61</v>
-      </c>
-      <c r="I120">
-        <v>2</v>
-      </c>
-      <c r="J120">
-        <v>8</v>
-      </c>
-      <c r="K120">
-        <v>594</v>
-      </c>
-      <c r="L120">
-        <v>46.29</v>
-      </c>
-      <c r="M120">
-        <v>18</v>
-      </c>
-      <c r="N120">
-        <v>0.12</v>
-      </c>
-      <c r="O120">
-        <v>10</v>
-      </c>
-      <c r="P120">
-        <v>10</v>
-      </c>
-      <c r="Q120" t="s">
-        <v>140</v>
-      </c>
-      <c r="R120" t="s">
-        <v>142</v>
-      </c>
-      <c r="S120" t="s">
-        <v>143</v>
-      </c>
-      <c r="T120" t="s">
-        <v>148</v>
-      </c>
-      <c r="U120" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="121" spans="1:21">
-      <c r="A121" s="1">
-        <v>119</v>
-      </c>
-      <c r="B121" t="s">
-        <v>139</v>
-      </c>
-      <c r="C121">
-        <v>46.89</v>
-      </c>
-      <c r="D121">
-        <v>38.66</v>
-      </c>
-      <c r="E121">
-        <v>48.85</v>
-      </c>
-      <c r="F121">
-        <v>13.78</v>
-      </c>
-      <c r="G121">
-        <v>21.18</v>
-      </c>
-      <c r="H121">
-        <v>46.74</v>
-      </c>
-      <c r="I121">
-        <v>2</v>
-      </c>
-      <c r="J121">
-        <v>8</v>
-      </c>
-      <c r="K121">
-        <v>594</v>
-      </c>
-      <c r="L121">
-        <v>46.43</v>
-      </c>
-      <c r="M121">
-        <v>16</v>
-      </c>
-      <c r="N121">
-        <v>0.15</v>
-      </c>
-      <c r="O121">
-        <v>10</v>
-      </c>
-      <c r="P121">
-        <v>13</v>
-      </c>
-      <c r="Q121" t="s">
-        <v>140</v>
-      </c>
-      <c r="R121" t="s">
-        <v>142</v>
-      </c>
-      <c r="S121" t="s">
-        <v>143</v>
-      </c>
-      <c r="T121" t="s">
-        <v>148</v>
-      </c>
-      <c r="U121" t="s">
-        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/dc_extracted/dc_federated_master_result.xlsx
+++ b/dc_extracted/dc_federated_master_result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="133">
   <si>
     <t>id</t>
   </si>
@@ -82,331 +82,316 @@
     <t>06_08_2021_154356_combined</t>
   </si>
   <si>
+    <t>06_08_2021_154036_combined</t>
+  </si>
+  <si>
     <t>06_08_2021_154130_combined</t>
   </si>
   <si>
-    <t>06_08_2021_154036_combined</t>
+    <t>06_08_2021_153640_combined</t>
+  </si>
+  <si>
+    <t>01_08_2021_025908_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_153345_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_144238_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_035945_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_121342_combined</t>
+  </si>
+  <si>
+    <t>01_08_2021_022514_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_115912_combined</t>
   </si>
   <si>
     <t>06_08_2021_152950_combined</t>
   </si>
   <si>
-    <t>06_08_2021_153345_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_121342_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_035945_combined</t>
+    <t>01_08_2021_043421_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_144615_combined</t>
+  </si>
+  <si>
+    <t>01_08_2021_041034_combined</t>
+  </si>
+  <si>
+    <t>01_08_2021_032757_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_045011_combined</t>
+  </si>
+  <si>
+    <t>01_08_2021_200630_combined</t>
+  </si>
+  <si>
+    <t>01_08_2021_042833_combined</t>
+  </si>
+  <si>
+    <t>01_08_2021_030035_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_031902_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_042117_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_153232_combined</t>
+  </si>
+  <si>
+    <t>01_08_2021_032149_combined</t>
+  </si>
+  <si>
+    <t>01_08_2021_034922_combined</t>
+  </si>
+  <si>
+    <t>01_08_2021_025705_combined</t>
+  </si>
+  <si>
+    <t>01_08_2021_025033_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_050035_combined</t>
+  </si>
+  <si>
+    <t>01_08_2021_024159_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_144858_combined</t>
+  </si>
+  <si>
+    <t>01_08_2021_042211_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_033018_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_050236_combined</t>
+  </si>
+  <si>
+    <t>01_08_2021_041842_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_045240_combined</t>
+  </si>
+  <si>
+    <t>01_08_2021_025418_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_122930_combined</t>
+  </si>
+  <si>
+    <t>01_08_2021_184140_combined</t>
+  </si>
+  <si>
+    <t>01_08_2021_033632_combined</t>
   </si>
   <si>
     <t>06_08_2021_025755_combined</t>
   </si>
   <si>
-    <t>06_08_2021_031902_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_045011_combined</t>
+    <t>06_08_2021_050519_combined</t>
+  </si>
+  <si>
+    <t>01_08_2021_025752_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_032342_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_115334_combined</t>
+  </si>
+  <si>
+    <t>01_08_2021_040836_combined</t>
+  </si>
+  <si>
+    <t>01_08_2021_042327_combined</t>
   </si>
   <si>
     <t>01_08_2021_030914_combined</t>
   </si>
   <si>
-    <t>01_08_2021_025705_combined</t>
-  </si>
-  <si>
-    <t>01_08_2021_032757_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_033018_combined</t>
+    <t>01_08_2021_180525_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_040120_combined</t>
+  </si>
+  <si>
+    <t>01_08_2021_040452_combined</t>
+  </si>
+  <si>
+    <t>01_08_2021_031354_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_045409_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_012727_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_060114_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_053841_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_014939_combined</t>
   </si>
   <si>
     <t>06_08_2021_144804_combined</t>
   </si>
   <si>
-    <t>01_08_2021_042327_combined</t>
-  </si>
-  <si>
-    <t>01_08_2021_031354_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_045240_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_144615_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_115912_combined</t>
-  </si>
-  <si>
-    <t>01_08_2021_032149_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_050236_combined</t>
+    <t>06_08_2021_055952_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_005330_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_021104_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_025215_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_041416_combined</t>
+  </si>
+  <si>
+    <t>01_08_2021_042657_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_052036_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_013747_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_032524_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_045140_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_015053_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_033322_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_014427_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_042300_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_035614_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_054259_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_020510_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_045738_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_044041_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_021225_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_025512_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_005956_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_055534_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_034613_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_010401_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_143559_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_012903_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_022816_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_154657_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_005143_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_145047_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_032639_combined</t>
   </si>
   <si>
     <t>06_08_2021_124429_combined</t>
   </si>
   <si>
-    <t>06_08_2021_050035_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_153232_combined</t>
-  </si>
-  <si>
-    <t>01_08_2021_041034_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_122930_combined</t>
-  </si>
-  <si>
-    <t>01_08_2021_184140_combined</t>
-  </si>
-  <si>
-    <t>01_08_2021_033632_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_144858_combined</t>
-  </si>
-  <si>
-    <t>01_08_2021_042833_combined</t>
-  </si>
-  <si>
-    <t>01_08_2021_034922_combined</t>
-  </si>
-  <si>
-    <t>01_08_2021_200630_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_040120_combined</t>
+    <t>06_08_2021_142230_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_040600_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_152429_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_152712_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_153917_combined</t>
+  </si>
+  <si>
+    <t>06_08_2021_153433_combined</t>
   </si>
   <si>
     <t>06_08_2021_152819_combined</t>
   </si>
   <si>
-    <t>01_08_2021_042211_combined</t>
-  </si>
-  <si>
-    <t>01_08_2021_025908_combined</t>
-  </si>
-  <si>
     <t>06_08_2021_154526_combined</t>
   </si>
   <si>
-    <t>01_08_2021_040836_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_060114_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_050519_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_012727_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_144238_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_041416_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_021104_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_032342_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_152712_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_013747_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_153640_combined</t>
-  </si>
-  <si>
-    <t>01_08_2021_180525_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_014939_combined</t>
-  </si>
-  <si>
-    <t>01_08_2021_025033_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_053841_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_033322_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_045409_combined</t>
-  </si>
-  <si>
-    <t>01_08_2021_025418_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_025215_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_032524_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_025512_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_143559_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_045140_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_005330_combined</t>
-  </si>
-  <si>
-    <t>01_08_2021_025752_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_042300_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_014427_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_042117_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_145047_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_115334_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_045738_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_005143_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_020510_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_021225_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_005956_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_012903_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_034613_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_010401_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_015053_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_055534_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_142230_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_032639_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_022816_combined</t>
-  </si>
-  <si>
-    <t>01_08_2021_030035_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_054259_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_040600_combined</t>
-  </si>
-  <si>
-    <t>01_08_2021_040452_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_152429_combined</t>
-  </si>
-  <si>
-    <t>01_08_2021_042657_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_153917_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_052036_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_044041_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_055952_combined</t>
-  </si>
-  <si>
-    <t>01_08_2021_024159_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_035614_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_154657_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_153433_combined</t>
-  </si>
-  <si>
-    <t>01_08_2021_022514_combined</t>
-  </si>
-  <si>
-    <t>01_08_2021_043421_combined</t>
-  </si>
-  <si>
-    <t>01_08_2021_041842_combined</t>
-  </si>
-  <si>
     <t>06_08_2021_153522_combined</t>
   </si>
   <si>
-    <t>06_08_2021_153120_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_152606_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_153759_combined</t>
-  </si>
-  <si>
-    <t>06_08_2021_152253_combined</t>
-  </si>
-  <si>
-    <t>01_08_2021_043036_combined</t>
-  </si>
-  <si>
     <t>64</t>
   </si>
   <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
     <t>256</t>
   </si>
   <si>
-    <t>32</t>
+    <t>8</t>
   </si>
   <si>
     <t>16</t>
-  </si>
-  <si>
-    <t>128</t>
-  </si>
-  <si>
-    <t>8</t>
   </si>
   <si>
     <t>512</t>
@@ -785,7 +770,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U106"/>
+  <dimension ref="A1:U101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -861,22 +846,22 @@
         <v>20</v>
       </c>
       <c r="C2">
-        <v>23.9</v>
+        <v>11.19</v>
       </c>
       <c r="D2">
-        <v>17</v>
+        <v>15.9</v>
       </c>
       <c r="E2">
-        <v>18.25</v>
+        <v>17.86</v>
       </c>
       <c r="F2">
-        <v>17.8</v>
+        <v>24.71</v>
       </c>
       <c r="G2">
-        <v>48.49</v>
+        <v>49.94</v>
       </c>
       <c r="H2">
-        <v>18.13</v>
+        <v>20.03</v>
       </c>
       <c r="I2">
         <v>2</v>
@@ -888,7 +873,7 @@
         <v>594</v>
       </c>
       <c r="L2">
-        <v>18.85</v>
+        <v>20.73</v>
       </c>
       <c r="M2">
         <v>24</v>
@@ -903,19 +888,19 @@
         <v>12</v>
       </c>
       <c r="Q2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="R2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="S2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="T2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="U2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -926,22 +911,22 @@
         <v>21</v>
       </c>
       <c r="C3">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="D3">
-        <v>17.36</v>
+        <v>16.73</v>
       </c>
       <c r="E3">
-        <v>21.08</v>
+        <v>19.76</v>
       </c>
       <c r="F3">
-        <v>23.95</v>
+        <v>25.53</v>
       </c>
       <c r="G3">
-        <v>22.13</v>
+        <v>24.19</v>
       </c>
       <c r="H3">
-        <v>18.54</v>
+        <v>17.22</v>
       </c>
       <c r="I3">
         <v>196</v>
@@ -953,7 +938,7 @@
         <v>195</v>
       </c>
       <c r="L3">
-        <v>21.67</v>
+        <v>22.66</v>
       </c>
       <c r="M3">
         <v>24</v>
@@ -968,19 +953,19 @@
         <v>12</v>
       </c>
       <c r="Q3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="R3" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="S3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="T3" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="U3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -991,34 +976,34 @@
         <v>22</v>
       </c>
       <c r="C4">
-        <v>19.82</v>
+        <v>17.26</v>
       </c>
       <c r="D4">
-        <v>19.66</v>
+        <v>19.72</v>
       </c>
       <c r="E4">
-        <v>20.45</v>
+        <v>18.64</v>
       </c>
       <c r="F4">
-        <v>30.13</v>
+        <v>53.74</v>
       </c>
       <c r="G4">
-        <v>24.67</v>
+        <v>48.73</v>
       </c>
       <c r="H4">
-        <v>23.09</v>
+        <v>24.18</v>
       </c>
       <c r="I4">
-        <v>196</v>
+        <v>2</v>
       </c>
       <c r="J4">
-        <v>213</v>
+        <v>8</v>
       </c>
       <c r="K4">
-        <v>195</v>
+        <v>594</v>
       </c>
       <c r="L4">
-        <v>26.1</v>
+        <v>24.82</v>
       </c>
       <c r="M4">
         <v>14</v>
@@ -1033,19 +1018,19 @@
         <v>6</v>
       </c>
       <c r="Q4" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="R4" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="S4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="T4" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="U4" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -1056,34 +1041,34 @@
         <v>23</v>
       </c>
       <c r="C5">
-        <v>25.35</v>
+        <v>21.9</v>
       </c>
       <c r="D5">
-        <v>19.85</v>
+        <v>23.07</v>
       </c>
       <c r="E5">
-        <v>18.11</v>
+        <v>20.07</v>
       </c>
       <c r="F5">
-        <v>41.07</v>
+        <v>33.45</v>
       </c>
       <c r="G5">
-        <v>43.43</v>
+        <v>23.12</v>
       </c>
       <c r="H5">
-        <v>26.35</v>
+        <v>25.49</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>196</v>
       </c>
       <c r="J5">
-        <v>8</v>
+        <v>213</v>
       </c>
       <c r="K5">
-        <v>594</v>
+        <v>195</v>
       </c>
       <c r="L5">
-        <v>26.71</v>
+        <v>27.59</v>
       </c>
       <c r="M5">
         <v>14</v>
@@ -1098,19 +1083,19 @@
         <v>6</v>
       </c>
       <c r="Q5" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="R5" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="S5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="T5" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="U5" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -1121,22 +1106,22 @@
         <v>24</v>
       </c>
       <c r="C6">
-        <v>26.15</v>
+        <v>34.99</v>
       </c>
       <c r="D6">
-        <v>24.04</v>
+        <v>30.44</v>
       </c>
       <c r="E6">
-        <v>27.98</v>
+        <v>35.66</v>
       </c>
       <c r="F6">
-        <v>27.16</v>
+        <v>30.58</v>
       </c>
       <c r="G6">
-        <v>32.37</v>
+        <v>31.84</v>
       </c>
       <c r="H6">
-        <v>30.61</v>
+        <v>28.71</v>
       </c>
       <c r="I6">
         <v>196</v>
@@ -1148,34 +1133,34 @@
         <v>195</v>
       </c>
       <c r="L6">
-        <v>30.19</v>
+        <v>30.45</v>
       </c>
       <c r="M6">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="N6">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="O6">
         <v>10</v>
       </c>
       <c r="P6">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Q6" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="R6" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="S6" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="T6" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="U6" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -1186,22 +1171,22 @@
         <v>25</v>
       </c>
       <c r="C7">
-        <v>46.72</v>
+        <v>25.71</v>
       </c>
       <c r="D7">
-        <v>32.38</v>
+        <v>35.4</v>
       </c>
       <c r="E7">
-        <v>23.83</v>
+        <v>45.38</v>
       </c>
       <c r="F7">
-        <v>17.64</v>
+        <v>30.88</v>
       </c>
       <c r="G7">
-        <v>28.38</v>
+        <v>29.61</v>
       </c>
       <c r="H7">
-        <v>31.78</v>
+        <v>30.58</v>
       </c>
       <c r="I7">
         <v>2</v>
@@ -1213,34 +1198,28 @@
         <v>594</v>
       </c>
       <c r="L7">
-        <v>31.7</v>
+        <v>30.57</v>
       </c>
       <c r="M7">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="N7">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="O7">
         <v>10</v>
       </c>
       <c r="P7">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="Q7" t="s">
+        <v>122</v>
+      </c>
+      <c r="R7" t="s">
+        <v>123</v>
+      </c>
+      <c r="S7" t="s">
         <v>126</v>
-      </c>
-      <c r="R7" t="s">
-        <v>131</v>
-      </c>
-      <c r="S7" t="s">
-        <v>132</v>
-      </c>
-      <c r="T7" t="s">
-        <v>133</v>
-      </c>
-      <c r="U7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -1251,22 +1230,22 @@
         <v>26</v>
       </c>
       <c r="C8">
-        <v>39.85</v>
+        <v>33.9</v>
       </c>
       <c r="D8">
-        <v>34.15</v>
+        <v>26.67</v>
       </c>
       <c r="E8">
-        <v>47.6</v>
+        <v>23.89</v>
       </c>
       <c r="F8">
-        <v>34.49</v>
+        <v>22.02</v>
       </c>
       <c r="G8">
-        <v>27.27</v>
+        <v>29.12</v>
       </c>
       <c r="H8">
-        <v>32.97</v>
+        <v>32.34</v>
       </c>
       <c r="I8">
         <v>2</v>
@@ -1278,34 +1257,34 @@
         <v>594</v>
       </c>
       <c r="L8">
-        <v>32.91</v>
+        <v>32.27</v>
       </c>
       <c r="M8">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="N8">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="O8">
         <v>10</v>
       </c>
       <c r="P8">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Q8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="R8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="S8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="T8" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="U8" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -1316,61 +1295,61 @@
         <v>27</v>
       </c>
       <c r="C9">
-        <v>47.25</v>
+        <v>21.61</v>
       </c>
       <c r="D9">
-        <v>47.11</v>
+        <v>33.28</v>
       </c>
       <c r="E9">
-        <v>46.95</v>
+        <v>47.63</v>
       </c>
       <c r="F9">
-        <v>30.89</v>
+        <v>18.49</v>
       </c>
       <c r="G9">
-        <v>34.64</v>
+        <v>19.82</v>
       </c>
       <c r="H9">
-        <v>34.49</v>
+        <v>33.03</v>
       </c>
       <c r="I9">
-        <v>196</v>
+        <v>2</v>
       </c>
       <c r="J9">
-        <v>213</v>
+        <v>8</v>
       </c>
       <c r="K9">
-        <v>195</v>
+        <v>594</v>
       </c>
       <c r="L9">
-        <v>33.42</v>
+        <v>32.85</v>
       </c>
       <c r="M9">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="N9">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="O9">
         <v>10</v>
       </c>
       <c r="P9">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Q9" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="R9" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="S9" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="T9" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="U9" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -1381,22 +1360,22 @@
         <v>28</v>
       </c>
       <c r="C10">
-        <v>47.75</v>
+        <v>46.04</v>
       </c>
       <c r="D10">
-        <v>46.48</v>
+        <v>46.51</v>
       </c>
       <c r="E10">
-        <v>47.55</v>
+        <v>46.75</v>
       </c>
       <c r="F10">
-        <v>34.99</v>
+        <v>31.54</v>
       </c>
       <c r="G10">
-        <v>35.61</v>
+        <v>33.54</v>
       </c>
       <c r="H10">
-        <v>31.25</v>
+        <v>33.63</v>
       </c>
       <c r="I10">
         <v>196</v>
@@ -1408,34 +1387,34 @@
         <v>195</v>
       </c>
       <c r="L10">
-        <v>34.06</v>
+        <v>32.93</v>
       </c>
       <c r="M10">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="N10">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="O10">
         <v>10</v>
       </c>
       <c r="P10">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="Q10" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="R10" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="S10" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="T10" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="U10" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -1446,61 +1425,61 @@
         <v>29</v>
       </c>
       <c r="C11">
-        <v>47.01</v>
+        <v>26.74</v>
       </c>
       <c r="D11">
-        <v>47.39</v>
+        <v>36.52</v>
       </c>
       <c r="E11">
-        <v>44.67</v>
+        <v>45.65</v>
       </c>
       <c r="F11">
-        <v>34.07</v>
+        <v>12.32</v>
       </c>
       <c r="G11">
-        <v>34.21</v>
+        <v>24.4</v>
       </c>
       <c r="H11">
-        <v>34.59</v>
+        <v>33.95</v>
       </c>
       <c r="I11">
-        <v>196</v>
+        <v>2</v>
       </c>
       <c r="J11">
-        <v>213</v>
+        <v>8</v>
       </c>
       <c r="K11">
-        <v>195</v>
+        <v>594</v>
       </c>
       <c r="L11">
-        <v>34.29</v>
+        <v>33.79</v>
       </c>
       <c r="M11">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N11">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="O11">
         <v>10</v>
       </c>
       <c r="P11">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="Q11" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="R11" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="S11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="T11" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="U11" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -1511,61 +1490,55 @@
         <v>30</v>
       </c>
       <c r="C12">
-        <v>47.44</v>
+        <v>24.3</v>
       </c>
       <c r="D12">
-        <v>47.54</v>
+        <v>35.24</v>
       </c>
       <c r="E12">
-        <v>45.5</v>
+        <v>46.22</v>
       </c>
       <c r="F12">
-        <v>31.86</v>
+        <v>13.85</v>
       </c>
       <c r="G12">
-        <v>35.63</v>
+        <v>25.84</v>
       </c>
       <c r="H12">
-        <v>35.78</v>
+        <v>34.2</v>
       </c>
       <c r="I12">
-        <v>196</v>
+        <v>2</v>
       </c>
       <c r="J12">
-        <v>213</v>
+        <v>8</v>
       </c>
       <c r="K12">
-        <v>195</v>
+        <v>594</v>
       </c>
       <c r="L12">
-        <v>34.5</v>
+        <v>34.06</v>
       </c>
       <c r="M12">
+        <v>30</v>
+      </c>
+      <c r="N12">
+        <v>0.12</v>
+      </c>
+      <c r="O12">
+        <v>10</v>
+      </c>
+      <c r="P12">
         <v>15</v>
       </c>
-      <c r="N12">
-        <v>0.02</v>
-      </c>
-      <c r="O12">
-        <v>10</v>
-      </c>
-      <c r="P12">
-        <v>10</v>
-      </c>
       <c r="Q12" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="R12" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="S12" t="s">
-        <v>125</v>
-      </c>
-      <c r="T12" t="s">
-        <v>133</v>
-      </c>
-      <c r="U12" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -1576,22 +1549,22 @@
         <v>31</v>
       </c>
       <c r="C13">
-        <v>36.72</v>
+        <v>28.05</v>
       </c>
       <c r="D13">
-        <v>35.91</v>
+        <v>40.49</v>
       </c>
       <c r="E13">
-        <v>48.16</v>
+        <v>48.48</v>
       </c>
       <c r="F13">
-        <v>19.43</v>
+        <v>22.55</v>
       </c>
       <c r="G13">
-        <v>16.86</v>
+        <v>18.83</v>
       </c>
       <c r="H13">
-        <v>35.26</v>
+        <v>34.26</v>
       </c>
       <c r="I13">
         <v>2</v>
@@ -1603,28 +1576,34 @@
         <v>594</v>
       </c>
       <c r="L13">
-        <v>35.04</v>
+        <v>34.07</v>
       </c>
       <c r="M13">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N13">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="O13">
         <v>10</v>
       </c>
       <c r="P13">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Q13" t="s">
+        <v>123</v>
+      </c>
+      <c r="R13" t="s">
+        <v>126</v>
+      </c>
+      <c r="S13" t="s">
         <v>127</v>
       </c>
-      <c r="R13" t="s">
-        <v>125</v>
-      </c>
-      <c r="S13" t="s">
-        <v>129</v>
+      <c r="T13" t="s">
+        <v>128</v>
+      </c>
+      <c r="U13" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -1635,54 +1614,60 @@
         <v>32</v>
       </c>
       <c r="C14">
-        <v>38.4</v>
+        <v>26.52</v>
       </c>
       <c r="D14">
-        <v>36.91</v>
+        <v>23.26</v>
       </c>
       <c r="E14">
-        <v>46.63</v>
+        <v>27.03</v>
       </c>
       <c r="F14">
-        <v>36.52</v>
+        <v>40.29</v>
       </c>
       <c r="G14">
-        <v>26.66</v>
+        <v>29.35</v>
       </c>
       <c r="H14">
-        <v>35.26</v>
+        <v>32.07</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>196</v>
       </c>
       <c r="J14">
-        <v>8</v>
+        <v>213</v>
       </c>
       <c r="K14">
-        <v>594</v>
+        <v>195</v>
       </c>
       <c r="L14">
-        <v>35.16</v>
+        <v>34.1</v>
       </c>
       <c r="M14">
         <v>30</v>
       </c>
       <c r="N14">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="O14">
         <v>10</v>
       </c>
       <c r="P14">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="Q14" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="R14" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="S14" t="s">
+        <v>123</v>
+      </c>
+      <c r="T14" t="s">
+        <v>128</v>
+      </c>
+      <c r="U14" t="s">
         <v>131</v>
       </c>
     </row>
@@ -1694,22 +1679,22 @@
         <v>33</v>
       </c>
       <c r="C15">
-        <v>36.82</v>
+        <v>23.07</v>
       </c>
       <c r="D15">
-        <v>35.95</v>
+        <v>33.8</v>
       </c>
       <c r="E15">
-        <v>46.49</v>
+        <v>45.78</v>
       </c>
       <c r="F15">
-        <v>13.89</v>
+        <v>12.31</v>
       </c>
       <c r="G15">
-        <v>31.43</v>
+        <v>19.23</v>
       </c>
       <c r="H15">
-        <v>35.33</v>
+        <v>35.11</v>
       </c>
       <c r="I15">
         <v>2</v>
@@ -1721,25 +1706,25 @@
         <v>594</v>
       </c>
       <c r="L15">
-        <v>35.23</v>
+        <v>34.9</v>
       </c>
       <c r="M15">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="N15">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="O15">
         <v>10</v>
       </c>
       <c r="P15">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="Q15" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="R15" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="S15" t="s">
         <v>126</v>
@@ -1753,61 +1738,61 @@
         <v>34</v>
       </c>
       <c r="C16">
-        <v>47.02</v>
+        <v>21.01</v>
       </c>
       <c r="D16">
-        <v>46.78</v>
+        <v>37.72</v>
       </c>
       <c r="E16">
-        <v>43.76</v>
+        <v>46.27</v>
       </c>
       <c r="F16">
-        <v>34.74</v>
+        <v>17.35</v>
       </c>
       <c r="G16">
-        <v>37.39</v>
+        <v>24.05</v>
       </c>
       <c r="H16">
-        <v>34.88</v>
+        <v>35.09</v>
       </c>
       <c r="I16">
-        <v>196</v>
+        <v>2</v>
       </c>
       <c r="J16">
-        <v>213</v>
+        <v>8</v>
       </c>
       <c r="K16">
-        <v>195</v>
+        <v>594</v>
       </c>
       <c r="L16">
-        <v>35.74</v>
+        <v>34.93</v>
       </c>
       <c r="M16">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N16">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="O16">
         <v>10</v>
       </c>
       <c r="P16">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="Q16" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="R16" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="S16" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="T16" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="U16" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -1818,22 +1803,22 @@
         <v>35</v>
       </c>
       <c r="C17">
-        <v>45.74</v>
+        <v>22.89</v>
       </c>
       <c r="D17">
-        <v>39.11</v>
+        <v>34.34</v>
       </c>
       <c r="E17">
-        <v>45.19</v>
+        <v>47.48</v>
       </c>
       <c r="F17">
-        <v>35.41</v>
+        <v>16.46</v>
       </c>
       <c r="G17">
-        <v>26.13</v>
+        <v>24.07</v>
       </c>
       <c r="H17">
-        <v>36.02</v>
+        <v>35.14</v>
       </c>
       <c r="I17">
         <v>2</v>
@@ -1845,34 +1830,28 @@
         <v>594</v>
       </c>
       <c r="L17">
-        <v>35.9</v>
+        <v>34.98</v>
       </c>
       <c r="M17">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="N17">
-        <v>0.02</v>
+        <v>0.08</v>
       </c>
       <c r="O17">
         <v>10</v>
       </c>
       <c r="P17">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="Q17" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="R17" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="S17" t="s">
-        <v>132</v>
-      </c>
-      <c r="T17" t="s">
-        <v>133</v>
-      </c>
-      <c r="U17" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -1883,22 +1862,22 @@
         <v>36</v>
       </c>
       <c r="C18">
-        <v>47.75</v>
+        <v>28.48</v>
       </c>
       <c r="D18">
-        <v>41.32</v>
+        <v>38.06</v>
       </c>
       <c r="E18">
-        <v>47.41</v>
+        <v>46.21</v>
       </c>
       <c r="F18">
-        <v>23.45</v>
+        <v>12.17</v>
       </c>
       <c r="G18">
-        <v>26.95</v>
+        <v>29.59</v>
       </c>
       <c r="H18">
-        <v>36.04</v>
+        <v>35.18</v>
       </c>
       <c r="I18">
         <v>2</v>
@@ -1910,13 +1889,13 @@
         <v>594</v>
       </c>
       <c r="L18">
-        <v>35.9</v>
+        <v>35.06</v>
       </c>
       <c r="M18">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N18">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="O18">
         <v>10</v>
@@ -1925,13 +1904,13 @@
         <v>7</v>
       </c>
       <c r="Q18" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="R18" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="S18" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:21">
@@ -1942,55 +1921,61 @@
         <v>37</v>
       </c>
       <c r="C19">
-        <v>39.49</v>
+        <v>47.36</v>
       </c>
       <c r="D19">
-        <v>34.3</v>
+        <v>47.24</v>
       </c>
       <c r="E19">
-        <v>47.28</v>
+        <v>45.56</v>
       </c>
       <c r="F19">
-        <v>16.1</v>
+        <v>35.67</v>
       </c>
       <c r="G19">
-        <v>15.27</v>
+        <v>34.15</v>
       </c>
       <c r="H19">
-        <v>36.26</v>
+        <v>36.15</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>196</v>
       </c>
       <c r="J19">
-        <v>8</v>
+        <v>213</v>
       </c>
       <c r="K19">
-        <v>594</v>
+        <v>195</v>
       </c>
       <c r="L19">
-        <v>36.01</v>
+        <v>35.3</v>
       </c>
       <c r="M19">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N19">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="O19">
         <v>10</v>
       </c>
       <c r="P19">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q19" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="R19" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="S19" t="s">
-        <v>125</v>
+        <v>120</v>
+      </c>
+      <c r="T19" t="s">
+        <v>128</v>
+      </c>
+      <c r="U19" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -2001,40 +1986,40 @@
         <v>38</v>
       </c>
       <c r="C20">
-        <v>47.1</v>
+        <v>27.21</v>
       </c>
       <c r="D20">
-        <v>47.26</v>
+        <v>37.19</v>
       </c>
       <c r="E20">
-        <v>44.95</v>
+        <v>46.67</v>
       </c>
       <c r="F20">
-        <v>35.44</v>
+        <v>4.36</v>
       </c>
       <c r="G20">
-        <v>36.93</v>
+        <v>20.07</v>
       </c>
       <c r="H20">
-        <v>35.72</v>
+        <v>35.54</v>
       </c>
       <c r="I20">
-        <v>196</v>
+        <v>2</v>
       </c>
       <c r="J20">
-        <v>213</v>
+        <v>8</v>
       </c>
       <c r="K20">
-        <v>195</v>
+        <v>594</v>
       </c>
       <c r="L20">
-        <v>36.06</v>
+        <v>35.32</v>
       </c>
       <c r="M20">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="N20">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="O20">
         <v>10</v>
@@ -2043,19 +2028,16 @@
         <v>10</v>
       </c>
       <c r="Q20" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="R20" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="S20" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="T20" t="s">
-        <v>133</v>
-      </c>
-      <c r="U20" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -2066,22 +2048,22 @@
         <v>39</v>
       </c>
       <c r="C21">
-        <v>36.96</v>
+        <v>20.23</v>
       </c>
       <c r="D21">
-        <v>33.78</v>
+        <v>36.58</v>
       </c>
       <c r="E21">
-        <v>46.14</v>
+        <v>46.48</v>
       </c>
       <c r="F21">
-        <v>28.94</v>
+        <v>24.91</v>
       </c>
       <c r="G21">
-        <v>27.55</v>
+        <v>25.53</v>
       </c>
       <c r="H21">
-        <v>36.31</v>
+        <v>35.5</v>
       </c>
       <c r="I21">
         <v>2</v>
@@ -2093,10 +2075,10 @@
         <v>594</v>
       </c>
       <c r="L21">
-        <v>36.19</v>
+        <v>35.35</v>
       </c>
       <c r="M21">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N21">
         <v>0.06</v>
@@ -2105,22 +2087,16 @@
         <v>10</v>
       </c>
       <c r="P21">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q21" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="R21" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="S21" t="s">
-        <v>129</v>
-      </c>
-      <c r="T21" t="s">
-        <v>133</v>
-      </c>
-      <c r="U21" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:21">
@@ -2131,22 +2107,22 @@
         <v>40</v>
       </c>
       <c r="C22">
-        <v>54.86</v>
+        <v>26.92</v>
       </c>
       <c r="D22">
-        <v>39.12</v>
+        <v>34.85</v>
       </c>
       <c r="E22">
-        <v>48.71</v>
+        <v>46.4</v>
       </c>
       <c r="F22">
-        <v>22.02</v>
+        <v>5.24</v>
       </c>
       <c r="G22">
-        <v>21.94</v>
+        <v>25.49</v>
       </c>
       <c r="H22">
-        <v>36.45</v>
+        <v>35.68</v>
       </c>
       <c r="I22">
         <v>2</v>
@@ -2158,34 +2134,28 @@
         <v>594</v>
       </c>
       <c r="L22">
-        <v>36.26</v>
+        <v>35.5</v>
       </c>
       <c r="M22">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N22">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="O22">
         <v>10</v>
       </c>
       <c r="P22">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q22" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="R22" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="S22" t="s">
-        <v>132</v>
-      </c>
-      <c r="T22" t="s">
-        <v>133</v>
-      </c>
-      <c r="U22" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:21">
@@ -2196,55 +2166,61 @@
         <v>41</v>
       </c>
       <c r="C23">
-        <v>39.17</v>
+        <v>46.81</v>
       </c>
       <c r="D23">
-        <v>35.86</v>
+        <v>46.45</v>
       </c>
       <c r="E23">
-        <v>46.23</v>
+        <v>44.59</v>
       </c>
       <c r="F23">
-        <v>20.43</v>
+        <v>36.38</v>
       </c>
       <c r="G23">
-        <v>27.88</v>
+        <v>35.6</v>
       </c>
       <c r="H23">
-        <v>36.55</v>
+        <v>35.27</v>
       </c>
       <c r="I23">
-        <v>2</v>
+        <v>196</v>
       </c>
       <c r="J23">
-        <v>8</v>
+        <v>213</v>
       </c>
       <c r="K23">
-        <v>594</v>
+        <v>195</v>
       </c>
       <c r="L23">
-        <v>36.41</v>
+        <v>35.75</v>
       </c>
       <c r="M23">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="N23">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
       <c r="O23">
         <v>10</v>
       </c>
       <c r="P23">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="Q23" t="s">
         <v>125</v>
       </c>
       <c r="R23" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="S23" t="s">
-        <v>126</v>
+        <v>120</v>
+      </c>
+      <c r="T23" t="s">
+        <v>128</v>
+      </c>
+      <c r="U23" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:21">
@@ -2255,22 +2231,22 @@
         <v>42</v>
       </c>
       <c r="C24">
-        <v>47.68</v>
+        <v>48.53</v>
       </c>
       <c r="D24">
-        <v>47.89</v>
+        <v>45.41</v>
       </c>
       <c r="E24">
-        <v>45.63</v>
+        <v>47.6</v>
       </c>
       <c r="F24">
-        <v>36.11</v>
+        <v>37.14</v>
       </c>
       <c r="G24">
-        <v>37.37</v>
+        <v>36.34</v>
       </c>
       <c r="H24">
-        <v>36.12</v>
+        <v>33.67</v>
       </c>
       <c r="I24">
         <v>196</v>
@@ -2282,34 +2258,34 @@
         <v>195</v>
       </c>
       <c r="L24">
-        <v>36.56</v>
+        <v>35.76</v>
       </c>
       <c r="M24">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="O24">
         <v>10</v>
       </c>
       <c r="P24">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="Q24" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="R24" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="S24" t="s">
         <v>126</v>
       </c>
       <c r="T24" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="U24" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:21">
@@ -2320,40 +2296,40 @@
         <v>43</v>
       </c>
       <c r="C25">
-        <v>43.58</v>
+        <v>40.38</v>
       </c>
       <c r="D25">
-        <v>34.43</v>
+        <v>37.19</v>
       </c>
       <c r="E25">
-        <v>46.94</v>
+        <v>38.64</v>
       </c>
       <c r="F25">
-        <v>32.59</v>
+        <v>40.97</v>
       </c>
       <c r="G25">
-        <v>16.88</v>
+        <v>33.84</v>
       </c>
       <c r="H25">
-        <v>36.83</v>
+        <v>32.55</v>
       </c>
       <c r="I25">
-        <v>2</v>
+        <v>196</v>
       </c>
       <c r="J25">
-        <v>8</v>
+        <v>213</v>
       </c>
       <c r="K25">
-        <v>594</v>
+        <v>195</v>
       </c>
       <c r="L25">
-        <v>36.62</v>
+        <v>35.93</v>
       </c>
       <c r="M25">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="N25">
-        <v>0.06</v>
+        <v>0.14</v>
       </c>
       <c r="O25">
         <v>10</v>
@@ -2362,19 +2338,19 @@
         <v>9</v>
       </c>
       <c r="Q25" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="R25" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="S25" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="T25" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="U25" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:21">
@@ -2385,61 +2361,55 @@
         <v>44</v>
       </c>
       <c r="C26">
-        <v>48.75</v>
+        <v>29.45</v>
       </c>
       <c r="D26">
-        <v>49.58</v>
+        <v>36.95</v>
       </c>
       <c r="E26">
-        <v>47.07</v>
+        <v>46.39</v>
       </c>
       <c r="F26">
-        <v>35.31</v>
+        <v>13.83</v>
       </c>
       <c r="G26">
-        <v>37.63</v>
+        <v>28.35</v>
       </c>
       <c r="H26">
-        <v>36.87</v>
+        <v>36.19</v>
       </c>
       <c r="I26">
-        <v>196</v>
+        <v>2</v>
       </c>
       <c r="J26">
-        <v>213</v>
+        <v>8</v>
       </c>
       <c r="K26">
-        <v>195</v>
+        <v>594</v>
       </c>
       <c r="L26">
-        <v>36.64</v>
+        <v>36.05</v>
       </c>
       <c r="M26">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="N26">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="O26">
         <v>10</v>
       </c>
       <c r="P26">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q26" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="R26" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="S26" t="s">
-        <v>127</v>
-      </c>
-      <c r="T26" t="s">
-        <v>133</v>
-      </c>
-      <c r="U26" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:21">
@@ -2450,61 +2420,55 @@
         <v>45</v>
       </c>
       <c r="C27">
-        <v>36.3</v>
+        <v>28.98</v>
       </c>
       <c r="D27">
-        <v>34.81</v>
+        <v>35.93</v>
       </c>
       <c r="E27">
-        <v>36.74</v>
+        <v>44.7</v>
       </c>
       <c r="F27">
-        <v>43.53</v>
+        <v>18.28</v>
       </c>
       <c r="G27">
-        <v>36.95</v>
+        <v>29.42</v>
       </c>
       <c r="H27">
-        <v>28.17</v>
+        <v>36.2</v>
       </c>
       <c r="I27">
-        <v>196</v>
+        <v>2</v>
       </c>
       <c r="J27">
-        <v>213</v>
+        <v>8</v>
       </c>
       <c r="K27">
-        <v>195</v>
+        <v>594</v>
       </c>
       <c r="L27">
-        <v>36.77</v>
+        <v>36.07</v>
       </c>
       <c r="M27">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="N27">
-        <v>0.14</v>
+        <v>0.08</v>
       </c>
       <c r="O27">
         <v>10</v>
       </c>
       <c r="P27">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Q27" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="R27" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="S27" t="s">
-        <v>126</v>
-      </c>
-      <c r="T27" t="s">
-        <v>133</v>
-      </c>
-      <c r="U27" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:21">
@@ -2515,22 +2479,22 @@
         <v>46</v>
       </c>
       <c r="C28">
-        <v>34.04</v>
+        <v>25.38</v>
       </c>
       <c r="D28">
-        <v>31.07</v>
+        <v>39.62</v>
       </c>
       <c r="E28">
-        <v>47.09</v>
+        <v>46.36</v>
       </c>
       <c r="F28">
-        <v>13.78</v>
+        <v>18.55</v>
       </c>
       <c r="G28">
-        <v>16.25</v>
+        <v>29.04</v>
       </c>
       <c r="H28">
-        <v>37.09</v>
+        <v>36.2</v>
       </c>
       <c r="I28">
         <v>2</v>
@@ -2542,10 +2506,10 @@
         <v>594</v>
       </c>
       <c r="L28">
-        <v>36.84</v>
+        <v>36.07</v>
       </c>
       <c r="M28">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N28">
         <v>0.08</v>
@@ -2554,16 +2518,16 @@
         <v>10</v>
       </c>
       <c r="P28">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="Q28" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="R28" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="S28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="1:21">
@@ -2574,22 +2538,22 @@
         <v>47</v>
       </c>
       <c r="C29">
-        <v>36.74</v>
+        <v>24.61</v>
       </c>
       <c r="D29">
-        <v>33.83</v>
+        <v>33.9</v>
       </c>
       <c r="E29">
-        <v>45.58</v>
+        <v>47.24</v>
       </c>
       <c r="F29">
-        <v>16.5</v>
+        <v>18.4</v>
       </c>
       <c r="G29">
-        <v>33.54</v>
+        <v>20.84</v>
       </c>
       <c r="H29">
-        <v>37.07</v>
+        <v>36.44</v>
       </c>
       <c r="I29">
         <v>2</v>
@@ -2601,34 +2565,28 @@
         <v>594</v>
       </c>
       <c r="L29">
-        <v>36.98</v>
+        <v>36.23</v>
       </c>
       <c r="M29">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="N29">
-        <v>0.05</v>
+        <v>0.12</v>
       </c>
       <c r="O29">
         <v>10</v>
       </c>
       <c r="P29">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Q29" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="R29" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="S29" t="s">
-        <v>129</v>
-      </c>
-      <c r="T29" t="s">
-        <v>133</v>
-      </c>
-      <c r="U29" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:21">
@@ -2639,58 +2597,61 @@
         <v>48</v>
       </c>
       <c r="C30">
-        <v>36.46</v>
+        <v>49.17</v>
       </c>
       <c r="D30">
-        <v>31.94</v>
+        <v>48.75</v>
       </c>
       <c r="E30">
-        <v>47.07</v>
+        <v>48.15</v>
       </c>
       <c r="F30">
-        <v>12.64</v>
+        <v>36.15</v>
       </c>
       <c r="G30">
-        <v>20.71</v>
+        <v>36.42</v>
       </c>
       <c r="H30">
-        <v>37.27</v>
+        <v>36.29</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>196</v>
       </c>
       <c r="J30">
-        <v>8</v>
+        <v>213</v>
       </c>
       <c r="K30">
-        <v>594</v>
+        <v>195</v>
       </c>
       <c r="L30">
-        <v>37.04</v>
+        <v>36.29</v>
       </c>
       <c r="M30">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="N30">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="O30">
         <v>10</v>
       </c>
       <c r="P30">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="Q30" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="R30" t="s">
         <v>125</v>
       </c>
       <c r="S30" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="T30" t="s">
-        <v>133</v>
+        <v>128</v>
+      </c>
+      <c r="U30" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:21">
@@ -2701,22 +2662,22 @@
         <v>49</v>
       </c>
       <c r="C31">
-        <v>38.87</v>
+        <v>28.19</v>
       </c>
       <c r="D31">
-        <v>39.85</v>
+        <v>35.81</v>
       </c>
       <c r="E31">
-        <v>46.03</v>
+        <v>45.79</v>
       </c>
       <c r="F31">
-        <v>4.65</v>
+        <v>11.27</v>
       </c>
       <c r="G31">
-        <v>30.06</v>
+        <v>26.72</v>
       </c>
       <c r="H31">
-        <v>37.24</v>
+        <v>36.62</v>
       </c>
       <c r="I31">
         <v>2</v>
@@ -2728,28 +2689,28 @@
         <v>594</v>
       </c>
       <c r="L31">
-        <v>37.09</v>
+        <v>36.45</v>
       </c>
       <c r="M31">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="N31">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="O31">
         <v>10</v>
       </c>
       <c r="P31">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Q31" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="R31" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="S31" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:21">
@@ -2760,22 +2721,22 @@
         <v>50</v>
       </c>
       <c r="C32">
-        <v>46.27</v>
+        <v>47.63</v>
       </c>
       <c r="D32">
-        <v>48.24</v>
+        <v>47.33</v>
       </c>
       <c r="E32">
-        <v>47.26</v>
+        <v>47.55</v>
       </c>
       <c r="F32">
-        <v>36.24</v>
+        <v>35.84</v>
       </c>
       <c r="G32">
-        <v>38.13</v>
+        <v>37.19</v>
       </c>
       <c r="H32">
-        <v>36.91</v>
+        <v>37.25</v>
       </c>
       <c r="I32">
         <v>196</v>
@@ -2787,7 +2748,7 @@
         <v>195</v>
       </c>
       <c r="L32">
-        <v>37.13</v>
+        <v>36.78</v>
       </c>
       <c r="M32">
         <v>10</v>
@@ -2802,19 +2763,19 @@
         <v>6</v>
       </c>
       <c r="Q32" t="s">
+        <v>123</v>
+      </c>
+      <c r="R32" t="s">
         <v>126</v>
       </c>
-      <c r="R32" t="s">
+      <c r="S32" t="s">
+        <v>127</v>
+      </c>
+      <c r="T32" t="s">
+        <v>128</v>
+      </c>
+      <c r="U32" t="s">
         <v>131</v>
-      </c>
-      <c r="S32" t="s">
-        <v>132</v>
-      </c>
-      <c r="T32" t="s">
-        <v>133</v>
-      </c>
-      <c r="U32" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="33" spans="1:21">
@@ -2825,22 +2786,22 @@
         <v>51</v>
       </c>
       <c r="C33">
-        <v>38.97</v>
+        <v>28.04</v>
       </c>
       <c r="D33">
-        <v>32.33</v>
+        <v>36.79</v>
       </c>
       <c r="E33">
-        <v>46.56</v>
+        <v>45.64</v>
       </c>
       <c r="F33">
-        <v>29.42</v>
+        <v>24.9</v>
       </c>
       <c r="G33">
-        <v>28.01</v>
+        <v>26.25</v>
       </c>
       <c r="H33">
-        <v>37.68</v>
+        <v>37.04</v>
       </c>
       <c r="I33">
         <v>2</v>
@@ -2852,28 +2813,28 @@
         <v>594</v>
       </c>
       <c r="L33">
-        <v>37.54</v>
+        <v>36.88</v>
       </c>
       <c r="M33">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N33">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="O33">
         <v>10</v>
       </c>
       <c r="P33">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="Q33" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="R33" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="S33" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34" spans="1:21">
@@ -2884,55 +2845,61 @@
         <v>52</v>
       </c>
       <c r="C34">
-        <v>38.32</v>
+        <v>46.74</v>
       </c>
       <c r="D34">
-        <v>34.22</v>
+        <v>46.27</v>
       </c>
       <c r="E34">
-        <v>46.73</v>
+        <v>44.06</v>
       </c>
       <c r="F34">
-        <v>18.41</v>
+        <v>35.58</v>
       </c>
       <c r="G34">
-        <v>28.16</v>
+        <v>38.5</v>
       </c>
       <c r="H34">
-        <v>37.77</v>
+        <v>36.4</v>
       </c>
       <c r="I34">
-        <v>2</v>
+        <v>196</v>
       </c>
       <c r="J34">
-        <v>8</v>
+        <v>213</v>
       </c>
       <c r="K34">
-        <v>594</v>
+        <v>195</v>
       </c>
       <c r="L34">
-        <v>37.61</v>
+        <v>36.9</v>
       </c>
       <c r="M34">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N34">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="O34">
         <v>10</v>
       </c>
       <c r="P34">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="Q34" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="R34" t="s">
         <v>125</v>
       </c>
       <c r="S34" t="s">
-        <v>129</v>
+        <v>121</v>
+      </c>
+      <c r="T34" t="s">
+        <v>128</v>
+      </c>
+      <c r="U34" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="35" spans="1:21">
@@ -2943,58 +2910,61 @@
         <v>53</v>
       </c>
       <c r="C35">
-        <v>37.51</v>
+        <v>47.73</v>
       </c>
       <c r="D35">
-        <v>34.2</v>
+        <v>47.31</v>
       </c>
       <c r="E35">
-        <v>46.27</v>
+        <v>45.63</v>
       </c>
       <c r="F35">
-        <v>13.84</v>
+        <v>36.68</v>
       </c>
       <c r="G35">
-        <v>21.64</v>
+        <v>38.02</v>
       </c>
       <c r="H35">
-        <v>37.87</v>
+        <v>36.42</v>
       </c>
       <c r="I35">
-        <v>2</v>
+        <v>196</v>
       </c>
       <c r="J35">
-        <v>8</v>
+        <v>213</v>
       </c>
       <c r="K35">
-        <v>594</v>
+        <v>195</v>
       </c>
       <c r="L35">
-        <v>37.64</v>
+        <v>37.08</v>
       </c>
       <c r="M35">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="N35">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="O35">
         <v>10</v>
       </c>
       <c r="P35">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q35" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="R35" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="S35" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="T35" t="s">
-        <v>134</v>
+        <v>128</v>
+      </c>
+      <c r="U35" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="36" spans="1:21">
@@ -3005,61 +2975,55 @@
         <v>54</v>
       </c>
       <c r="C36">
-        <v>47.98</v>
+        <v>24.48</v>
       </c>
       <c r="D36">
-        <v>46.51</v>
+        <v>37</v>
       </c>
       <c r="E36">
-        <v>46.59</v>
+        <v>46.63</v>
       </c>
       <c r="F36">
-        <v>37.31</v>
+        <v>13.49</v>
       </c>
       <c r="G36">
-        <v>36.99</v>
+        <v>19.16</v>
       </c>
       <c r="H36">
-        <v>39.44</v>
+        <v>37.47</v>
       </c>
       <c r="I36">
-        <v>196</v>
+        <v>2</v>
       </c>
       <c r="J36">
-        <v>213</v>
+        <v>8</v>
       </c>
       <c r="K36">
-        <v>195</v>
+        <v>594</v>
       </c>
       <c r="L36">
-        <v>37.9</v>
+        <v>37.23</v>
       </c>
       <c r="M36">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N36">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="O36">
         <v>10</v>
       </c>
       <c r="P36">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q36" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="R36" t="s">
         <v>125</v>
       </c>
       <c r="S36" t="s">
-        <v>129</v>
-      </c>
-      <c r="T36" t="s">
-        <v>133</v>
-      </c>
-      <c r="U36" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
     </row>
     <row r="37" spans="1:21">
@@ -3070,61 +3034,61 @@
         <v>55</v>
       </c>
       <c r="C37">
-        <v>47.94</v>
+        <v>47.68</v>
       </c>
       <c r="D37">
-        <v>29.17</v>
+        <v>46.61</v>
       </c>
       <c r="E37">
-        <v>21.55</v>
+        <v>45.1</v>
       </c>
       <c r="F37">
-        <v>70.95999999999999</v>
+        <v>36.2</v>
       </c>
       <c r="G37">
-        <v>54.49</v>
+        <v>39.09</v>
       </c>
       <c r="H37">
-        <v>37.55</v>
+        <v>36.26</v>
       </c>
       <c r="I37">
-        <v>2</v>
+        <v>196</v>
       </c>
       <c r="J37">
-        <v>8</v>
+        <v>213</v>
       </c>
       <c r="K37">
-        <v>594</v>
+        <v>195</v>
       </c>
       <c r="L37">
-        <v>37.99</v>
+        <v>37.26</v>
       </c>
       <c r="M37">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N37">
-        <v>0.07000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="O37">
         <v>10</v>
       </c>
       <c r="P37">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Q37" t="s">
         <v>125</v>
       </c>
       <c r="R37" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="S37" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="T37" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="U37" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="38" spans="1:21">
@@ -3135,22 +3099,22 @@
         <v>56</v>
       </c>
       <c r="C38">
-        <v>39.48</v>
+        <v>23.93</v>
       </c>
       <c r="D38">
-        <v>33.71</v>
+        <v>33.16</v>
       </c>
       <c r="E38">
-        <v>45.88</v>
+        <v>47.64</v>
       </c>
       <c r="F38">
-        <v>33.68</v>
+        <v>32.8</v>
       </c>
       <c r="G38">
-        <v>27.19</v>
+        <v>35.2</v>
       </c>
       <c r="H38">
-        <v>38.15</v>
+        <v>37.32</v>
       </c>
       <c r="I38">
         <v>2</v>
@@ -3162,10 +3126,10 @@
         <v>594</v>
       </c>
       <c r="L38">
-        <v>38.01</v>
+        <v>37.28</v>
       </c>
       <c r="M38">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N38">
         <v>0.05</v>
@@ -3174,16 +3138,16 @@
         <v>10</v>
       </c>
       <c r="P38">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Q38" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="R38" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="S38" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="39" spans="1:21">
@@ -3194,22 +3158,22 @@
         <v>57</v>
       </c>
       <c r="C39">
-        <v>33.57</v>
+        <v>26.41</v>
       </c>
       <c r="D39">
-        <v>37.17</v>
+        <v>34.4</v>
       </c>
       <c r="E39">
-        <v>46.56</v>
+        <v>45.23</v>
       </c>
       <c r="F39">
-        <v>39.56</v>
+        <v>15.78</v>
       </c>
       <c r="G39">
-        <v>28.07</v>
+        <v>29.58</v>
       </c>
       <c r="H39">
-        <v>38.3</v>
+        <v>37.53</v>
       </c>
       <c r="I39">
         <v>2</v>
@@ -3221,27 +3185,33 @@
         <v>594</v>
       </c>
       <c r="L39">
-        <v>38.19</v>
+        <v>37.38</v>
       </c>
       <c r="M39">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="N39">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="O39">
         <v>10</v>
       </c>
       <c r="P39">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q39" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="R39" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="S39" t="s">
+        <v>122</v>
+      </c>
+      <c r="T39" t="s">
+        <v>128</v>
+      </c>
+      <c r="U39" t="s">
         <v>131</v>
       </c>
     </row>
@@ -3253,22 +3223,22 @@
         <v>58</v>
       </c>
       <c r="C40">
-        <v>64.3</v>
+        <v>24.34</v>
       </c>
       <c r="D40">
-        <v>36.51</v>
+        <v>35.42</v>
       </c>
       <c r="E40">
-        <v>30.68</v>
+        <v>47.65</v>
       </c>
       <c r="F40">
-        <v>22.43</v>
+        <v>12.67</v>
       </c>
       <c r="G40">
-        <v>8.99</v>
+        <v>21.5</v>
       </c>
       <c r="H40">
-        <v>38.67</v>
+        <v>37.69</v>
       </c>
       <c r="I40">
         <v>2</v>
@@ -3280,34 +3250,31 @@
         <v>594</v>
       </c>
       <c r="L40">
-        <v>38.38</v>
+        <v>37.46</v>
       </c>
       <c r="M40">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="N40">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="O40">
         <v>10</v>
       </c>
       <c r="P40">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q40" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="R40" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="S40" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="T40" t="s">
-        <v>133</v>
-      </c>
-      <c r="U40" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="41" spans="1:21">
@@ -3318,22 +3285,22 @@
         <v>59</v>
       </c>
       <c r="C41">
-        <v>43.24</v>
+        <v>26.89</v>
       </c>
       <c r="D41">
-        <v>30.18</v>
+        <v>35.59</v>
       </c>
       <c r="E41">
-        <v>45.66</v>
+        <v>46.49</v>
       </c>
       <c r="F41">
-        <v>40.72</v>
+        <v>14.7</v>
       </c>
       <c r="G41">
-        <v>17.31</v>
+        <v>28.04</v>
       </c>
       <c r="H41">
-        <v>38.89</v>
+        <v>37.68</v>
       </c>
       <c r="I41">
         <v>2</v>
@@ -3345,28 +3312,28 @@
         <v>594</v>
       </c>
       <c r="L41">
-        <v>38.69</v>
+        <v>37.52</v>
       </c>
       <c r="M41">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="N41">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="O41">
         <v>10</v>
       </c>
       <c r="P41">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q41" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="R41" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="S41" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="42" spans="1:21">
@@ -3377,22 +3344,22 @@
         <v>60</v>
       </c>
       <c r="C42">
-        <v>48.62</v>
+        <v>51.67</v>
       </c>
       <c r="D42">
-        <v>46.92</v>
+        <v>47.84</v>
       </c>
       <c r="E42">
-        <v>47.82</v>
+        <v>48.55</v>
       </c>
       <c r="F42">
-        <v>39.36</v>
+        <v>36.13</v>
       </c>
       <c r="G42">
-        <v>40.9</v>
+        <v>38.65</v>
       </c>
       <c r="H42">
-        <v>35.39</v>
+        <v>37.63</v>
       </c>
       <c r="I42">
         <v>196</v>
@@ -3404,34 +3371,34 @@
         <v>195</v>
       </c>
       <c r="L42">
-        <v>38.69</v>
+        <v>37.52</v>
       </c>
       <c r="M42">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N42">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="O42">
         <v>10</v>
       </c>
       <c r="P42">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q42" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="R42" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="S42" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="T42" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="U42" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="43" spans="1:21">
@@ -3442,22 +3409,22 @@
         <v>61</v>
       </c>
       <c r="C43">
-        <v>48.81</v>
+        <v>50.38</v>
       </c>
       <c r="D43">
-        <v>48.54</v>
+        <v>48.85</v>
       </c>
       <c r="E43">
-        <v>48.13</v>
+        <v>48.03</v>
       </c>
       <c r="F43">
-        <v>38.42</v>
+        <v>39.04</v>
       </c>
       <c r="G43">
-        <v>41.61</v>
+        <v>40.97</v>
       </c>
       <c r="H43">
-        <v>35.79</v>
+        <v>31.99</v>
       </c>
       <c r="I43">
         <v>196</v>
@@ -3469,7 +3436,7 @@
         <v>195</v>
       </c>
       <c r="L43">
-        <v>38.77</v>
+        <v>37.64</v>
       </c>
       <c r="M43">
         <v>35</v>
@@ -3484,19 +3451,19 @@
         <v>12</v>
       </c>
       <c r="Q43" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="R43" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="S43" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="T43" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="U43" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="44" spans="1:21">
@@ -3507,40 +3474,40 @@
         <v>62</v>
       </c>
       <c r="C44">
-        <v>51.51</v>
+        <v>23.63</v>
       </c>
       <c r="D44">
-        <v>50.51</v>
+        <v>33.41</v>
       </c>
       <c r="E44">
-        <v>48.78</v>
+        <v>46.95</v>
       </c>
       <c r="F44">
-        <v>35.57</v>
+        <v>13.71</v>
       </c>
       <c r="G44">
-        <v>43.64</v>
+        <v>24.04</v>
       </c>
       <c r="H44">
-        <v>36.61</v>
+        <v>38.02</v>
       </c>
       <c r="I44">
-        <v>196</v>
+        <v>2</v>
       </c>
       <c r="J44">
-        <v>213</v>
+        <v>8</v>
       </c>
       <c r="K44">
-        <v>195</v>
+        <v>594</v>
       </c>
       <c r="L44">
-        <v>38.92</v>
+        <v>37.81</v>
       </c>
       <c r="M44">
         <v>40</v>
       </c>
       <c r="N44">
-        <v>0.16</v>
+        <v>0.06</v>
       </c>
       <c r="O44">
         <v>10</v>
@@ -3549,19 +3516,13 @@
         <v>11</v>
       </c>
       <c r="Q44" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="R44" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="S44" t="s">
-        <v>125</v>
-      </c>
-      <c r="T44" t="s">
-        <v>133</v>
-      </c>
-      <c r="U44" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
     </row>
     <row r="45" spans="1:21">
@@ -3572,61 +3533,61 @@
         <v>63</v>
       </c>
       <c r="C45">
-        <v>30.02</v>
+        <v>48.53</v>
       </c>
       <c r="D45">
-        <v>30.23</v>
+        <v>46.35</v>
       </c>
       <c r="E45">
-        <v>47.59</v>
+        <v>47.79</v>
       </c>
       <c r="F45">
-        <v>13.49</v>
+        <v>37.24</v>
       </c>
       <c r="G45">
-        <v>21.79</v>
+        <v>38.17</v>
       </c>
       <c r="H45">
-        <v>39.18</v>
+        <v>38.26</v>
       </c>
       <c r="I45">
-        <v>2</v>
+        <v>196</v>
       </c>
       <c r="J45">
-        <v>8</v>
+        <v>213</v>
       </c>
       <c r="K45">
-        <v>594</v>
+        <v>195</v>
       </c>
       <c r="L45">
-        <v>38.94</v>
+        <v>37.9</v>
       </c>
       <c r="M45">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="N45">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="O45">
         <v>10</v>
       </c>
       <c r="P45">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Q45" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="R45" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="S45" t="s">
         <v>126</v>
       </c>
       <c r="T45" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="U45" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="46" spans="1:21">
@@ -3637,40 +3598,40 @@
         <v>64</v>
       </c>
       <c r="C46">
-        <v>49.96</v>
+        <v>25.45</v>
       </c>
       <c r="D46">
-        <v>48.3</v>
+        <v>38.01</v>
       </c>
       <c r="E46">
-        <v>49.9</v>
+        <v>46.99</v>
       </c>
       <c r="F46">
-        <v>36.42</v>
+        <v>10.99</v>
       </c>
       <c r="G46">
-        <v>43.05</v>
+        <v>27.39</v>
       </c>
       <c r="H46">
-        <v>36.78</v>
+        <v>38.12</v>
       </c>
       <c r="I46">
-        <v>196</v>
+        <v>2</v>
       </c>
       <c r="J46">
-        <v>213</v>
+        <v>8</v>
       </c>
       <c r="K46">
-        <v>195</v>
+        <v>594</v>
       </c>
       <c r="L46">
-        <v>39</v>
+        <v>37.94</v>
       </c>
       <c r="M46">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="N46">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="O46">
         <v>10</v>
@@ -3679,19 +3640,19 @@
         <v>6</v>
       </c>
       <c r="Q46" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="R46" t="s">
+        <v>126</v>
+      </c>
+      <c r="S46" t="s">
         <v>127</v>
       </c>
-      <c r="S46" t="s">
-        <v>125</v>
-      </c>
       <c r="T46" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="U46" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="47" spans="1:21">
@@ -3702,61 +3663,55 @@
         <v>65</v>
       </c>
       <c r="C47">
-        <v>49.27</v>
+        <v>28.91</v>
       </c>
       <c r="D47">
-        <v>49.84</v>
+        <v>37.34</v>
       </c>
       <c r="E47">
-        <v>49.01</v>
+        <v>46.51</v>
       </c>
       <c r="F47">
-        <v>37.92</v>
+        <v>32.35</v>
       </c>
       <c r="G47">
-        <v>40.34</v>
+        <v>20.95</v>
       </c>
       <c r="H47">
-        <v>38.76</v>
+        <v>38.29</v>
       </c>
       <c r="I47">
-        <v>196</v>
+        <v>2</v>
       </c>
       <c r="J47">
-        <v>213</v>
+        <v>8</v>
       </c>
       <c r="K47">
-        <v>195</v>
+        <v>594</v>
       </c>
       <c r="L47">
-        <v>39.06</v>
+        <v>38.09</v>
       </c>
       <c r="M47">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="N47">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="O47">
         <v>10</v>
       </c>
       <c r="P47">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="Q47" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="R47" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="S47" t="s">
-        <v>127</v>
-      </c>
-      <c r="T47" t="s">
-        <v>133</v>
-      </c>
-      <c r="U47" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
     </row>
     <row r="48" spans="1:21">
@@ -3767,61 +3722,55 @@
         <v>66</v>
       </c>
       <c r="C48">
-        <v>48.36</v>
+        <v>27.98</v>
       </c>
       <c r="D48">
-        <v>46.87</v>
+        <v>36.57</v>
       </c>
       <c r="E48">
-        <v>47.88</v>
+        <v>48.68</v>
       </c>
       <c r="F48">
-        <v>38.15</v>
+        <v>21.27</v>
       </c>
       <c r="G48">
-        <v>38.27</v>
+        <v>24.49</v>
       </c>
       <c r="H48">
-        <v>41</v>
+        <v>38.34</v>
       </c>
       <c r="I48">
-        <v>196</v>
+        <v>2</v>
       </c>
       <c r="J48">
-        <v>213</v>
+        <v>8</v>
       </c>
       <c r="K48">
-        <v>195</v>
+        <v>594</v>
       </c>
       <c r="L48">
-        <v>39.14</v>
+        <v>38.14</v>
       </c>
       <c r="M48">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N48">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="O48">
         <v>10</v>
       </c>
       <c r="P48">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="Q48" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="R48" t="s">
+        <v>123</v>
+      </c>
+      <c r="S48" t="s">
         <v>126</v>
-      </c>
-      <c r="S48" t="s">
-        <v>131</v>
-      </c>
-      <c r="T48" t="s">
-        <v>133</v>
-      </c>
-      <c r="U48" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="49" spans="1:21">
@@ -3832,61 +3781,55 @@
         <v>67</v>
       </c>
       <c r="C49">
-        <v>49.5</v>
+        <v>24.96</v>
       </c>
       <c r="D49">
-        <v>48.85</v>
+        <v>34.88</v>
       </c>
       <c r="E49">
-        <v>48.01</v>
+        <v>47.94</v>
       </c>
       <c r="F49">
-        <v>40.03</v>
+        <v>18.76</v>
       </c>
       <c r="G49">
-        <v>38.97</v>
+        <v>15.86</v>
       </c>
       <c r="H49">
-        <v>38.4</v>
+        <v>38.5</v>
       </c>
       <c r="I49">
-        <v>196</v>
+        <v>2</v>
       </c>
       <c r="J49">
-        <v>213</v>
+        <v>8</v>
       </c>
       <c r="K49">
-        <v>195</v>
+        <v>594</v>
       </c>
       <c r="L49">
-        <v>39.14</v>
+        <v>38.24</v>
       </c>
       <c r="M49">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N49">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="O49">
         <v>10</v>
       </c>
       <c r="P49">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Q49" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="R49" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="S49" t="s">
-        <v>126</v>
-      </c>
-      <c r="T49" t="s">
-        <v>133</v>
-      </c>
-      <c r="U49" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
     </row>
     <row r="50" spans="1:21">
@@ -3897,61 +3840,58 @@
         <v>68</v>
       </c>
       <c r="C50">
-        <v>49.62</v>
+        <v>27.13</v>
       </c>
       <c r="D50">
-        <v>49.98</v>
+        <v>35.46</v>
       </c>
       <c r="E50">
-        <v>48.71</v>
+        <v>46.66</v>
       </c>
       <c r="F50">
-        <v>37.78</v>
+        <v>27.91</v>
       </c>
       <c r="G50">
-        <v>41.55</v>
+        <v>21.66</v>
       </c>
       <c r="H50">
-        <v>37.91</v>
+        <v>38.52</v>
       </c>
       <c r="I50">
-        <v>196</v>
+        <v>2</v>
       </c>
       <c r="J50">
-        <v>213</v>
+        <v>8</v>
       </c>
       <c r="K50">
-        <v>195</v>
+        <v>594</v>
       </c>
       <c r="L50">
-        <v>39.19</v>
+        <v>38.31</v>
       </c>
       <c r="M50">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="N50">
-        <v>0.04</v>
+        <v>0.12</v>
       </c>
       <c r="O50">
         <v>10</v>
       </c>
       <c r="P50">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="Q50" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="R50" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="S50" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="T50" t="s">
-        <v>133</v>
-      </c>
-      <c r="U50" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="51" spans="1:21">
@@ -3962,22 +3902,22 @@
         <v>69</v>
       </c>
       <c r="C51">
-        <v>36.77</v>
+        <v>47.26</v>
       </c>
       <c r="D51">
-        <v>32.49</v>
+        <v>46.29</v>
       </c>
       <c r="E51">
-        <v>34.37</v>
+        <v>46.42</v>
       </c>
       <c r="F51">
-        <v>27.73</v>
+        <v>38.14</v>
       </c>
       <c r="G51">
-        <v>49.61</v>
+        <v>40.03</v>
       </c>
       <c r="H51">
-        <v>36.15</v>
+        <v>36.57</v>
       </c>
       <c r="I51">
         <v>196</v>
@@ -3989,34 +3929,34 @@
         <v>195</v>
       </c>
       <c r="L51">
-        <v>39.23</v>
+        <v>38.33</v>
       </c>
       <c r="M51">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="N51">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
       <c r="O51">
         <v>10</v>
       </c>
       <c r="P51">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Q51" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="R51" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="S51" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="T51" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="U51" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="52" spans="1:21">
@@ -4027,22 +3967,22 @@
         <v>70</v>
       </c>
       <c r="C52">
-        <v>33.28</v>
+        <v>25.56</v>
       </c>
       <c r="D52">
-        <v>34.91</v>
+        <v>40.09</v>
       </c>
       <c r="E52">
-        <v>47.35</v>
+        <v>47.6</v>
       </c>
       <c r="F52">
-        <v>24.62</v>
+        <v>12.85</v>
       </c>
       <c r="G52">
-        <v>23.69</v>
+        <v>16.14</v>
       </c>
       <c r="H52">
-        <v>39.51</v>
+        <v>38.7</v>
       </c>
       <c r="I52">
         <v>2</v>
@@ -4054,31 +3994,28 @@
         <v>594</v>
       </c>
       <c r="L52">
-        <v>39.3</v>
+        <v>38.43</v>
       </c>
       <c r="M52">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="N52">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
       <c r="O52">
         <v>10</v>
       </c>
       <c r="P52">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="Q52" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="R52" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="S52" t="s">
-        <v>125</v>
-      </c>
-      <c r="T52" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="53" spans="1:21">
@@ -4089,61 +4026,55 @@
         <v>71</v>
       </c>
       <c r="C53">
-        <v>48.58</v>
+        <v>22.36</v>
       </c>
       <c r="D53">
-        <v>48.81</v>
+        <v>34.6</v>
       </c>
       <c r="E53">
-        <v>48.16</v>
+        <v>46.84</v>
       </c>
       <c r="F53">
-        <v>37.44</v>
+        <v>20.37</v>
       </c>
       <c r="G53">
-        <v>41.92</v>
+        <v>18.77</v>
       </c>
       <c r="H53">
-        <v>38.22</v>
+        <v>38.84</v>
       </c>
       <c r="I53">
-        <v>196</v>
+        <v>2</v>
       </c>
       <c r="J53">
-        <v>213</v>
+        <v>8</v>
       </c>
       <c r="K53">
-        <v>195</v>
+        <v>594</v>
       </c>
       <c r="L53">
-        <v>39.32</v>
+        <v>38.59</v>
       </c>
       <c r="M53">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N53">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="O53">
         <v>10</v>
       </c>
       <c r="P53">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q53" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="R53" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="S53" t="s">
-        <v>127</v>
-      </c>
-      <c r="T53" t="s">
-        <v>133</v>
-      </c>
-      <c r="U53" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
     </row>
     <row r="54" spans="1:21">
@@ -4154,55 +4085,61 @@
         <v>72</v>
       </c>
       <c r="C54">
-        <v>34.08</v>
+        <v>49.91</v>
       </c>
       <c r="D54">
-        <v>30.69</v>
+        <v>47.16</v>
       </c>
       <c r="E54">
-        <v>47.44</v>
+        <v>48.77</v>
       </c>
       <c r="F54">
-        <v>15.7</v>
+        <v>38.26</v>
       </c>
       <c r="G54">
-        <v>22.91</v>
+        <v>39.77</v>
       </c>
       <c r="H54">
-        <v>39.58</v>
+        <v>37.78</v>
       </c>
       <c r="I54">
-        <v>2</v>
+        <v>196</v>
       </c>
       <c r="J54">
+        <v>213</v>
+      </c>
+      <c r="K54">
+        <v>195</v>
+      </c>
+      <c r="L54">
+        <v>38.65</v>
+      </c>
+      <c r="M54">
+        <v>20</v>
+      </c>
+      <c r="N54">
+        <v>0.15</v>
+      </c>
+      <c r="O54">
+        <v>10</v>
+      </c>
+      <c r="P54">
         <v>8</v>
       </c>
-      <c r="K54">
-        <v>594</v>
-      </c>
-      <c r="L54">
-        <v>39.35</v>
-      </c>
-      <c r="M54">
-        <v>15</v>
-      </c>
-      <c r="N54">
-        <v>0.12</v>
-      </c>
-      <c r="O54">
-        <v>10</v>
-      </c>
-      <c r="P54">
-        <v>12</v>
-      </c>
       <c r="Q54" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="R54" t="s">
         <v>125</v>
       </c>
       <c r="S54" t="s">
-        <v>129</v>
+        <v>121</v>
+      </c>
+      <c r="T54" t="s">
+        <v>128</v>
+      </c>
+      <c r="U54" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="55" spans="1:21">
@@ -4213,22 +4150,22 @@
         <v>73</v>
       </c>
       <c r="C55">
-        <v>49.06</v>
+        <v>49.61</v>
       </c>
       <c r="D55">
-        <v>47.39</v>
+        <v>47.05</v>
       </c>
       <c r="E55">
-        <v>48.14</v>
+        <v>48</v>
       </c>
       <c r="F55">
-        <v>37.45</v>
+        <v>35.39</v>
       </c>
       <c r="G55">
-        <v>42.27</v>
+        <v>43.52</v>
       </c>
       <c r="H55">
-        <v>37.93</v>
+        <v>36.21</v>
       </c>
       <c r="I55">
         <v>196</v>
@@ -4240,34 +4177,34 @@
         <v>195</v>
       </c>
       <c r="L55">
-        <v>39.37</v>
+        <v>38.7</v>
       </c>
       <c r="M55">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N55">
-        <v>0.04</v>
+        <v>0.16</v>
       </c>
       <c r="O55">
         <v>10</v>
       </c>
       <c r="P55">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="Q55" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="R55" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="S55" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="T55" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="U55" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="56" spans="1:21">
@@ -4278,22 +4215,22 @@
         <v>74</v>
       </c>
       <c r="C56">
-        <v>49.63</v>
+        <v>47.97</v>
       </c>
       <c r="D56">
-        <v>48.78</v>
+        <v>47.02</v>
       </c>
       <c r="E56">
-        <v>47.95</v>
+        <v>48.06</v>
       </c>
       <c r="F56">
-        <v>38.09</v>
+        <v>37.2</v>
       </c>
       <c r="G56">
-        <v>41.69</v>
+        <v>41.07</v>
       </c>
       <c r="H56">
-        <v>38.35</v>
+        <v>37.98</v>
       </c>
       <c r="I56">
         <v>196</v>
@@ -4305,10 +4242,10 @@
         <v>195</v>
       </c>
       <c r="L56">
-        <v>39.48</v>
+        <v>38.85</v>
       </c>
       <c r="M56">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="N56">
         <v>0.06</v>
@@ -4317,22 +4254,22 @@
         <v>10</v>
       </c>
       <c r="P56">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="Q56" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="R56" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="S56" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="T56" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="U56" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="57" spans="1:21">
@@ -4343,22 +4280,22 @@
         <v>75</v>
       </c>
       <c r="C57">
-        <v>49.81</v>
+        <v>48.41</v>
       </c>
       <c r="D57">
-        <v>48.14</v>
+        <v>48.88</v>
       </c>
       <c r="E57">
-        <v>48.63</v>
+        <v>49.42</v>
       </c>
       <c r="F57">
-        <v>37.55</v>
+        <v>38.91</v>
       </c>
       <c r="G57">
-        <v>40.99</v>
+        <v>40.15</v>
       </c>
       <c r="H57">
-        <v>39.71</v>
+        <v>37.67</v>
       </c>
       <c r="I57">
         <v>196</v>
@@ -4370,13 +4307,13 @@
         <v>195</v>
       </c>
       <c r="L57">
-        <v>39.49</v>
+        <v>38.96</v>
       </c>
       <c r="M57">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="N57">
-        <v>0.15</v>
+        <v>0.04</v>
       </c>
       <c r="O57">
         <v>10</v>
@@ -4385,19 +4322,19 @@
         <v>8</v>
       </c>
       <c r="Q57" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="R57" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="S57" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="T57" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="U57" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="58" spans="1:21">
@@ -4408,54 +4345,60 @@
         <v>76</v>
       </c>
       <c r="C58">
-        <v>34.65</v>
+        <v>49.17</v>
       </c>
       <c r="D58">
-        <v>32.06</v>
+        <v>48.57</v>
       </c>
       <c r="E58">
-        <v>47.18</v>
+        <v>49.37</v>
       </c>
       <c r="F58">
-        <v>42.96</v>
+        <v>38.07</v>
       </c>
       <c r="G58">
-        <v>29.23</v>
+        <v>40.94</v>
       </c>
       <c r="H58">
-        <v>39.67</v>
+        <v>37.66</v>
       </c>
       <c r="I58">
-        <v>2</v>
+        <v>196</v>
       </c>
       <c r="J58">
-        <v>8</v>
+        <v>213</v>
       </c>
       <c r="K58">
-        <v>594</v>
+        <v>195</v>
       </c>
       <c r="L58">
-        <v>39.56</v>
+        <v>38.98</v>
       </c>
       <c r="M58">
         <v>15</v>
       </c>
       <c r="N58">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="O58">
         <v>10</v>
       </c>
       <c r="P58">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="Q58" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="R58" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="S58" t="s">
+        <v>121</v>
+      </c>
+      <c r="T58" t="s">
+        <v>128</v>
+      </c>
+      <c r="U58" t="s">
         <v>131</v>
       </c>
     </row>
@@ -4467,61 +4410,61 @@
         <v>77</v>
       </c>
       <c r="C59">
-        <v>48.66</v>
+        <v>24.34</v>
       </c>
       <c r="D59">
-        <v>47.21</v>
+        <v>36.29</v>
       </c>
       <c r="E59">
-        <v>48.32</v>
+        <v>47.7</v>
       </c>
       <c r="F59">
-        <v>39.91</v>
+        <v>23.97</v>
       </c>
       <c r="G59">
-        <v>42.58</v>
+        <v>23.79</v>
       </c>
       <c r="H59">
-        <v>35.76</v>
+        <v>39.23</v>
       </c>
       <c r="I59">
-        <v>196</v>
+        <v>2</v>
       </c>
       <c r="J59">
-        <v>213</v>
+        <v>8</v>
       </c>
       <c r="K59">
-        <v>195</v>
+        <v>594</v>
       </c>
       <c r="L59">
-        <v>39.61</v>
+        <v>39.02</v>
       </c>
       <c r="M59">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N59">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="O59">
         <v>10</v>
       </c>
       <c r="P59">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="Q59" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="R59" t="s">
         <v>126</v>
       </c>
       <c r="S59" t="s">
+        <v>127</v>
+      </c>
+      <c r="T59" t="s">
+        <v>128</v>
+      </c>
+      <c r="U59" t="s">
         <v>131</v>
-      </c>
-      <c r="T59" t="s">
-        <v>133</v>
-      </c>
-      <c r="U59" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="60" spans="1:21">
@@ -4532,22 +4475,22 @@
         <v>78</v>
       </c>
       <c r="C60">
-        <v>48.96</v>
+        <v>49.95</v>
       </c>
       <c r="D60">
-        <v>47.45</v>
+        <v>46.78</v>
       </c>
       <c r="E60">
-        <v>48.19</v>
+        <v>48.88</v>
       </c>
       <c r="F60">
-        <v>39.95</v>
+        <v>39.07</v>
       </c>
       <c r="G60">
-        <v>40.5</v>
+        <v>39.27</v>
       </c>
       <c r="H60">
-        <v>38.39</v>
+        <v>39.5</v>
       </c>
       <c r="I60">
         <v>196</v>
@@ -4559,34 +4502,34 @@
         <v>195</v>
       </c>
       <c r="L60">
-        <v>39.65</v>
+        <v>39.28</v>
       </c>
       <c r="M60">
         <v>30</v>
       </c>
       <c r="N60">
-        <v>0.07000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="O60">
         <v>10</v>
       </c>
       <c r="P60">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q60" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="R60" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="S60" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="T60" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="U60" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="61" spans="1:21">
@@ -4597,22 +4540,22 @@
         <v>79</v>
       </c>
       <c r="C61">
-        <v>49.65</v>
+        <v>49.22</v>
       </c>
       <c r="D61">
-        <v>47.78</v>
+        <v>47.08</v>
       </c>
       <c r="E61">
-        <v>48.53</v>
+        <v>49.78</v>
       </c>
       <c r="F61">
-        <v>37.26</v>
+        <v>36.15</v>
       </c>
       <c r="G61">
-        <v>43.54</v>
+        <v>43.16</v>
       </c>
       <c r="H61">
-        <v>37.73</v>
+        <v>37.87</v>
       </c>
       <c r="I61">
         <v>196</v>
@@ -4624,34 +4567,34 @@
         <v>195</v>
       </c>
       <c r="L61">
-        <v>39.73</v>
+        <v>39.3</v>
       </c>
       <c r="M61">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="N61">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="O61">
         <v>10</v>
       </c>
       <c r="P61">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="Q61" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="R61" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="S61" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="T61" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="U61" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="62" spans="1:21">
@@ -4662,22 +4605,22 @@
         <v>80</v>
       </c>
       <c r="C62">
-        <v>49.26</v>
+        <v>50.01</v>
       </c>
       <c r="D62">
-        <v>48.31</v>
+        <v>49.38</v>
       </c>
       <c r="E62">
-        <v>47.03</v>
+        <v>49.32</v>
       </c>
       <c r="F62">
-        <v>39.84</v>
+        <v>37.49</v>
       </c>
       <c r="G62">
-        <v>42.92</v>
+        <v>42.11</v>
       </c>
       <c r="H62">
-        <v>35.9</v>
+        <v>37.88</v>
       </c>
       <c r="I62">
         <v>196</v>
@@ -4689,34 +4632,34 @@
         <v>195</v>
       </c>
       <c r="L62">
-        <v>39.76</v>
+        <v>39.31</v>
       </c>
       <c r="M62">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N62">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="O62">
         <v>10</v>
       </c>
       <c r="P62">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Q62" t="s">
+        <v>124</v>
+      </c>
+      <c r="R62" t="s">
         <v>125</v>
       </c>
-      <c r="R62" t="s">
-        <v>129</v>
-      </c>
       <c r="S62" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="T62" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="U62" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="63" spans="1:21">
@@ -4727,22 +4670,22 @@
         <v>81</v>
       </c>
       <c r="C63">
-        <v>49.82</v>
+        <v>49.57</v>
       </c>
       <c r="D63">
-        <v>47.72</v>
+        <v>49.96</v>
       </c>
       <c r="E63">
-        <v>48.68</v>
+        <v>45.56</v>
       </c>
       <c r="F63">
-        <v>37.55</v>
+        <v>42.24</v>
       </c>
       <c r="G63">
-        <v>43.29</v>
+        <v>39.41</v>
       </c>
       <c r="H63">
-        <v>37.97</v>
+        <v>36.04</v>
       </c>
       <c r="I63">
         <v>196</v>
@@ -4754,34 +4697,34 @@
         <v>195</v>
       </c>
       <c r="L63">
-        <v>39.8</v>
+        <v>39.32</v>
       </c>
       <c r="M63">
         <v>15</v>
       </c>
       <c r="N63">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="O63">
         <v>10</v>
       </c>
       <c r="P63">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="Q63" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="R63" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="S63" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="T63" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="U63" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="64" spans="1:21">
@@ -4792,22 +4735,22 @@
         <v>82</v>
       </c>
       <c r="C64">
-        <v>49.82</v>
+        <v>50.11</v>
       </c>
       <c r="D64">
-        <v>48.08</v>
+        <v>47</v>
       </c>
       <c r="E64">
-        <v>48.7</v>
+        <v>49.01</v>
       </c>
       <c r="F64">
-        <v>36.91</v>
+        <v>36.85</v>
       </c>
       <c r="G64">
-        <v>44</v>
+        <v>43.26</v>
       </c>
       <c r="H64">
-        <v>37.88</v>
+        <v>37.38</v>
       </c>
       <c r="I64">
         <v>196</v>
@@ -4819,34 +4762,34 @@
         <v>195</v>
       </c>
       <c r="L64">
-        <v>39.85</v>
+        <v>39.39</v>
       </c>
       <c r="M64">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N64">
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
       <c r="O64">
         <v>10</v>
       </c>
       <c r="P64">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="Q64" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="R64" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="S64" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="T64" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="U64" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="65" spans="1:21">
@@ -4857,22 +4800,22 @@
         <v>83</v>
       </c>
       <c r="C65">
-        <v>39.44</v>
+        <v>24.59</v>
       </c>
       <c r="D65">
-        <v>34.7</v>
+        <v>33.88</v>
       </c>
       <c r="E65">
-        <v>47.7</v>
+        <v>47.33</v>
       </c>
       <c r="F65">
-        <v>19.31</v>
+        <v>16.99</v>
       </c>
       <c r="G65">
         <v>15.85</v>
       </c>
       <c r="H65">
-        <v>40.18</v>
+        <v>39.7</v>
       </c>
       <c r="I65">
         <v>2</v>
@@ -4884,28 +4827,28 @@
         <v>594</v>
       </c>
       <c r="L65">
-        <v>39.91</v>
+        <v>39.42</v>
       </c>
       <c r="M65">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="N65">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="O65">
         <v>10</v>
       </c>
       <c r="P65">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Q65" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="R65" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="S65" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="66" spans="1:21">
@@ -4916,22 +4859,22 @@
         <v>84</v>
       </c>
       <c r="C66">
-        <v>49.86</v>
+        <v>50.02</v>
       </c>
       <c r="D66">
-        <v>48.51</v>
+        <v>48.89</v>
       </c>
       <c r="E66">
-        <v>49.01</v>
+        <v>49.19</v>
       </c>
       <c r="F66">
-        <v>37.2</v>
+        <v>37.66</v>
       </c>
       <c r="G66">
-        <v>43.97</v>
+        <v>41.34</v>
       </c>
       <c r="H66">
-        <v>37.9</v>
+        <v>39.14</v>
       </c>
       <c r="I66">
         <v>196</v>
@@ -4943,10 +4886,10 @@
         <v>195</v>
       </c>
       <c r="L66">
-        <v>39.93</v>
+        <v>39.47</v>
       </c>
       <c r="M66">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="N66">
         <v>0.07000000000000001</v>
@@ -4955,22 +4898,22 @@
         <v>10</v>
       </c>
       <c r="P66">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q66" t="s">
+        <v>124</v>
+      </c>
+      <c r="R66" t="s">
         <v>125</v>
       </c>
-      <c r="R66" t="s">
-        <v>129</v>
-      </c>
       <c r="S66" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="T66" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="U66" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="67" spans="1:21">
@@ -4981,22 +4924,22 @@
         <v>85</v>
       </c>
       <c r="C67">
-        <v>49.87</v>
+        <v>49.69</v>
       </c>
       <c r="D67">
-        <v>48.52</v>
+        <v>47.66</v>
       </c>
       <c r="E67">
-        <v>49.01</v>
+        <v>49.12</v>
       </c>
       <c r="F67">
-        <v>37.2</v>
+        <v>38.46</v>
       </c>
       <c r="G67">
-        <v>43.96</v>
+        <v>41.57</v>
       </c>
       <c r="H67">
-        <v>37.9</v>
+        <v>38.49</v>
       </c>
       <c r="I67">
         <v>196</v>
@@ -5008,34 +4951,34 @@
         <v>195</v>
       </c>
       <c r="L67">
-        <v>39.93</v>
+        <v>39.6</v>
       </c>
       <c r="M67">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="N67">
-        <v>0.12</v>
+        <v>0.04</v>
       </c>
       <c r="O67">
         <v>10</v>
       </c>
       <c r="P67">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="Q67" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="R67" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="S67" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="T67" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="U67" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="68" spans="1:21">
@@ -5046,22 +4989,22 @@
         <v>86</v>
       </c>
       <c r="C68">
-        <v>48.54</v>
+        <v>49.31</v>
       </c>
       <c r="D68">
-        <v>46.85</v>
+        <v>47.49</v>
       </c>
       <c r="E68">
-        <v>47.51</v>
+        <v>48.6</v>
       </c>
       <c r="F68">
-        <v>38.81</v>
+        <v>38.52</v>
       </c>
       <c r="G68">
-        <v>41.51</v>
+        <v>40.67</v>
       </c>
       <c r="H68">
-        <v>39.37</v>
+        <v>39.6</v>
       </c>
       <c r="I68">
         <v>196</v>
@@ -5073,34 +5016,34 @@
         <v>195</v>
       </c>
       <c r="L68">
-        <v>39.96</v>
+        <v>39.64</v>
       </c>
       <c r="M68">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N68">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="O68">
         <v>10</v>
       </c>
       <c r="P68">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="Q68" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="R68" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="S68" t="s">
+        <v>123</v>
+      </c>
+      <c r="T68" t="s">
+        <v>128</v>
+      </c>
+      <c r="U68" t="s">
         <v>131</v>
-      </c>
-      <c r="T68" t="s">
-        <v>133</v>
-      </c>
-      <c r="U68" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="69" spans="1:21">
@@ -5111,22 +5054,22 @@
         <v>87</v>
       </c>
       <c r="C69">
-        <v>49.69</v>
+        <v>50.43</v>
       </c>
       <c r="D69">
-        <v>48.74</v>
+        <v>47.27</v>
       </c>
       <c r="E69">
-        <v>48.73</v>
+        <v>49.16</v>
       </c>
       <c r="F69">
-        <v>37.53</v>
+        <v>37.66</v>
       </c>
       <c r="G69">
-        <v>43.81</v>
+        <v>42.68</v>
       </c>
       <c r="H69">
-        <v>37.89</v>
+        <v>38.53</v>
       </c>
       <c r="I69">
         <v>196</v>
@@ -5138,13 +5081,13 @@
         <v>195</v>
       </c>
       <c r="L69">
-        <v>39.97</v>
+        <v>39.77</v>
       </c>
       <c r="M69">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="N69">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="O69">
         <v>10</v>
@@ -5153,19 +5096,19 @@
         <v>6</v>
       </c>
       <c r="Q69" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="R69" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="S69" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="T69" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="U69" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="70" spans="1:21">
@@ -5176,61 +5119,61 @@
         <v>88</v>
       </c>
       <c r="C70">
-        <v>38.74</v>
+        <v>49.33</v>
       </c>
       <c r="D70">
-        <v>34.2</v>
+        <v>47.65</v>
       </c>
       <c r="E70">
-        <v>47.3</v>
+        <v>46.42</v>
       </c>
       <c r="F70">
-        <v>5.08</v>
+        <v>38.65</v>
       </c>
       <c r="G70">
-        <v>29.31</v>
+        <v>43.3</v>
       </c>
       <c r="H70">
-        <v>40.19</v>
+        <v>36.98</v>
       </c>
       <c r="I70">
-        <v>2</v>
+        <v>196</v>
       </c>
       <c r="J70">
-        <v>8</v>
+        <v>213</v>
       </c>
       <c r="K70">
-        <v>594</v>
+        <v>195</v>
       </c>
       <c r="L70">
-        <v>40</v>
+        <v>39.84</v>
       </c>
       <c r="M70">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="N70">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="O70">
         <v>10</v>
       </c>
       <c r="P70">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="Q70" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="R70" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="S70" t="s">
+        <v>122</v>
+      </c>
+      <c r="T70" t="s">
+        <v>128</v>
+      </c>
+      <c r="U70" t="s">
         <v>132</v>
-      </c>
-      <c r="T70" t="s">
-        <v>133</v>
-      </c>
-      <c r="U70" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="71" spans="1:21">
@@ -5241,22 +5184,22 @@
         <v>89</v>
       </c>
       <c r="C71">
-        <v>49.99</v>
+        <v>49.6</v>
       </c>
       <c r="D71">
-        <v>48.37</v>
+        <v>48.65</v>
       </c>
       <c r="E71">
-        <v>49.02</v>
+        <v>48.27</v>
       </c>
       <c r="F71">
-        <v>37.23</v>
+        <v>39.34</v>
       </c>
       <c r="G71">
-        <v>44.07</v>
+        <v>42.03</v>
       </c>
       <c r="H71">
-        <v>38.01</v>
+        <v>37.86</v>
       </c>
       <c r="I71">
         <v>196</v>
@@ -5268,34 +5211,34 @@
         <v>195</v>
       </c>
       <c r="L71">
-        <v>40.02</v>
+        <v>39.85</v>
       </c>
       <c r="M71">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="N71">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="O71">
         <v>10</v>
       </c>
       <c r="P71">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Q71" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="R71" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="S71" t="s">
+        <v>120</v>
+      </c>
+      <c r="T71" t="s">
+        <v>128</v>
+      </c>
+      <c r="U71" t="s">
         <v>131</v>
-      </c>
-      <c r="T71" t="s">
-        <v>133</v>
-      </c>
-      <c r="U71" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="72" spans="1:21">
@@ -5306,22 +5249,22 @@
         <v>90</v>
       </c>
       <c r="C72">
-        <v>48.98</v>
+        <v>50.06</v>
       </c>
       <c r="D72">
-        <v>48.55</v>
+        <v>48.14</v>
       </c>
       <c r="E72">
-        <v>47.04</v>
+        <v>49.9</v>
       </c>
       <c r="F72">
-        <v>39.32</v>
+        <v>37.21</v>
       </c>
       <c r="G72">
-        <v>43.67</v>
+        <v>43.96</v>
       </c>
       <c r="H72">
-        <v>36.4</v>
+        <v>37.91</v>
       </c>
       <c r="I72">
         <v>196</v>
@@ -5333,34 +5276,34 @@
         <v>195</v>
       </c>
       <c r="L72">
-        <v>40.03</v>
+        <v>39.93</v>
       </c>
       <c r="M72">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="N72">
-        <v>0.04</v>
+        <v>0.12</v>
       </c>
       <c r="O72">
         <v>10</v>
       </c>
       <c r="P72">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q72" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="R72" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="S72" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="T72" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="U72" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="73" spans="1:21">
@@ -5371,22 +5314,22 @@
         <v>91</v>
       </c>
       <c r="C73">
-        <v>49.96</v>
+        <v>50.05</v>
       </c>
       <c r="D73">
-        <v>48.19</v>
+        <v>48.13</v>
       </c>
       <c r="E73">
-        <v>48.86</v>
+        <v>49.9</v>
       </c>
       <c r="F73">
-        <v>37.24</v>
+        <v>37.21</v>
       </c>
       <c r="G73">
-        <v>44.1</v>
+        <v>43.97</v>
       </c>
       <c r="H73">
-        <v>38.01</v>
+        <v>37.91</v>
       </c>
       <c r="I73">
         <v>196</v>
@@ -5398,34 +5341,34 @@
         <v>195</v>
       </c>
       <c r="L73">
-        <v>40.03</v>
+        <v>39.94</v>
       </c>
       <c r="M73">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="N73">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="O73">
         <v>10</v>
       </c>
       <c r="P73">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="Q73" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="R73" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="S73" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="T73" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="U73" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="74" spans="1:21">
@@ -5436,22 +5379,22 @@
         <v>92</v>
       </c>
       <c r="C74">
-        <v>49.76</v>
+        <v>51.3</v>
       </c>
       <c r="D74">
-        <v>48.59</v>
+        <v>50.72</v>
       </c>
       <c r="E74">
-        <v>48.9</v>
+        <v>46.95</v>
       </c>
       <c r="F74">
-        <v>37.37</v>
+        <v>47.68</v>
       </c>
       <c r="G74">
-        <v>43.95</v>
+        <v>32.39</v>
       </c>
       <c r="H74">
-        <v>38.08</v>
+        <v>38.92</v>
       </c>
       <c r="I74">
         <v>196</v>
@@ -5463,13 +5406,13 @@
         <v>195</v>
       </c>
       <c r="L74">
-        <v>40.03</v>
+        <v>39.96</v>
       </c>
       <c r="M74">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="N74">
-        <v>0.12</v>
+        <v>0.16</v>
       </c>
       <c r="O74">
         <v>10</v>
@@ -5478,19 +5421,19 @@
         <v>15</v>
       </c>
       <c r="Q74" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="R74" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="S74" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="T74" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="U74" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="75" spans="1:21">
@@ -5501,22 +5444,22 @@
         <v>93</v>
       </c>
       <c r="C75">
-        <v>49.99</v>
+        <v>50.06</v>
       </c>
       <c r="D75">
-        <v>48.33</v>
+        <v>46.81</v>
       </c>
       <c r="E75">
-        <v>48.98</v>
+        <v>48.14</v>
       </c>
       <c r="F75">
-        <v>37.29</v>
+        <v>38.47</v>
       </c>
       <c r="G75">
-        <v>44.12</v>
+        <v>43.38</v>
       </c>
       <c r="H75">
-        <v>38.15</v>
+        <v>37.51</v>
       </c>
       <c r="I75">
         <v>196</v>
@@ -5528,34 +5471,34 @@
         <v>195</v>
       </c>
       <c r="L75">
-        <v>40.09</v>
+        <v>39.98</v>
       </c>
       <c r="M75">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="N75">
-        <v>0.18</v>
+        <v>0.05</v>
       </c>
       <c r="O75">
         <v>10</v>
       </c>
       <c r="P75">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="Q75" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="R75" t="s">
+        <v>126</v>
+      </c>
+      <c r="S75" t="s">
         <v>127</v>
       </c>
-      <c r="S75" t="s">
-        <v>125</v>
-      </c>
       <c r="T75" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="U75" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="76" spans="1:21">
@@ -5566,22 +5509,22 @@
         <v>94</v>
       </c>
       <c r="C76">
-        <v>49.74</v>
+        <v>50.23</v>
       </c>
       <c r="D76">
-        <v>48.62</v>
+        <v>48.07</v>
       </c>
       <c r="E76">
-        <v>48.81</v>
+        <v>49.59</v>
       </c>
       <c r="F76">
-        <v>37.49</v>
+        <v>37.13</v>
       </c>
       <c r="G76">
-        <v>43.96</v>
+        <v>44.12</v>
       </c>
       <c r="H76">
-        <v>38.25</v>
+        <v>38.02</v>
       </c>
       <c r="I76">
         <v>196</v>
@@ -5593,34 +5536,34 @@
         <v>195</v>
       </c>
       <c r="L76">
-        <v>40.12</v>
+        <v>40</v>
       </c>
       <c r="M76">
         <v>35</v>
       </c>
       <c r="N76">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="O76">
         <v>10</v>
       </c>
       <c r="P76">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="Q76" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="R76" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="S76" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="T76" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="U76" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="77" spans="1:21">
@@ -5631,22 +5574,22 @@
         <v>95</v>
       </c>
       <c r="C77">
-        <v>50.02</v>
+        <v>50.32</v>
       </c>
       <c r="D77">
-        <v>48.32</v>
+        <v>48.08</v>
       </c>
       <c r="E77">
-        <v>48.97</v>
+        <v>49.61</v>
       </c>
       <c r="F77">
-        <v>37.33</v>
+        <v>37.21</v>
       </c>
       <c r="G77">
-        <v>44.15</v>
+        <v>44.07</v>
       </c>
       <c r="H77">
-        <v>38.14</v>
+        <v>38</v>
       </c>
       <c r="I77">
         <v>196</v>
@@ -5658,34 +5601,34 @@
         <v>195</v>
       </c>
       <c r="L77">
-        <v>40.12</v>
+        <v>40.01</v>
       </c>
       <c r="M77">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N77">
-        <v>0.09</v>
+        <v>0.03</v>
       </c>
       <c r="O77">
         <v>10</v>
       </c>
       <c r="P77">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Q77" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="R77" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="S77" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="T77" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="U77" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="78" spans="1:21">
@@ -5696,22 +5639,22 @@
         <v>96</v>
       </c>
       <c r="C78">
-        <v>51.02</v>
+        <v>50</v>
       </c>
       <c r="D78">
-        <v>50.09</v>
+        <v>48.39</v>
       </c>
       <c r="E78">
-        <v>49.77</v>
+        <v>48.66</v>
       </c>
       <c r="F78">
-        <v>42.89</v>
+        <v>37.56</v>
       </c>
       <c r="G78">
-        <v>39.41</v>
+        <v>42.26</v>
       </c>
       <c r="H78">
-        <v>38.03</v>
+        <v>39.93</v>
       </c>
       <c r="I78">
         <v>196</v>
@@ -5723,34 +5666,34 @@
         <v>195</v>
       </c>
       <c r="L78">
-        <v>40.14</v>
+        <v>40.03</v>
       </c>
       <c r="M78">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="N78">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="O78">
         <v>10</v>
       </c>
       <c r="P78">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Q78" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="R78" t="s">
+        <v>121</v>
+      </c>
+      <c r="S78" t="s">
+        <v>120</v>
+      </c>
+      <c r="T78" t="s">
+        <v>128</v>
+      </c>
+      <c r="U78" t="s">
         <v>131</v>
-      </c>
-      <c r="S78" t="s">
-        <v>132</v>
-      </c>
-      <c r="T78" t="s">
-        <v>133</v>
-      </c>
-      <c r="U78" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="79" spans="1:21">
@@ -5761,22 +5704,22 @@
         <v>97</v>
       </c>
       <c r="C79">
-        <v>47.93</v>
+        <v>49.83</v>
       </c>
       <c r="D79">
-        <v>48.4</v>
+        <v>48.18</v>
       </c>
       <c r="E79">
-        <v>46.82</v>
+        <v>49.96</v>
       </c>
       <c r="F79">
-        <v>39.47</v>
+        <v>37.41</v>
       </c>
       <c r="G79">
-        <v>42.77</v>
+        <v>43.95</v>
       </c>
       <c r="H79">
-        <v>37.86</v>
+        <v>38.1</v>
       </c>
       <c r="I79">
         <v>196</v>
@@ -5788,34 +5731,34 @@
         <v>195</v>
       </c>
       <c r="L79">
-        <v>40.17</v>
+        <v>40.05</v>
       </c>
       <c r="M79">
+        <v>50</v>
+      </c>
+      <c r="N79">
+        <v>0.12</v>
+      </c>
+      <c r="O79">
+        <v>10</v>
+      </c>
+      <c r="P79">
         <v>15</v>
       </c>
-      <c r="N79">
-        <v>0.13</v>
-      </c>
-      <c r="O79">
-        <v>10</v>
-      </c>
-      <c r="P79">
-        <v>12</v>
-      </c>
       <c r="Q79" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="R79" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="S79" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="T79" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="U79" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="80" spans="1:21">
@@ -5826,22 +5769,22 @@
         <v>98</v>
       </c>
       <c r="C80">
-        <v>49.94</v>
+        <v>49.42</v>
       </c>
       <c r="D80">
-        <v>48.38</v>
+        <v>47.03</v>
       </c>
       <c r="E80">
-        <v>49.02</v>
+        <v>49.23</v>
       </c>
       <c r="F80">
-        <v>37.46</v>
+        <v>37.33</v>
       </c>
       <c r="G80">
-        <v>44</v>
+        <v>43.67</v>
       </c>
       <c r="H80">
-        <v>38.43</v>
+        <v>38.58</v>
       </c>
       <c r="I80">
         <v>196</v>
@@ -5853,34 +5796,34 @@
         <v>195</v>
       </c>
       <c r="L80">
-        <v>40.19</v>
+        <v>40.06</v>
       </c>
       <c r="M80">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="N80">
-        <v>0.19</v>
+        <v>0.12</v>
       </c>
       <c r="O80">
         <v>10</v>
       </c>
       <c r="P80">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="Q80" t="s">
         <v>125</v>
       </c>
       <c r="R80" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="S80" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="T80" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="U80" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="81" spans="1:21">
@@ -5891,22 +5834,22 @@
         <v>99</v>
       </c>
       <c r="C81">
-        <v>50.64</v>
+        <v>50.34</v>
       </c>
       <c r="D81">
-        <v>49.97</v>
+        <v>48.07</v>
       </c>
       <c r="E81">
-        <v>49.34</v>
+        <v>49.49</v>
       </c>
       <c r="F81">
-        <v>41.75</v>
+        <v>37.25</v>
       </c>
       <c r="G81">
-        <v>40.92</v>
+        <v>44.12</v>
       </c>
       <c r="H81">
-        <v>37.95</v>
+        <v>38.15</v>
       </c>
       <c r="I81">
         <v>196</v>
@@ -5918,34 +5861,34 @@
         <v>195</v>
       </c>
       <c r="L81">
-        <v>40.26</v>
+        <v>40.08</v>
       </c>
       <c r="M81">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="N81">
-        <v>0.06</v>
+        <v>0.18</v>
       </c>
       <c r="O81">
         <v>10</v>
       </c>
       <c r="P81">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="Q81" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="R81" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="S81" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="T81" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="U81" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="82" spans="1:21">
@@ -5956,22 +5899,22 @@
         <v>100</v>
       </c>
       <c r="C82">
-        <v>48.52</v>
+        <v>50.17</v>
       </c>
       <c r="D82">
-        <v>48.22</v>
+        <v>48.13</v>
       </c>
       <c r="E82">
-        <v>46.41</v>
+        <v>49.48</v>
       </c>
       <c r="F82">
-        <v>40.68</v>
+        <v>37.37</v>
       </c>
       <c r="G82">
-        <v>43.65</v>
+        <v>43.99</v>
       </c>
       <c r="H82">
-        <v>35.76</v>
+        <v>38.25</v>
       </c>
       <c r="I82">
         <v>196</v>
@@ -5983,34 +5926,34 @@
         <v>195</v>
       </c>
       <c r="L82">
-        <v>40.27</v>
+        <v>40.1</v>
       </c>
       <c r="M82">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N82">
-        <v>0.04</v>
+        <v>0.19</v>
       </c>
       <c r="O82">
         <v>10</v>
       </c>
       <c r="P82">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="Q82" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="R82" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="S82" t="s">
+        <v>123</v>
+      </c>
+      <c r="T82" t="s">
+        <v>128</v>
+      </c>
+      <c r="U82" t="s">
         <v>131</v>
-      </c>
-      <c r="T82" t="s">
-        <v>133</v>
-      </c>
-      <c r="U82" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="83" spans="1:21">
@@ -6021,22 +5964,22 @@
         <v>101</v>
       </c>
       <c r="C83">
-        <v>49.77</v>
+        <v>50.35</v>
       </c>
       <c r="D83">
-        <v>49.75</v>
+        <v>48.07</v>
       </c>
       <c r="E83">
-        <v>48.09</v>
+        <v>49.52</v>
       </c>
       <c r="F83">
-        <v>39.92</v>
+        <v>37.32</v>
       </c>
       <c r="G83">
-        <v>44.01</v>
+        <v>44.15</v>
       </c>
       <c r="H83">
-        <v>36.32</v>
+        <v>38.12</v>
       </c>
       <c r="I83">
         <v>196</v>
@@ -6048,34 +5991,34 @@
         <v>195</v>
       </c>
       <c r="L83">
-        <v>40.32</v>
+        <v>40.11</v>
       </c>
       <c r="M83">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N83">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="O83">
         <v>10</v>
       </c>
       <c r="P83">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="Q83" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="R83" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="S83" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="T83" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="U83" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="84" spans="1:21">
@@ -6086,55 +6029,61 @@
         <v>102</v>
       </c>
       <c r="C84">
-        <v>36.38</v>
+        <v>51.1</v>
       </c>
       <c r="D84">
-        <v>33.87</v>
+        <v>50.14</v>
       </c>
       <c r="E84">
-        <v>46.53</v>
+        <v>49.18</v>
       </c>
       <c r="F84">
-        <v>9.6</v>
+        <v>42.95</v>
       </c>
       <c r="G84">
-        <v>23.27</v>
+        <v>39.25</v>
       </c>
       <c r="H84">
-        <v>40.58</v>
+        <v>38.03</v>
       </c>
       <c r="I84">
-        <v>2</v>
+        <v>196</v>
       </c>
       <c r="J84">
-        <v>8</v>
+        <v>213</v>
       </c>
       <c r="K84">
-        <v>594</v>
+        <v>195</v>
       </c>
       <c r="L84">
-        <v>40.33</v>
+        <v>40.11</v>
       </c>
       <c r="M84">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="N84">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="O84">
         <v>10</v>
       </c>
       <c r="P84">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="Q84" t="s">
+        <v>123</v>
+      </c>
+      <c r="R84" t="s">
+        <v>126</v>
+      </c>
+      <c r="S84" t="s">
         <v>127</v>
       </c>
-      <c r="R84" t="s">
-        <v>125</v>
-      </c>
-      <c r="S84" t="s">
-        <v>129</v>
+      <c r="T84" t="s">
+        <v>128</v>
+      </c>
+      <c r="U84" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="85" spans="1:21">
@@ -6145,22 +6094,22 @@
         <v>103</v>
       </c>
       <c r="C85">
-        <v>48.85</v>
+        <v>49.47</v>
       </c>
       <c r="D85">
-        <v>47.02</v>
+        <v>47.95</v>
       </c>
       <c r="E85">
-        <v>47.34</v>
+        <v>45.94</v>
       </c>
       <c r="F85">
-        <v>38.55</v>
+        <v>40.15</v>
       </c>
       <c r="G85">
-        <v>43.72</v>
+        <v>43.47</v>
       </c>
       <c r="H85">
-        <v>38.36</v>
+        <v>36.02</v>
       </c>
       <c r="I85">
         <v>196</v>
@@ -6172,13 +6121,13 @@
         <v>195</v>
       </c>
       <c r="L85">
-        <v>40.39</v>
+        <v>40.11</v>
       </c>
       <c r="M85">
         <v>20</v>
       </c>
       <c r="N85">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="O85">
         <v>10</v>
@@ -6187,19 +6136,19 @@
         <v>7</v>
       </c>
       <c r="Q85" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="R85" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="S85" t="s">
+        <v>123</v>
+      </c>
+      <c r="T85" t="s">
+        <v>128</v>
+      </c>
+      <c r="U85" t="s">
         <v>132</v>
-      </c>
-      <c r="T85" t="s">
-        <v>133</v>
-      </c>
-      <c r="U85" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="86" spans="1:21">
@@ -6210,22 +6159,22 @@
         <v>104</v>
       </c>
       <c r="C86">
-        <v>49.9</v>
+        <v>49.76</v>
       </c>
       <c r="D86">
-        <v>48.24</v>
+        <v>48.19</v>
       </c>
       <c r="E86">
-        <v>48.41</v>
+        <v>49.98</v>
       </c>
       <c r="F86">
-        <v>39.83</v>
+        <v>37.52</v>
       </c>
       <c r="G86">
-        <v>42.78</v>
+        <v>43.96</v>
       </c>
       <c r="H86">
-        <v>39.32</v>
+        <v>38.29</v>
       </c>
       <c r="I86">
         <v>196</v>
@@ -6237,34 +6186,34 @@
         <v>195</v>
       </c>
       <c r="L86">
-        <v>40.73</v>
+        <v>40.14</v>
       </c>
       <c r="M86">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N86">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="O86">
         <v>10</v>
       </c>
       <c r="P86">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="Q86" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="R86" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="S86" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="T86" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="U86" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="87" spans="1:21">
@@ -6275,55 +6224,61 @@
         <v>105</v>
       </c>
       <c r="C87">
-        <v>40.44</v>
+        <v>48.74</v>
       </c>
       <c r="D87">
-        <v>36.45</v>
+        <v>48.63</v>
       </c>
       <c r="E87">
-        <v>47.72</v>
+        <v>45.92</v>
       </c>
       <c r="F87">
-        <v>11.42</v>
+        <v>39.29</v>
       </c>
       <c r="G87">
-        <v>17.75</v>
+        <v>43.85</v>
       </c>
       <c r="H87">
-        <v>41.16</v>
+        <v>36.57</v>
       </c>
       <c r="I87">
-        <v>2</v>
+        <v>196</v>
       </c>
       <c r="J87">
-        <v>8</v>
+        <v>213</v>
       </c>
       <c r="K87">
-        <v>594</v>
+        <v>195</v>
       </c>
       <c r="L87">
-        <v>40.87</v>
+        <v>40.14</v>
       </c>
       <c r="M87">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="N87">
-        <v>0.18</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="O87">
         <v>10</v>
       </c>
       <c r="P87">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="Q87" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="R87" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="S87" t="s">
-        <v>131</v>
+        <v>123</v>
+      </c>
+      <c r="T87" t="s">
+        <v>128</v>
+      </c>
+      <c r="U87" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="88" spans="1:21">
@@ -6334,22 +6289,22 @@
         <v>106</v>
       </c>
       <c r="C88">
-        <v>49.4</v>
+        <v>35.7</v>
       </c>
       <c r="D88">
-        <v>49</v>
+        <v>31.98</v>
       </c>
       <c r="E88">
-        <v>47.83</v>
+        <v>36.23</v>
       </c>
       <c r="F88">
-        <v>39.78</v>
+        <v>37.64</v>
       </c>
       <c r="G88">
-        <v>44.04</v>
+        <v>44.51</v>
       </c>
       <c r="H88">
-        <v>38.29</v>
+        <v>37.48</v>
       </c>
       <c r="I88">
         <v>196</v>
@@ -6361,34 +6316,34 @@
         <v>195</v>
       </c>
       <c r="L88">
-        <v>40.88</v>
+        <v>40.15</v>
       </c>
       <c r="M88">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N88">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="O88">
         <v>10</v>
       </c>
       <c r="P88">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Q88" t="s">
+        <v>124</v>
+      </c>
+      <c r="R88" t="s">
         <v>125</v>
       </c>
-      <c r="R88" t="s">
-        <v>129</v>
-      </c>
       <c r="S88" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="T88" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="U88" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="89" spans="1:21">
@@ -6399,55 +6354,61 @@
         <v>107</v>
       </c>
       <c r="C89">
-        <v>39.96</v>
+        <v>49.47</v>
       </c>
       <c r="D89">
-        <v>34.43</v>
+        <v>47.76</v>
       </c>
       <c r="E89">
-        <v>47.36</v>
+        <v>45.97</v>
       </c>
       <c r="F89">
-        <v>16.17</v>
+        <v>39.88</v>
       </c>
       <c r="G89">
-        <v>15.62</v>
+        <v>43.61</v>
       </c>
       <c r="H89">
-        <v>41.23</v>
+        <v>36.28</v>
       </c>
       <c r="I89">
-        <v>2</v>
+        <v>196</v>
       </c>
       <c r="J89">
-        <v>8</v>
+        <v>213</v>
       </c>
       <c r="K89">
-        <v>594</v>
+        <v>195</v>
       </c>
       <c r="L89">
-        <v>40.93</v>
+        <v>40.15</v>
       </c>
       <c r="M89">
         <v>10</v>
       </c>
       <c r="N89">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="O89">
         <v>10</v>
       </c>
       <c r="P89">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="Q89" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="R89" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="S89" t="s">
-        <v>129</v>
+        <v>126</v>
+      </c>
+      <c r="T89" t="s">
+        <v>128</v>
+      </c>
+      <c r="U89" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="90" spans="1:21">
@@ -6458,22 +6419,22 @@
         <v>108</v>
       </c>
       <c r="C90">
-        <v>49.44</v>
+        <v>50.1</v>
       </c>
       <c r="D90">
-        <v>49</v>
+        <v>48.18</v>
       </c>
       <c r="E90">
-        <v>47.98</v>
+        <v>49.72</v>
       </c>
       <c r="F90">
-        <v>39.08</v>
+        <v>37.58</v>
       </c>
       <c r="G90">
-        <v>44.06</v>
+        <v>43.96</v>
       </c>
       <c r="H90">
-        <v>39.37</v>
+        <v>38.33</v>
       </c>
       <c r="I90">
         <v>196</v>
@@ -6485,34 +6446,34 @@
         <v>195</v>
       </c>
       <c r="L90">
-        <v>40.99</v>
+        <v>40.17</v>
       </c>
       <c r="M90">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="N90">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="O90">
         <v>10</v>
       </c>
       <c r="P90">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Q90" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="R90" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="S90" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="T90" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="U90" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="91" spans="1:21">
@@ -6523,22 +6484,22 @@
         <v>109</v>
       </c>
       <c r="C91">
-        <v>49.86</v>
+        <v>49.94</v>
       </c>
       <c r="D91">
-        <v>48.41</v>
+        <v>48.5</v>
       </c>
       <c r="E91">
-        <v>48.91</v>
+        <v>45.28</v>
       </c>
       <c r="F91">
-        <v>40.15</v>
+        <v>40.49</v>
       </c>
       <c r="G91">
-        <v>42.31</v>
+        <v>43.25</v>
       </c>
       <c r="H91">
-        <v>40.46</v>
+        <v>36.14</v>
       </c>
       <c r="I91">
         <v>196</v>
@@ -6550,34 +6511,34 @@
         <v>195</v>
       </c>
       <c r="L91">
-        <v>41.02</v>
+        <v>40.17</v>
       </c>
       <c r="M91">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="N91">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="O91">
         <v>10</v>
       </c>
       <c r="P91">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="Q91" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="R91" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="S91" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="T91" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="U91" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="92" spans="1:21">
@@ -6588,61 +6549,61 @@
         <v>110</v>
       </c>
       <c r="C92">
-        <v>49.63</v>
+        <v>22.84</v>
       </c>
       <c r="D92">
-        <v>47.79</v>
+        <v>36.37</v>
       </c>
       <c r="E92">
-        <v>48.49</v>
+        <v>47.28</v>
       </c>
       <c r="F92">
-        <v>38.58</v>
+        <v>21.4</v>
       </c>
       <c r="G92">
-        <v>44.46</v>
+        <v>21.88</v>
       </c>
       <c r="H92">
-        <v>39.99</v>
+        <v>40.43</v>
       </c>
       <c r="I92">
-        <v>196</v>
+        <v>2</v>
       </c>
       <c r="J92">
-        <v>213</v>
+        <v>8</v>
       </c>
       <c r="K92">
-        <v>195</v>
+        <v>594</v>
       </c>
       <c r="L92">
-        <v>41.19</v>
+        <v>40.19</v>
       </c>
       <c r="M92">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="N92">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="O92">
         <v>10</v>
       </c>
       <c r="P92">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q92" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="R92" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="S92" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="T92" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="U92" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="93" spans="1:21">
@@ -6653,22 +6614,22 @@
         <v>111</v>
       </c>
       <c r="C93">
-        <v>49.65</v>
+        <v>50.72</v>
       </c>
       <c r="D93">
-        <v>47.67</v>
+        <v>49.92</v>
       </c>
       <c r="E93">
-        <v>48.5</v>
+        <v>48.7</v>
       </c>
       <c r="F93">
-        <v>39.44</v>
+        <v>41.75</v>
       </c>
       <c r="G93">
-        <v>44.22</v>
+        <v>40.77</v>
       </c>
       <c r="H93">
-        <v>39.77</v>
+        <v>37.96</v>
       </c>
       <c r="I93">
         <v>196</v>
@@ -6680,34 +6641,34 @@
         <v>195</v>
       </c>
       <c r="L93">
-        <v>41.29</v>
+        <v>40.21</v>
       </c>
       <c r="M93">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N93">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
       <c r="O93">
         <v>10</v>
       </c>
       <c r="P93">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="Q93" t="s">
+        <v>123</v>
+      </c>
+      <c r="R93" t="s">
+        <v>126</v>
+      </c>
+      <c r="S93" t="s">
         <v>127</v>
       </c>
-      <c r="R93" t="s">
-        <v>125</v>
-      </c>
-      <c r="S93" t="s">
-        <v>129</v>
-      </c>
       <c r="T93" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="U93" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="94" spans="1:21">
@@ -6718,55 +6679,61 @@
         <v>112</v>
       </c>
       <c r="C94">
-        <v>38.56</v>
+        <v>50.3</v>
       </c>
       <c r="D94">
-        <v>34.17</v>
+        <v>48.47</v>
       </c>
       <c r="E94">
-        <v>45.82</v>
+        <v>48.49</v>
       </c>
       <c r="F94">
-        <v>22.96</v>
+        <v>38.02</v>
       </c>
       <c r="G94">
-        <v>29.44</v>
+        <v>42.69</v>
       </c>
       <c r="H94">
-        <v>41.6</v>
+        <v>39.57</v>
       </c>
       <c r="I94">
-        <v>2</v>
+        <v>196</v>
       </c>
       <c r="J94">
+        <v>213</v>
+      </c>
+      <c r="K94">
+        <v>195</v>
+      </c>
+      <c r="L94">
+        <v>40.22</v>
+      </c>
+      <c r="M94">
+        <v>30</v>
+      </c>
+      <c r="N94">
+        <v>0.06</v>
+      </c>
+      <c r="O94">
+        <v>10</v>
+      </c>
+      <c r="P94">
         <v>8</v>
       </c>
-      <c r="K94">
-        <v>594</v>
-      </c>
-      <c r="L94">
-        <v>41.41</v>
-      </c>
-      <c r="M94">
-        <v>50</v>
-      </c>
-      <c r="N94">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="O94">
-        <v>10</v>
-      </c>
-      <c r="P94">
-        <v>9</v>
-      </c>
       <c r="Q94" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="R94" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="S94" t="s">
-        <v>129</v>
+        <v>123</v>
+      </c>
+      <c r="T94" t="s">
+        <v>128</v>
+      </c>
+      <c r="U94" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="95" spans="1:21">
@@ -6777,22 +6744,22 @@
         <v>113</v>
       </c>
       <c r="C95">
-        <v>52.34</v>
+        <v>49.45</v>
       </c>
       <c r="D95">
-        <v>50.51</v>
+        <v>48.6</v>
       </c>
       <c r="E95">
-        <v>46.44</v>
+        <v>47.95</v>
       </c>
       <c r="F95">
-        <v>49.84</v>
+        <v>39.8</v>
       </c>
       <c r="G95">
-        <v>34.95</v>
+        <v>44.04</v>
       </c>
       <c r="H95">
-        <v>39.1</v>
+        <v>38.27</v>
       </c>
       <c r="I95">
         <v>196</v>
@@ -6804,34 +6771,34 @@
         <v>195</v>
       </c>
       <c r="L95">
-        <v>41.6</v>
+        <v>40.87</v>
       </c>
       <c r="M95">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N95">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="O95">
         <v>10</v>
       </c>
       <c r="P95">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Q95" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="R95" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="S95" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="T95" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="U95" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="96" spans="1:21">
@@ -6842,22 +6809,22 @@
         <v>114</v>
       </c>
       <c r="C96">
-        <v>36.22</v>
+        <v>49.42</v>
       </c>
       <c r="D96">
-        <v>34.44</v>
+        <v>48.34</v>
       </c>
       <c r="E96">
-        <v>36.24</v>
+        <v>49.19</v>
       </c>
       <c r="F96">
-        <v>38.14</v>
+        <v>38.66</v>
       </c>
       <c r="G96">
-        <v>50.01</v>
+        <v>44.02</v>
       </c>
       <c r="H96">
-        <v>35.04</v>
+        <v>39.51</v>
       </c>
       <c r="I96">
         <v>196</v>
@@ -6869,34 +6836,34 @@
         <v>195</v>
       </c>
       <c r="L96">
-        <v>41.84</v>
+        <v>40.9</v>
       </c>
       <c r="M96">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N96">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="O96">
         <v>10</v>
       </c>
       <c r="P96">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="Q96" t="s">
+        <v>120</v>
+      </c>
+      <c r="R96" t="s">
+        <v>122</v>
+      </c>
+      <c r="S96" t="s">
+        <v>123</v>
+      </c>
+      <c r="T96" t="s">
+        <v>128</v>
+      </c>
+      <c r="U96" t="s">
         <v>130</v>
-      </c>
-      <c r="R96" t="s">
-        <v>128</v>
-      </c>
-      <c r="S96" t="s">
-        <v>127</v>
-      </c>
-      <c r="T96" t="s">
-        <v>133</v>
-      </c>
-      <c r="U96" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="97" spans="1:21">
@@ -6907,22 +6874,22 @@
         <v>115</v>
       </c>
       <c r="C97">
-        <v>49.76</v>
+        <v>49.38</v>
       </c>
       <c r="D97">
-        <v>48.07</v>
+        <v>48.39</v>
       </c>
       <c r="E97">
-        <v>48.09</v>
+        <v>49.01</v>
       </c>
       <c r="F97">
-        <v>39.66</v>
+        <v>38.98</v>
       </c>
       <c r="G97">
-        <v>44.66</v>
+        <v>44.05</v>
       </c>
       <c r="H97">
-        <v>40.95</v>
+        <v>39.45</v>
       </c>
       <c r="I97">
         <v>196</v>
@@ -6934,34 +6901,34 @@
         <v>195</v>
       </c>
       <c r="L97">
-        <v>41.89</v>
+        <v>40.99</v>
       </c>
       <c r="M97">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="N97">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="O97">
         <v>10</v>
       </c>
       <c r="P97">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Q97" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="R97" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="S97" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="T97" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="U97" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="98" spans="1:21">
@@ -6972,55 +6939,61 @@
         <v>116</v>
       </c>
       <c r="C98">
-        <v>29.63</v>
+        <v>49.92</v>
       </c>
       <c r="D98">
-        <v>33.32</v>
+        <v>48.02</v>
       </c>
       <c r="E98">
-        <v>46.78</v>
+        <v>48.2</v>
       </c>
       <c r="F98">
-        <v>13.41</v>
+        <v>39.34</v>
       </c>
       <c r="G98">
-        <v>19.53</v>
+        <v>44.57</v>
       </c>
       <c r="H98">
-        <v>42.66</v>
+        <v>40.86</v>
       </c>
       <c r="I98">
-        <v>2</v>
+        <v>196</v>
       </c>
       <c r="J98">
-        <v>8</v>
+        <v>213</v>
       </c>
       <c r="K98">
-        <v>594</v>
+        <v>195</v>
       </c>
       <c r="L98">
-        <v>42.37</v>
+        <v>41.73</v>
       </c>
       <c r="M98">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="N98">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="O98">
         <v>10</v>
       </c>
       <c r="P98">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="Q98" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="R98" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="S98" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="T98" t="s">
+        <v>128</v>
+      </c>
+      <c r="U98" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="99" spans="1:21">
@@ -7031,22 +7004,22 @@
         <v>117</v>
       </c>
       <c r="C99">
-        <v>28.82</v>
+        <v>34.75</v>
       </c>
       <c r="D99">
-        <v>32.14</v>
+        <v>20.4</v>
       </c>
       <c r="E99">
-        <v>45.98</v>
+        <v>23.04</v>
       </c>
       <c r="F99">
-        <v>52.51</v>
+        <v>81.63</v>
       </c>
       <c r="G99">
-        <v>20.95</v>
+        <v>52.78</v>
       </c>
       <c r="H99">
-        <v>43.27</v>
+        <v>43.14</v>
       </c>
       <c r="I99">
         <v>2</v>
@@ -7058,13 +7031,13 @@
         <v>594</v>
       </c>
       <c r="L99">
-        <v>43.09</v>
+        <v>43.46</v>
       </c>
       <c r="M99">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N99">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="O99">
         <v>10</v>
@@ -7073,12 +7046,18 @@
         <v>12</v>
       </c>
       <c r="Q99" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="R99" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="S99" t="s">
+        <v>123</v>
+      </c>
+      <c r="T99" t="s">
+        <v>128</v>
+      </c>
+      <c r="U99" t="s">
         <v>131</v>
       </c>
     </row>
@@ -7090,22 +7069,22 @@
         <v>118</v>
       </c>
       <c r="C100">
-        <v>40.53</v>
+        <v>23.36</v>
       </c>
       <c r="D100">
-        <v>31.93</v>
+        <v>24.98</v>
       </c>
       <c r="E100">
-        <v>46.89</v>
+        <v>29.04</v>
       </c>
       <c r="F100">
-        <v>10.28</v>
+        <v>21.05</v>
       </c>
       <c r="G100">
-        <v>19.64</v>
+        <v>20.76</v>
       </c>
       <c r="H100">
-        <v>43.87</v>
+        <v>43.75</v>
       </c>
       <c r="I100">
         <v>2</v>
@@ -7117,28 +7096,34 @@
         <v>594</v>
       </c>
       <c r="L100">
-        <v>43.57</v>
+        <v>43.47</v>
       </c>
       <c r="M100">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N100">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="O100">
         <v>10</v>
       </c>
       <c r="P100">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Q100" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="R100" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="S100" t="s">
-        <v>127</v>
+        <v>121</v>
+      </c>
+      <c r="T100" t="s">
+        <v>128</v>
+      </c>
+      <c r="U100" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="101" spans="1:21">
@@ -7149,22 +7134,22 @@
         <v>119</v>
       </c>
       <c r="C101">
-        <v>42.64</v>
+        <v>29.4</v>
       </c>
       <c r="D101">
-        <v>36.68</v>
+        <v>26.87</v>
       </c>
       <c r="E101">
-        <v>48.44</v>
+        <v>48.5</v>
       </c>
       <c r="F101">
-        <v>21</v>
+        <v>40.93</v>
       </c>
       <c r="G101">
-        <v>20.06</v>
+        <v>22.44</v>
       </c>
       <c r="H101">
-        <v>44.56</v>
+        <v>44.76</v>
       </c>
       <c r="I101">
         <v>2</v>
@@ -7176,7 +7161,7 @@
         <v>594</v>
       </c>
       <c r="L101">
-        <v>44.27</v>
+        <v>44.52</v>
       </c>
       <c r="M101">
         <v>22</v>
@@ -7191,338 +7176,19 @@
         <v>10</v>
       </c>
       <c r="Q101" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="R101" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="S101" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="T101" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="U101" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="102" spans="1:21">
-      <c r="A102" s="1">
-        <v>100</v>
-      </c>
-      <c r="B102" t="s">
-        <v>120</v>
-      </c>
-      <c r="C102">
-        <v>46.03</v>
-      </c>
-      <c r="D102">
-        <v>41.79</v>
-      </c>
-      <c r="E102">
-        <v>50.61</v>
-      </c>
-      <c r="F102">
-        <v>19.1</v>
-      </c>
-      <c r="G102">
-        <v>21.33</v>
-      </c>
-      <c r="H102">
-        <v>45.17</v>
-      </c>
-      <c r="I102">
-        <v>2</v>
-      </c>
-      <c r="J102">
-        <v>8</v>
-      </c>
-      <c r="K102">
-        <v>594</v>
-      </c>
-      <c r="L102">
-        <v>44.87</v>
-      </c>
-      <c r="M102">
-        <v>14</v>
-      </c>
-      <c r="N102">
-        <v>0.14</v>
-      </c>
-      <c r="O102">
-        <v>10</v>
-      </c>
-      <c r="P102">
-        <v>9</v>
-      </c>
-      <c r="Q102" t="s">
-        <v>125</v>
-      </c>
-      <c r="R102" t="s">
-        <v>129</v>
-      </c>
-      <c r="S102" t="s">
-        <v>126</v>
-      </c>
-      <c r="T102" t="s">
-        <v>133</v>
-      </c>
-      <c r="U102" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="103" spans="1:21">
-      <c r="A103" s="1">
-        <v>101</v>
-      </c>
-      <c r="B103" t="s">
-        <v>121</v>
-      </c>
-      <c r="C103">
-        <v>46.51</v>
-      </c>
-      <c r="D103">
-        <v>37.54</v>
-      </c>
-      <c r="E103">
-        <v>48.54</v>
-      </c>
-      <c r="F103">
-        <v>24.79</v>
-      </c>
-      <c r="G103">
-        <v>20.38</v>
-      </c>
-      <c r="H103">
-        <v>45.81</v>
-      </c>
-      <c r="I103">
-        <v>2</v>
-      </c>
-      <c r="J103">
-        <v>8</v>
-      </c>
-      <c r="K103">
-        <v>594</v>
-      </c>
-      <c r="L103">
-        <v>45.51</v>
-      </c>
-      <c r="M103">
-        <v>16</v>
-      </c>
-      <c r="N103">
-        <v>0.11</v>
-      </c>
-      <c r="O103">
-        <v>10</v>
-      </c>
-      <c r="P103">
-        <v>8</v>
-      </c>
-      <c r="Q103" t="s">
-        <v>125</v>
-      </c>
-      <c r="R103" t="s">
-        <v>129</v>
-      </c>
-      <c r="S103" t="s">
-        <v>126</v>
-      </c>
-      <c r="T103" t="s">
-        <v>133</v>
-      </c>
-      <c r="U103" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="104" spans="1:21">
-      <c r="A104" s="1">
-        <v>102</v>
-      </c>
-      <c r="B104" t="s">
-        <v>122</v>
-      </c>
-      <c r="C104">
-        <v>48.31</v>
-      </c>
-      <c r="D104">
-        <v>37.97</v>
-      </c>
-      <c r="E104">
-        <v>48.62</v>
-      </c>
-      <c r="F104">
-        <v>17.88</v>
-      </c>
-      <c r="G104">
-        <v>20.74</v>
-      </c>
-      <c r="H104">
-        <v>46.61</v>
-      </c>
-      <c r="I104">
-        <v>2</v>
-      </c>
-      <c r="J104">
-        <v>8</v>
-      </c>
-      <c r="K104">
-        <v>594</v>
-      </c>
-      <c r="L104">
-        <v>46.29</v>
-      </c>
-      <c r="M104">
-        <v>18</v>
-      </c>
-      <c r="N104">
-        <v>0.12</v>
-      </c>
-      <c r="O104">
-        <v>10</v>
-      </c>
-      <c r="P104">
-        <v>10</v>
-      </c>
-      <c r="Q104" t="s">
-        <v>125</v>
-      </c>
-      <c r="R104" t="s">
-        <v>129</v>
-      </c>
-      <c r="S104" t="s">
-        <v>126</v>
-      </c>
-      <c r="T104" t="s">
-        <v>133</v>
-      </c>
-      <c r="U104" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="105" spans="1:21">
-      <c r="A105" s="1">
-        <v>103</v>
-      </c>
-      <c r="B105" t="s">
-        <v>123</v>
-      </c>
-      <c r="C105">
-        <v>46.75</v>
-      </c>
-      <c r="D105">
-        <v>38.61</v>
-      </c>
-      <c r="E105">
-        <v>48.85</v>
-      </c>
-      <c r="F105">
-        <v>13.58</v>
-      </c>
-      <c r="G105">
-        <v>21.17</v>
-      </c>
-      <c r="H105">
-        <v>46.74</v>
-      </c>
-      <c r="I105">
-        <v>2</v>
-      </c>
-      <c r="J105">
-        <v>8</v>
-      </c>
-      <c r="K105">
-        <v>594</v>
-      </c>
-      <c r="L105">
-        <v>46.43</v>
-      </c>
-      <c r="M105">
-        <v>16</v>
-      </c>
-      <c r="N105">
-        <v>0.15</v>
-      </c>
-      <c r="O105">
-        <v>10</v>
-      </c>
-      <c r="P105">
-        <v>13</v>
-      </c>
-      <c r="Q105" t="s">
-        <v>125</v>
-      </c>
-      <c r="R105" t="s">
-        <v>129</v>
-      </c>
-      <c r="S105" t="s">
-        <v>126</v>
-      </c>
-      <c r="T105" t="s">
-        <v>133</v>
-      </c>
-      <c r="U105" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="106" spans="1:21">
-      <c r="A106" s="1">
-        <v>104</v>
-      </c>
-      <c r="B106" t="s">
-        <v>124</v>
-      </c>
-      <c r="C106">
-        <v>39.2</v>
-      </c>
-      <c r="D106">
-        <v>34.57</v>
-      </c>
-      <c r="E106">
-        <v>46.36</v>
-      </c>
-      <c r="F106">
-        <v>37.12</v>
-      </c>
-      <c r="G106">
-        <v>21.4</v>
-      </c>
-      <c r="H106">
-        <v>48.86</v>
-      </c>
-      <c r="I106">
-        <v>2</v>
-      </c>
-      <c r="J106">
-        <v>8</v>
-      </c>
-      <c r="K106">
-        <v>594</v>
-      </c>
-      <c r="L106">
-        <v>48.56</v>
-      </c>
-      <c r="M106">
-        <v>40</v>
-      </c>
-      <c r="N106">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="O106">
-        <v>10</v>
-      </c>
-      <c r="P106">
-        <v>6</v>
-      </c>
-      <c r="Q106" t="s">
-        <v>129</v>
-      </c>
-      <c r="R106" t="s">
-        <v>126</v>
-      </c>
-      <c r="S106" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
